--- a/ projectquanlybongdavodichquocgia/Document/Specify/SPECIFY PROJECT_Xuan.xlsx
+++ b/ projectquanlybongdavodichquocgia/Document/Specify/SPECIFY PROJECT_Xuan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="19440" windowHeight="7230" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="210" windowWidth="19440" windowHeight="7170" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover(Tổng Quan)" sheetId="4" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Cover(Tổng Quan)'!$A$1:$O$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'SPECIFY(Chi Tiết)(2)'!$A$1:$BA$267</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'SPECIFY(Chi Tiết)(2)'!$A$1:$BA$268</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'SPECIFY(Đặc Tả)(1)'!$A$1:$BA$16</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="115">
   <si>
     <t>ID</t>
   </si>
@@ -396,6 +396,12 @@
   </si>
   <si>
     <t>Đối với đội dự Cup C1 phải có Khách sạn 5 sao</t>
+  </si>
+  <si>
+    <t>3. Hệ thống sẽ cung cấp một số thông tin gợi ý cho người dùng, tiện cho việc thao tác.</t>
+  </si>
+  <si>
+    <t>3. Hệ thống sẽ đưa ra một số gợi ý cho người dùng thao tác nhanh hơn trong việc sử dụng.</t>
   </si>
 </sst>
 </file>
@@ -1138,6 +1144,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="26" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1180,21 +1192,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="26" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="19" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1204,31 +1201,10 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="19" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="11" xfId="19" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="19" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1250,6 +1226,60 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="19" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="11" xfId="19" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="19" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1287,30 +1317,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="19" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -3075,38 +3081,38 @@
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
-      <c r="O2" s="70" t="s">
+      <c r="O2" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="70"/>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="70"/>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="70"/>
-      <c r="AG2" s="70"/>
-      <c r="AH2" s="70"/>
-      <c r="AI2" s="70"/>
-      <c r="AJ2" s="70"/>
-      <c r="AK2" s="70"/>
-      <c r="AL2" s="70"/>
-      <c r="AM2" s="70"/>
-      <c r="AN2" s="70"/>
-      <c r="AO2" s="70"/>
-      <c r="AP2" s="70"/>
-      <c r="AQ2" s="70"/>
-      <c r="AR2" s="70"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="56"/>
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56"/>
       <c r="AS2" s="14"/>
       <c r="AT2" s="14"/>
       <c r="AU2" s="14"/>
@@ -3215,228 +3221,223 @@
       <c r="AV4" s="14"/>
     </row>
     <row r="5" spans="1:48">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56" t="s">
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="56"/>
-      <c r="AQ5" s="56"/>
-      <c r="AR5" s="56"/>
-      <c r="AS5" s="56" t="s">
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="58"/>
+      <c r="Y5" s="58"/>
+      <c r="Z5" s="58"/>
+      <c r="AA5" s="58"/>
+      <c r="AB5" s="58"/>
+      <c r="AC5" s="58"/>
+      <c r="AD5" s="58"/>
+      <c r="AE5" s="58"/>
+      <c r="AF5" s="58"/>
+      <c r="AG5" s="58"/>
+      <c r="AH5" s="58"/>
+      <c r="AI5" s="58"/>
+      <c r="AJ5" s="58"/>
+      <c r="AK5" s="58"/>
+      <c r="AL5" s="58"/>
+      <c r="AM5" s="58"/>
+      <c r="AN5" s="58"/>
+      <c r="AO5" s="58"/>
+      <c r="AP5" s="58"/>
+      <c r="AQ5" s="58"/>
+      <c r="AR5" s="58"/>
+      <c r="AS5" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="AT5" s="56"/>
-      <c r="AU5" s="56"/>
-      <c r="AV5" s="56"/>
+      <c r="AT5" s="58"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
     </row>
     <row r="6" spans="1:48">
-      <c r="A6" s="64">
+      <c r="A6" s="66">
         <v>1</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="66">
+      <c r="B6" s="67"/>
+      <c r="C6" s="68">
         <v>40997</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="69" t="s">
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="69"/>
-      <c r="AA6" s="69"/>
-      <c r="AB6" s="69"/>
-      <c r="AC6" s="69"/>
-      <c r="AD6" s="69"/>
-      <c r="AE6" s="69"/>
-      <c r="AF6" s="69"/>
-      <c r="AG6" s="69"/>
-      <c r="AH6" s="69"/>
-      <c r="AI6" s="69"/>
-      <c r="AJ6" s="69"/>
-      <c r="AK6" s="69"/>
-      <c r="AL6" s="69"/>
-      <c r="AM6" s="69"/>
-      <c r="AN6" s="69"/>
-      <c r="AO6" s="69"/>
-      <c r="AP6" s="69"/>
-      <c r="AQ6" s="69"/>
-      <c r="AR6" s="69"/>
-      <c r="AS6" s="63" t="s">
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="71"/>
+      <c r="Z6" s="71"/>
+      <c r="AA6" s="71"/>
+      <c r="AB6" s="71"/>
+      <c r="AC6" s="71"/>
+      <c r="AD6" s="71"/>
+      <c r="AE6" s="71"/>
+      <c r="AF6" s="71"/>
+      <c r="AG6" s="71"/>
+      <c r="AH6" s="71"/>
+      <c r="AI6" s="71"/>
+      <c r="AJ6" s="71"/>
+      <c r="AK6" s="71"/>
+      <c r="AL6" s="71"/>
+      <c r="AM6" s="71"/>
+      <c r="AN6" s="71"/>
+      <c r="AO6" s="71"/>
+      <c r="AP6" s="71"/>
+      <c r="AQ6" s="71"/>
+      <c r="AR6" s="71"/>
+      <c r="AS6" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="AT6" s="63"/>
-      <c r="AU6" s="63"/>
-      <c r="AV6" s="63"/>
+      <c r="AT6" s="65"/>
+      <c r="AU6" s="65"/>
+      <c r="AV6" s="65"/>
     </row>
     <row r="7" spans="1:48">
-      <c r="A7" s="58"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="62"/>
-      <c r="W7" s="62"/>
-      <c r="X7" s="62"/>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="62"/>
-      <c r="AA7" s="62"/>
-      <c r="AB7" s="62"/>
-      <c r="AC7" s="62"/>
-      <c r="AD7" s="62"/>
-      <c r="AE7" s="62"/>
-      <c r="AF7" s="62"/>
-      <c r="AG7" s="62"/>
-      <c r="AH7" s="62"/>
-      <c r="AI7" s="62"/>
-      <c r="AJ7" s="62"/>
-      <c r="AK7" s="62"/>
-      <c r="AL7" s="62"/>
-      <c r="AM7" s="62"/>
-      <c r="AN7" s="62"/>
-      <c r="AO7" s="62"/>
-      <c r="AP7" s="62"/>
-      <c r="AQ7" s="62"/>
-      <c r="AR7" s="62"/>
-      <c r="AS7" s="57"/>
-      <c r="AT7" s="57"/>
-      <c r="AU7" s="57"/>
-      <c r="AV7" s="57"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="64"/>
+      <c r="W7" s="64"/>
+      <c r="X7" s="64"/>
+      <c r="Y7" s="64"/>
+      <c r="Z7" s="64"/>
+      <c r="AA7" s="64"/>
+      <c r="AB7" s="64"/>
+      <c r="AC7" s="64"/>
+      <c r="AD7" s="64"/>
+      <c r="AE7" s="64"/>
+      <c r="AF7" s="64"/>
+      <c r="AG7" s="64"/>
+      <c r="AH7" s="64"/>
+      <c r="AI7" s="64"/>
+      <c r="AJ7" s="64"/>
+      <c r="AK7" s="64"/>
+      <c r="AL7" s="64"/>
+      <c r="AM7" s="64"/>
+      <c r="AN7" s="64"/>
+      <c r="AO7" s="64"/>
+      <c r="AP7" s="64"/>
+      <c r="AQ7" s="64"/>
+      <c r="AR7" s="64"/>
+      <c r="AS7" s="59"/>
+      <c r="AT7" s="59"/>
+      <c r="AU7" s="59"/>
+      <c r="AV7" s="59"/>
     </row>
     <row r="8" spans="1:48">
-      <c r="A8" s="58"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="62"/>
-      <c r="W8" s="62"/>
-      <c r="X8" s="62"/>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="62"/>
-      <c r="AA8" s="62"/>
-      <c r="AB8" s="62"/>
-      <c r="AC8" s="62"/>
-      <c r="AD8" s="62"/>
-      <c r="AE8" s="62"/>
-      <c r="AF8" s="62"/>
-      <c r="AG8" s="62"/>
-      <c r="AH8" s="62"/>
-      <c r="AI8" s="62"/>
-      <c r="AJ8" s="62"/>
-      <c r="AK8" s="62"/>
-      <c r="AL8" s="62"/>
-      <c r="AM8" s="62"/>
-      <c r="AN8" s="62"/>
-      <c r="AO8" s="62"/>
-      <c r="AP8" s="62"/>
-      <c r="AQ8" s="62"/>
-      <c r="AR8" s="62"/>
-      <c r="AS8" s="57"/>
-      <c r="AT8" s="57"/>
-      <c r="AU8" s="57"/>
-      <c r="AV8" s="57"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="64"/>
+      <c r="Y8" s="64"/>
+      <c r="Z8" s="64"/>
+      <c r="AA8" s="64"/>
+      <c r="AB8" s="64"/>
+      <c r="AC8" s="64"/>
+      <c r="AD8" s="64"/>
+      <c r="AE8" s="64"/>
+      <c r="AF8" s="64"/>
+      <c r="AG8" s="64"/>
+      <c r="AH8" s="64"/>
+      <c r="AI8" s="64"/>
+      <c r="AJ8" s="64"/>
+      <c r="AK8" s="64"/>
+      <c r="AL8" s="64"/>
+      <c r="AM8" s="64"/>
+      <c r="AN8" s="64"/>
+      <c r="AO8" s="64"/>
+      <c r="AP8" s="64"/>
+      <c r="AQ8" s="64"/>
+      <c r="AR8" s="64"/>
+      <c r="AS8" s="59"/>
+      <c r="AT8" s="59"/>
+      <c r="AU8" s="59"/>
+      <c r="AV8" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="O2:AR2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="O5:AR5"/>
     <mergeCell ref="AS5:AV5"/>
     <mergeCell ref="AS8:AV8"/>
     <mergeCell ref="A8:B8"/>
@@ -3453,6 +3454,11 @@
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="H7:N7"/>
     <mergeCell ref="O7:AR7"/>
+    <mergeCell ref="O2:AR2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="O5:AR5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
@@ -3476,69 +3482,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="85" t="str">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="92" t="str">
         <f>'History(Lich Su)'!A4</f>
         <v>Quản Lý Giải Vô Địch Bóng Đá Quốc Gia</v>
       </c>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85"/>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="85"/>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="85"/>
-      <c r="AD1" s="85"/>
-      <c r="AE1" s="85"/>
-      <c r="AF1" s="85"/>
-      <c r="AG1" s="85"/>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="78" t="s">
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="92"/>
+      <c r="AB1" s="92"/>
+      <c r="AC1" s="92"/>
+      <c r="AD1" s="92"/>
+      <c r="AE1" s="92"/>
+      <c r="AF1" s="92"/>
+      <c r="AG1" s="92"/>
+      <c r="AH1" s="93"/>
+      <c r="AI1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="79"/>
-      <c r="AM1" s="80"/>
-      <c r="AN1" s="81">
+      <c r="AJ1" s="85"/>
+      <c r="AK1" s="85"/>
+      <c r="AL1" s="85"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="88">
         <f>'History(Lich Su)'!C6</f>
         <v>40997</v>
       </c>
-      <c r="AO1" s="82"/>
-      <c r="AP1" s="82"/>
-      <c r="AQ1" s="82"/>
-      <c r="AR1" s="82"/>
-      <c r="AS1" s="82"/>
-      <c r="AT1" s="82"/>
-      <c r="AU1" s="82"/>
-      <c r="AV1" s="82"/>
-      <c r="AW1" s="82"/>
-      <c r="AX1" s="82"/>
-      <c r="AY1" s="82"/>
-      <c r="AZ1" s="82"/>
-      <c r="BA1" s="83"/>
+      <c r="AO1" s="89"/>
+      <c r="AP1" s="89"/>
+      <c r="AQ1" s="89"/>
+      <c r="AR1" s="89"/>
+      <c r="AS1" s="89"/>
+      <c r="AT1" s="89"/>
+      <c r="AU1" s="89"/>
+      <c r="AV1" s="89"/>
+      <c r="AW1" s="89"/>
+      <c r="AX1" s="89"/>
+      <c r="AY1" s="89"/>
+      <c r="AZ1" s="89"/>
+      <c r="BA1" s="90"/>
     </row>
     <row r="2" spans="1:61">
       <c r="A2" s="22"/>
@@ -3575,41 +3581,41 @@
       <c r="AF2" s="23"/>
       <c r="AG2" s="23"/>
       <c r="AH2" s="24"/>
-      <c r="AI2" s="72" t="s">
+      <c r="AI2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" s="73"/>
-      <c r="AK2" s="73"/>
-      <c r="AL2" s="73"/>
-      <c r="AM2" s="74"/>
-      <c r="AN2" s="84" t="str">
+      <c r="AJ2" s="76"/>
+      <c r="AK2" s="76"/>
+      <c r="AL2" s="76"/>
+      <c r="AM2" s="87"/>
+      <c r="AN2" s="91" t="str">
         <f>'History(Lich Su)'!AS6</f>
         <v>HaiPM</v>
       </c>
-      <c r="AO2" s="82"/>
-      <c r="AP2" s="82"/>
-      <c r="AQ2" s="82"/>
-      <c r="AR2" s="82"/>
-      <c r="AS2" s="82"/>
-      <c r="AT2" s="82"/>
-      <c r="AU2" s="82"/>
-      <c r="AV2" s="82"/>
-      <c r="AW2" s="82"/>
-      <c r="AX2" s="82"/>
-      <c r="AY2" s="82"/>
-      <c r="AZ2" s="82"/>
-      <c r="BA2" s="83"/>
+      <c r="AO2" s="89"/>
+      <c r="AP2" s="89"/>
+      <c r="AQ2" s="89"/>
+      <c r="AR2" s="89"/>
+      <c r="AS2" s="89"/>
+      <c r="AT2" s="89"/>
+      <c r="AU2" s="89"/>
+      <c r="AV2" s="89"/>
+      <c r="AW2" s="89"/>
+      <c r="AX2" s="89"/>
+      <c r="AY2" s="89"/>
+      <c r="AZ2" s="89"/>
+      <c r="BA2" s="90"/>
     </row>
     <row r="3" spans="1:61">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="87"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="77"/>
       <c r="H3" s="23" t="str">
         <f>'History(Lich Su)'!A4</f>
         <v>Quản Lý Giải Vô Địch Bóng Đá Quốc Gia</v>
@@ -3664,64 +3670,64 @@
       <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="91" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="93"/>
-      <c r="S4" s="72" t="s">
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73"/>
-      <c r="X4" s="73"/>
-      <c r="Y4" s="73"/>
-      <c r="Z4" s="73"/>
-      <c r="AA4" s="73"/>
-      <c r="AB4" s="73"/>
-      <c r="AC4" s="73"/>
-      <c r="AD4" s="73"/>
-      <c r="AE4" s="73"/>
-      <c r="AF4" s="73"/>
-      <c r="AG4" s="73"/>
-      <c r="AH4" s="73"/>
-      <c r="AI4" s="73"/>
-      <c r="AJ4" s="73"/>
-      <c r="AK4" s="73"/>
-      <c r="AL4" s="73"/>
-      <c r="AM4" s="73"/>
-      <c r="AN4" s="73"/>
-      <c r="AO4" s="73"/>
-      <c r="AP4" s="73"/>
-      <c r="AQ4" s="73"/>
-      <c r="AR4" s="73"/>
-      <c r="AS4" s="73"/>
-      <c r="AT4" s="73"/>
-      <c r="AU4" s="73"/>
-      <c r="AV4" s="73"/>
-      <c r="AW4" s="73"/>
-      <c r="AX4" s="73"/>
-      <c r="AY4" s="73"/>
-      <c r="AZ4" s="73"/>
-      <c r="BA4" s="87"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="76"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="76"/>
+      <c r="AH4" s="76"/>
+      <c r="AI4" s="76"/>
+      <c r="AJ4" s="76"/>
+      <c r="AK4" s="76"/>
+      <c r="AL4" s="76"/>
+      <c r="AM4" s="76"/>
+      <c r="AN4" s="76"/>
+      <c r="AO4" s="76"/>
+      <c r="AP4" s="76"/>
+      <c r="AQ4" s="76"/>
+      <c r="AR4" s="76"/>
+      <c r="AS4" s="76"/>
+      <c r="AT4" s="76"/>
+      <c r="AU4" s="76"/>
+      <c r="AV4" s="76"/>
+      <c r="AW4" s="76"/>
+      <c r="AX4" s="76"/>
+      <c r="AY4" s="76"/>
+      <c r="AZ4" s="76"/>
+      <c r="BA4" s="77"/>
     </row>
     <row r="5" spans="1:61">
       <c r="A5" s="27">
@@ -3741,14 +3747,14 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
       <c r="L5" s="33"/>
-      <c r="M5" s="75" t="s">
+      <c r="M5" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="77"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="74"/>
       <c r="S5" s="31" t="s">
         <v>3</v>
       </c>
@@ -3808,14 +3814,14 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
       <c r="L6" s="33"/>
-      <c r="M6" s="75" t="s">
+      <c r="M6" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="77"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="74"/>
       <c r="S6" s="31" t="s">
         <v>3</v>
       </c>
@@ -3879,14 +3885,14 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
       <c r="L7" s="33"/>
-      <c r="M7" s="75" t="s">
+      <c r="M7" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="77"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="74"/>
       <c r="S7" s="31" t="s">
         <v>3</v>
       </c>
@@ -3943,14 +3949,14 @@
       <c r="J8" s="29"/>
       <c r="K8" s="29"/>
       <c r="L8" s="30"/>
-      <c r="M8" s="75" t="s">
+      <c r="M8" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="77"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="74"/>
       <c r="S8" s="31" t="s">
         <v>41</v>
       </c>
@@ -4007,14 +4013,14 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
       <c r="L9" s="33"/>
-      <c r="M9" s="75" t="s">
+      <c r="M9" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="N9" s="76"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="77"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="74"/>
       <c r="S9" s="31" t="s">
         <v>41</v>
       </c>
@@ -4071,14 +4077,14 @@
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
       <c r="L10" s="30"/>
-      <c r="M10" s="75" t="s">
+      <c r="M10" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="77"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="74"/>
       <c r="S10" s="31" t="s">
         <v>41</v>
       </c>
@@ -4135,14 +4141,14 @@
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
       <c r="L11" s="30"/>
-      <c r="M11" s="75" t="s">
+      <c r="M11" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="77"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="74"/>
       <c r="S11" s="31" t="s">
         <v>41</v>
       </c>
@@ -4199,14 +4205,14 @@
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
       <c r="L12" s="30"/>
-      <c r="M12" s="75" t="s">
+      <c r="M12" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="N12" s="76"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="77"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="74"/>
       <c r="S12" s="31" t="s">
         <v>42</v>
       </c>
@@ -4263,14 +4269,14 @@
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
       <c r="L13" s="30"/>
-      <c r="M13" s="75" t="s">
+      <c r="M13" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="N13" s="76"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="77"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="74"/>
       <c r="S13" s="31" t="s">
         <v>42</v>
       </c>
@@ -4327,14 +4333,14 @@
       <c r="J14" s="29"/>
       <c r="K14" s="29"/>
       <c r="L14" s="30"/>
-      <c r="M14" s="75" t="s">
+      <c r="M14" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="N14" s="76"/>
-      <c r="O14" s="76"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="77"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="74"/>
       <c r="S14" s="31" t="s">
         <v>42</v>
       </c>
@@ -4391,14 +4397,14 @@
       <c r="J15" s="29"/>
       <c r="K15" s="29"/>
       <c r="L15" s="30"/>
-      <c r="M15" s="75" t="s">
+      <c r="M15" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="N15" s="76"/>
-      <c r="O15" s="76"/>
-      <c r="P15" s="76"/>
-      <c r="Q15" s="76"/>
-      <c r="R15" s="77"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="73"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="74"/>
       <c r="S15" s="31"/>
       <c r="T15" s="32"/>
       <c r="U15" s="32"/>
@@ -4451,14 +4457,14 @@
       <c r="J16" s="29"/>
       <c r="K16" s="29"/>
       <c r="L16" s="30"/>
-      <c r="M16" s="75" t="s">
+      <c r="M16" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="76"/>
-      <c r="O16" s="76"/>
-      <c r="P16" s="76"/>
-      <c r="Q16" s="76"/>
-      <c r="R16" s="77"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="73"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="74"/>
       <c r="S16" s="31"/>
       <c r="T16" s="32"/>
       <c r="U16" s="32"/>
@@ -4497,6 +4503,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="AI1:AM1"/>
+    <mergeCell ref="AI2:AM2"/>
+    <mergeCell ref="AN1:BA1"/>
+    <mergeCell ref="AN2:BA2"/>
+    <mergeCell ref="P1:AH1"/>
     <mergeCell ref="M16:R16"/>
     <mergeCell ref="S4:BA4"/>
     <mergeCell ref="A3:G3"/>
@@ -4509,16 +4525,6 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="M6:R6"/>
     <mergeCell ref="M7:R7"/>
-    <mergeCell ref="AI1:AM1"/>
-    <mergeCell ref="AI2:AM2"/>
-    <mergeCell ref="AN1:BA1"/>
-    <mergeCell ref="AN2:BA2"/>
-    <mergeCell ref="P1:AH1"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="M11:R11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5:R16">
@@ -4536,10 +4542,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:BA267"/>
+  <dimension ref="A1:BA268"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A227" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="X217" sqref="X217"/>
+      <selection activeCell="Q217" sqref="Q217:BA217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4550,69 +4556,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="97" t="str">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="105" t="str">
         <f>'History(Lich Su)'!A4</f>
         <v>Quản Lý Giải Vô Địch Bóng Đá Quốc Gia</v>
       </c>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
-      <c r="Y1" s="97"/>
-      <c r="Z1" s="97"/>
-      <c r="AA1" s="97"/>
-      <c r="AB1" s="97"/>
-      <c r="AC1" s="97"/>
-      <c r="AD1" s="97"/>
-      <c r="AE1" s="97"/>
-      <c r="AF1" s="97"/>
-      <c r="AG1" s="97"/>
-      <c r="AH1" s="98"/>
-      <c r="AI1" s="99" t="s">
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
+      <c r="Y1" s="105"/>
+      <c r="Z1" s="105"/>
+      <c r="AA1" s="105"/>
+      <c r="AB1" s="105"/>
+      <c r="AC1" s="105"/>
+      <c r="AD1" s="105"/>
+      <c r="AE1" s="105"/>
+      <c r="AF1" s="105"/>
+      <c r="AG1" s="105"/>
+      <c r="AH1" s="106"/>
+      <c r="AI1" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="AJ1" s="100"/>
-      <c r="AK1" s="100"/>
-      <c r="AL1" s="100"/>
-      <c r="AM1" s="101"/>
-      <c r="AN1" s="102">
+      <c r="AJ1" s="108"/>
+      <c r="AK1" s="108"/>
+      <c r="AL1" s="108"/>
+      <c r="AM1" s="109"/>
+      <c r="AN1" s="110">
         <f>'History(Lich Su)'!C6</f>
         <v>40997</v>
       </c>
-      <c r="AO1" s="103"/>
-      <c r="AP1" s="103"/>
-      <c r="AQ1" s="103"/>
-      <c r="AR1" s="103"/>
-      <c r="AS1" s="103"/>
-      <c r="AT1" s="103"/>
-      <c r="AU1" s="103"/>
-      <c r="AV1" s="103"/>
-      <c r="AW1" s="103"/>
-      <c r="AX1" s="103"/>
-      <c r="AY1" s="103"/>
-      <c r="AZ1" s="103"/>
-      <c r="BA1" s="104"/>
+      <c r="AO1" s="111"/>
+      <c r="AP1" s="111"/>
+      <c r="AQ1" s="111"/>
+      <c r="AR1" s="111"/>
+      <c r="AS1" s="111"/>
+      <c r="AT1" s="111"/>
+      <c r="AU1" s="111"/>
+      <c r="AV1" s="111"/>
+      <c r="AW1" s="111"/>
+      <c r="AX1" s="111"/>
+      <c r="AY1" s="111"/>
+      <c r="AZ1" s="111"/>
+      <c r="BA1" s="112"/>
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="19"/>
@@ -4649,42 +4655,42 @@
       <c r="AF2" s="18"/>
       <c r="AG2" s="18"/>
       <c r="AH2" s="20"/>
-      <c r="AI2" s="94" t="s">
+      <c r="AI2" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" s="95"/>
-      <c r="AK2" s="95"/>
-      <c r="AL2" s="95"/>
-      <c r="AM2" s="96"/>
-      <c r="AN2" s="105" t="str">
+      <c r="AJ2" s="103"/>
+      <c r="AK2" s="103"/>
+      <c r="AL2" s="103"/>
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="113" t="str">
         <f>'History(Lich Su)'!AS6</f>
         <v>HaiPM</v>
       </c>
-      <c r="AO2" s="103"/>
-      <c r="AP2" s="103"/>
-      <c r="AQ2" s="103"/>
-      <c r="AR2" s="103"/>
-      <c r="AS2" s="103"/>
-      <c r="AT2" s="103"/>
-      <c r="AU2" s="103"/>
-      <c r="AV2" s="103"/>
-      <c r="AW2" s="103"/>
-      <c r="AX2" s="103"/>
-      <c r="AY2" s="103"/>
-      <c r="AZ2" s="103"/>
-      <c r="BA2" s="104"/>
+      <c r="AO2" s="111"/>
+      <c r="AP2" s="111"/>
+      <c r="AQ2" s="111"/>
+      <c r="AR2" s="111"/>
+      <c r="AS2" s="111"/>
+      <c r="AT2" s="111"/>
+      <c r="AU2" s="111"/>
+      <c r="AV2" s="111"/>
+      <c r="AW2" s="111"/>
+      <c r="AX2" s="111"/>
+      <c r="AY2" s="111"/>
+      <c r="AZ2" s="111"/>
+      <c r="BA2" s="112"/>
     </row>
     <row r="3" spans="1:53">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="113"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="101"/>
       <c r="I3" s="18" t="str">
         <f>VLOOKUP(B4,'SPECIFY(Đặc Tả)(1)'!$A$5:$BA$33,19,0)</f>
         <v>HaiPM</v>
@@ -4741,62 +4747,62 @@
       <c r="B4" s="17">
         <v>1</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="108"/>
-      <c r="Q4" s="109" t="str">
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="97" t="str">
         <f>VLOOKUP(B4,'SPECIFY(Đặc Tả)(1)'!$A$5:$BA$33,2,0)</f>
         <v>Tiếp nhận HS các đội đăng ký mới</v>
       </c>
-      <c r="R4" s="110"/>
-      <c r="S4" s="110"/>
-      <c r="T4" s="110"/>
-      <c r="U4" s="110"/>
-      <c r="V4" s="110"/>
-      <c r="W4" s="110"/>
-      <c r="X4" s="110"/>
-      <c r="Y4" s="110"/>
-      <c r="Z4" s="110"/>
-      <c r="AA4" s="110"/>
-      <c r="AB4" s="110"/>
-      <c r="AC4" s="110"/>
-      <c r="AD4" s="110"/>
-      <c r="AE4" s="110"/>
-      <c r="AF4" s="110"/>
-      <c r="AG4" s="110"/>
-      <c r="AH4" s="110"/>
-      <c r="AI4" s="110"/>
-      <c r="AJ4" s="110"/>
-      <c r="AK4" s="110"/>
-      <c r="AL4" s="110"/>
-      <c r="AM4" s="110"/>
-      <c r="AN4" s="110"/>
-      <c r="AO4" s="110"/>
-      <c r="AP4" s="110"/>
-      <c r="AQ4" s="110"/>
-      <c r="AR4" s="110"/>
-      <c r="AS4" s="110"/>
-      <c r="AT4" s="110"/>
-      <c r="AU4" s="110"/>
-      <c r="AV4" s="110"/>
-      <c r="AW4" s="110"/>
-      <c r="AX4" s="110"/>
-      <c r="AY4" s="110"/>
-      <c r="AZ4" s="110"/>
-      <c r="BA4" s="110"/>
+      <c r="R4" s="98"/>
+      <c r="S4" s="98"/>
+      <c r="T4" s="98"/>
+      <c r="U4" s="98"/>
+      <c r="V4" s="98"/>
+      <c r="W4" s="98"/>
+      <c r="X4" s="98"/>
+      <c r="Y4" s="98"/>
+      <c r="Z4" s="98"/>
+      <c r="AA4" s="98"/>
+      <c r="AB4" s="98"/>
+      <c r="AC4" s="98"/>
+      <c r="AD4" s="98"/>
+      <c r="AE4" s="98"/>
+      <c r="AF4" s="98"/>
+      <c r="AG4" s="98"/>
+      <c r="AH4" s="98"/>
+      <c r="AI4" s="98"/>
+      <c r="AJ4" s="98"/>
+      <c r="AK4" s="98"/>
+      <c r="AL4" s="98"/>
+      <c r="AM4" s="98"/>
+      <c r="AN4" s="98"/>
+      <c r="AO4" s="98"/>
+      <c r="AP4" s="98"/>
+      <c r="AQ4" s="98"/>
+      <c r="AR4" s="98"/>
+      <c r="AS4" s="98"/>
+      <c r="AT4" s="98"/>
+      <c r="AU4" s="98"/>
+      <c r="AV4" s="98"/>
+      <c r="AW4" s="98"/>
+      <c r="AX4" s="98"/>
+      <c r="AY4" s="98"/>
+      <c r="AZ4" s="98"/>
+      <c r="BA4" s="98"/>
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="51" t="s">
@@ -6009,62 +6015,62 @@
       <c r="B26" s="17">
         <v>2</v>
       </c>
-      <c r="C26" s="106" t="s">
+      <c r="C26" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="107"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="107"/>
-      <c r="G26" s="107"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="107"/>
-      <c r="K26" s="107"/>
-      <c r="L26" s="107"/>
-      <c r="M26" s="107"/>
-      <c r="N26" s="107"/>
-      <c r="O26" s="107"/>
-      <c r="P26" s="108"/>
-      <c r="Q26" s="109" t="str">
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="96"/>
+      <c r="Q26" s="97" t="str">
         <f>VLOOKUP(B26,'SPECIFY(Đặc Tả)(1)'!$A$5:$BA$33,2,0)</f>
         <v>Tiếp nhận DS các cầu thủ</v>
       </c>
-      <c r="R26" s="110"/>
-      <c r="S26" s="110"/>
-      <c r="T26" s="110"/>
-      <c r="U26" s="110"/>
-      <c r="V26" s="110"/>
-      <c r="W26" s="110"/>
-      <c r="X26" s="110"/>
-      <c r="Y26" s="110"/>
-      <c r="Z26" s="110"/>
-      <c r="AA26" s="110"/>
-      <c r="AB26" s="110"/>
-      <c r="AC26" s="110"/>
-      <c r="AD26" s="110"/>
-      <c r="AE26" s="110"/>
-      <c r="AF26" s="110"/>
-      <c r="AG26" s="110"/>
-      <c r="AH26" s="110"/>
-      <c r="AI26" s="110"/>
-      <c r="AJ26" s="110"/>
-      <c r="AK26" s="110"/>
-      <c r="AL26" s="110"/>
-      <c r="AM26" s="110"/>
-      <c r="AN26" s="110"/>
-      <c r="AO26" s="110"/>
-      <c r="AP26" s="110"/>
-      <c r="AQ26" s="110"/>
-      <c r="AR26" s="110"/>
-      <c r="AS26" s="110"/>
-      <c r="AT26" s="110"/>
-      <c r="AU26" s="110"/>
-      <c r="AV26" s="110"/>
-      <c r="AW26" s="110"/>
-      <c r="AX26" s="110"/>
-      <c r="AY26" s="110"/>
-      <c r="AZ26" s="110"/>
-      <c r="BA26" s="110"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="98"/>
+      <c r="U26" s="98"/>
+      <c r="V26" s="98"/>
+      <c r="W26" s="98"/>
+      <c r="X26" s="98"/>
+      <c r="Y26" s="98"/>
+      <c r="Z26" s="98"/>
+      <c r="AA26" s="98"/>
+      <c r="AB26" s="98"/>
+      <c r="AC26" s="98"/>
+      <c r="AD26" s="98"/>
+      <c r="AE26" s="98"/>
+      <c r="AF26" s="98"/>
+      <c r="AG26" s="98"/>
+      <c r="AH26" s="98"/>
+      <c r="AI26" s="98"/>
+      <c r="AJ26" s="98"/>
+      <c r="AK26" s="98"/>
+      <c r="AL26" s="98"/>
+      <c r="AM26" s="98"/>
+      <c r="AN26" s="98"/>
+      <c r="AO26" s="98"/>
+      <c r="AP26" s="98"/>
+      <c r="AQ26" s="98"/>
+      <c r="AR26" s="98"/>
+      <c r="AS26" s="98"/>
+      <c r="AT26" s="98"/>
+      <c r="AU26" s="98"/>
+      <c r="AV26" s="98"/>
+      <c r="AW26" s="98"/>
+      <c r="AX26" s="98"/>
+      <c r="AY26" s="98"/>
+      <c r="AZ26" s="98"/>
+      <c r="BA26" s="98"/>
     </row>
     <row r="27" spans="1:53">
       <c r="A27" s="51" t="s">
@@ -6820,62 +6826,62 @@
       <c r="B40" s="17">
         <v>3</v>
       </c>
-      <c r="C40" s="106" t="s">
+      <c r="C40" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="107"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="107"/>
-      <c r="G40" s="107"/>
-      <c r="H40" s="107"/>
-      <c r="I40" s="107"/>
-      <c r="J40" s="107"/>
-      <c r="K40" s="107"/>
-      <c r="L40" s="107"/>
-      <c r="M40" s="107"/>
-      <c r="N40" s="107"/>
-      <c r="O40" s="107"/>
-      <c r="P40" s="108"/>
-      <c r="Q40" s="109" t="str">
+      <c r="D40" s="95"/>
+      <c r="E40" s="95"/>
+      <c r="F40" s="95"/>
+      <c r="G40" s="95"/>
+      <c r="H40" s="95"/>
+      <c r="I40" s="95"/>
+      <c r="J40" s="95"/>
+      <c r="K40" s="95"/>
+      <c r="L40" s="95"/>
+      <c r="M40" s="95"/>
+      <c r="N40" s="95"/>
+      <c r="O40" s="95"/>
+      <c r="P40" s="96"/>
+      <c r="Q40" s="97" t="str">
         <f>VLOOKUP(B40,'SPECIFY(Đặc Tả)(1)'!$A$5:$BA$33,2,0)</f>
         <v>Lập lịch thi đấu</v>
       </c>
-      <c r="R40" s="110"/>
-      <c r="S40" s="110"/>
-      <c r="T40" s="110"/>
-      <c r="U40" s="110"/>
-      <c r="V40" s="110"/>
-      <c r="W40" s="110"/>
-      <c r="X40" s="110"/>
-      <c r="Y40" s="110"/>
-      <c r="Z40" s="110"/>
-      <c r="AA40" s="110"/>
-      <c r="AB40" s="110"/>
-      <c r="AC40" s="110"/>
-      <c r="AD40" s="110"/>
-      <c r="AE40" s="110"/>
-      <c r="AF40" s="110"/>
-      <c r="AG40" s="110"/>
-      <c r="AH40" s="110"/>
-      <c r="AI40" s="110"/>
-      <c r="AJ40" s="110"/>
-      <c r="AK40" s="110"/>
-      <c r="AL40" s="110"/>
-      <c r="AM40" s="110"/>
-      <c r="AN40" s="110"/>
-      <c r="AO40" s="110"/>
-      <c r="AP40" s="110"/>
-      <c r="AQ40" s="110"/>
-      <c r="AR40" s="110"/>
-      <c r="AS40" s="110"/>
-      <c r="AT40" s="110"/>
-      <c r="AU40" s="110"/>
-      <c r="AV40" s="110"/>
-      <c r="AW40" s="110"/>
-      <c r="AX40" s="110"/>
-      <c r="AY40" s="110"/>
-      <c r="AZ40" s="110"/>
-      <c r="BA40" s="110"/>
+      <c r="R40" s="98"/>
+      <c r="S40" s="98"/>
+      <c r="T40" s="98"/>
+      <c r="U40" s="98"/>
+      <c r="V40" s="98"/>
+      <c r="W40" s="98"/>
+      <c r="X40" s="98"/>
+      <c r="Y40" s="98"/>
+      <c r="Z40" s="98"/>
+      <c r="AA40" s="98"/>
+      <c r="AB40" s="98"/>
+      <c r="AC40" s="98"/>
+      <c r="AD40" s="98"/>
+      <c r="AE40" s="98"/>
+      <c r="AF40" s="98"/>
+      <c r="AG40" s="98"/>
+      <c r="AH40" s="98"/>
+      <c r="AI40" s="98"/>
+      <c r="AJ40" s="98"/>
+      <c r="AK40" s="98"/>
+      <c r="AL40" s="98"/>
+      <c r="AM40" s="98"/>
+      <c r="AN40" s="98"/>
+      <c r="AO40" s="98"/>
+      <c r="AP40" s="98"/>
+      <c r="AQ40" s="98"/>
+      <c r="AR40" s="98"/>
+      <c r="AS40" s="98"/>
+      <c r="AT40" s="98"/>
+      <c r="AU40" s="98"/>
+      <c r="AV40" s="98"/>
+      <c r="AW40" s="98"/>
+      <c r="AX40" s="98"/>
+      <c r="AY40" s="98"/>
+      <c r="AZ40" s="98"/>
+      <c r="BA40" s="98"/>
     </row>
     <row r="41" spans="1:53">
       <c r="A41" s="51" t="s">
@@ -8225,62 +8231,62 @@
       <c r="B65" s="17">
         <v>4</v>
       </c>
-      <c r="C65" s="106" t="s">
+      <c r="C65" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="D65" s="107"/>
-      <c r="E65" s="107"/>
-      <c r="F65" s="107"/>
-      <c r="G65" s="107"/>
-      <c r="H65" s="107"/>
-      <c r="I65" s="107"/>
-      <c r="J65" s="107"/>
-      <c r="K65" s="107"/>
-      <c r="L65" s="107"/>
-      <c r="M65" s="107"/>
-      <c r="N65" s="107"/>
-      <c r="O65" s="107"/>
-      <c r="P65" s="108"/>
-      <c r="Q65" s="109" t="str">
+      <c r="D65" s="95"/>
+      <c r="E65" s="95"/>
+      <c r="F65" s="95"/>
+      <c r="G65" s="95"/>
+      <c r="H65" s="95"/>
+      <c r="I65" s="95"/>
+      <c r="J65" s="95"/>
+      <c r="K65" s="95"/>
+      <c r="L65" s="95"/>
+      <c r="M65" s="95"/>
+      <c r="N65" s="95"/>
+      <c r="O65" s="95"/>
+      <c r="P65" s="96"/>
+      <c r="Q65" s="97" t="str">
         <f>VLOOKUP(B65,'SPECIFY(Đặc Tả)(1)'!$A$5:$BA$33,2,0)</f>
         <v>Ghi nhận KQ trận đấu</v>
       </c>
-      <c r="R65" s="110"/>
-      <c r="S65" s="110"/>
-      <c r="T65" s="110"/>
-      <c r="U65" s="110"/>
-      <c r="V65" s="110"/>
-      <c r="W65" s="110"/>
-      <c r="X65" s="110"/>
-      <c r="Y65" s="110"/>
-      <c r="Z65" s="110"/>
-      <c r="AA65" s="110"/>
-      <c r="AB65" s="110"/>
-      <c r="AC65" s="110"/>
-      <c r="AD65" s="110"/>
-      <c r="AE65" s="110"/>
-      <c r="AF65" s="110"/>
-      <c r="AG65" s="110"/>
-      <c r="AH65" s="110"/>
-      <c r="AI65" s="110"/>
-      <c r="AJ65" s="110"/>
-      <c r="AK65" s="110"/>
-      <c r="AL65" s="110"/>
-      <c r="AM65" s="110"/>
-      <c r="AN65" s="110"/>
-      <c r="AO65" s="110"/>
-      <c r="AP65" s="110"/>
-      <c r="AQ65" s="110"/>
-      <c r="AR65" s="110"/>
-      <c r="AS65" s="110"/>
-      <c r="AT65" s="110"/>
-      <c r="AU65" s="110"/>
-      <c r="AV65" s="110"/>
-      <c r="AW65" s="110"/>
-      <c r="AX65" s="110"/>
-      <c r="AY65" s="110"/>
-      <c r="AZ65" s="110"/>
-      <c r="BA65" s="110"/>
+      <c r="R65" s="98"/>
+      <c r="S65" s="98"/>
+      <c r="T65" s="98"/>
+      <c r="U65" s="98"/>
+      <c r="V65" s="98"/>
+      <c r="W65" s="98"/>
+      <c r="X65" s="98"/>
+      <c r="Y65" s="98"/>
+      <c r="Z65" s="98"/>
+      <c r="AA65" s="98"/>
+      <c r="AB65" s="98"/>
+      <c r="AC65" s="98"/>
+      <c r="AD65" s="98"/>
+      <c r="AE65" s="98"/>
+      <c r="AF65" s="98"/>
+      <c r="AG65" s="98"/>
+      <c r="AH65" s="98"/>
+      <c r="AI65" s="98"/>
+      <c r="AJ65" s="98"/>
+      <c r="AK65" s="98"/>
+      <c r="AL65" s="98"/>
+      <c r="AM65" s="98"/>
+      <c r="AN65" s="98"/>
+      <c r="AO65" s="98"/>
+      <c r="AP65" s="98"/>
+      <c r="AQ65" s="98"/>
+      <c r="AR65" s="98"/>
+      <c r="AS65" s="98"/>
+      <c r="AT65" s="98"/>
+      <c r="AU65" s="98"/>
+      <c r="AV65" s="98"/>
+      <c r="AW65" s="98"/>
+      <c r="AX65" s="98"/>
+      <c r="AY65" s="98"/>
+      <c r="AZ65" s="98"/>
+      <c r="BA65" s="98"/>
     </row>
     <row r="66" spans="1:53">
       <c r="A66" s="51" t="s">
@@ -9673,62 +9679,62 @@
       <c r="B91" s="17">
         <v>5</v>
       </c>
-      <c r="C91" s="106" t="s">
+      <c r="C91" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="D91" s="107"/>
-      <c r="E91" s="107"/>
-      <c r="F91" s="107"/>
-      <c r="G91" s="107"/>
-      <c r="H91" s="107"/>
-      <c r="I91" s="107"/>
-      <c r="J91" s="107"/>
-      <c r="K91" s="107"/>
-      <c r="L91" s="107"/>
-      <c r="M91" s="107"/>
-      <c r="N91" s="107"/>
-      <c r="O91" s="107"/>
-      <c r="P91" s="108"/>
-      <c r="Q91" s="109" t="str">
+      <c r="D91" s="95"/>
+      <c r="E91" s="95"/>
+      <c r="F91" s="95"/>
+      <c r="G91" s="95"/>
+      <c r="H91" s="95"/>
+      <c r="I91" s="95"/>
+      <c r="J91" s="95"/>
+      <c r="K91" s="95"/>
+      <c r="L91" s="95"/>
+      <c r="M91" s="95"/>
+      <c r="N91" s="95"/>
+      <c r="O91" s="95"/>
+      <c r="P91" s="96"/>
+      <c r="Q91" s="97" t="str">
         <f>VLOOKUP(B91,'SPECIFY(Đặc Tả)(1)'!$A$5:$BA$33,2,0)</f>
         <v>Tra cứu cầu thủ</v>
       </c>
-      <c r="R91" s="110"/>
-      <c r="S91" s="110"/>
-      <c r="T91" s="110"/>
-      <c r="U91" s="110"/>
-      <c r="V91" s="110"/>
-      <c r="W91" s="110"/>
-      <c r="X91" s="110"/>
-      <c r="Y91" s="110"/>
-      <c r="Z91" s="110"/>
-      <c r="AA91" s="110"/>
-      <c r="AB91" s="110"/>
-      <c r="AC91" s="110"/>
-      <c r="AD91" s="110"/>
-      <c r="AE91" s="110"/>
-      <c r="AF91" s="110"/>
-      <c r="AG91" s="110"/>
-      <c r="AH91" s="110"/>
-      <c r="AI91" s="110"/>
-      <c r="AJ91" s="110"/>
-      <c r="AK91" s="110"/>
-      <c r="AL91" s="110"/>
-      <c r="AM91" s="110"/>
-      <c r="AN91" s="110"/>
-      <c r="AO91" s="110"/>
-      <c r="AP91" s="110"/>
-      <c r="AQ91" s="110"/>
-      <c r="AR91" s="110"/>
-      <c r="AS91" s="110"/>
-      <c r="AT91" s="110"/>
-      <c r="AU91" s="110"/>
-      <c r="AV91" s="110"/>
-      <c r="AW91" s="110"/>
-      <c r="AX91" s="110"/>
-      <c r="AY91" s="110"/>
-      <c r="AZ91" s="110"/>
-      <c r="BA91" s="110"/>
+      <c r="R91" s="98"/>
+      <c r="S91" s="98"/>
+      <c r="T91" s="98"/>
+      <c r="U91" s="98"/>
+      <c r="V91" s="98"/>
+      <c r="W91" s="98"/>
+      <c r="X91" s="98"/>
+      <c r="Y91" s="98"/>
+      <c r="Z91" s="98"/>
+      <c r="AA91" s="98"/>
+      <c r="AB91" s="98"/>
+      <c r="AC91" s="98"/>
+      <c r="AD91" s="98"/>
+      <c r="AE91" s="98"/>
+      <c r="AF91" s="98"/>
+      <c r="AG91" s="98"/>
+      <c r="AH91" s="98"/>
+      <c r="AI91" s="98"/>
+      <c r="AJ91" s="98"/>
+      <c r="AK91" s="98"/>
+      <c r="AL91" s="98"/>
+      <c r="AM91" s="98"/>
+      <c r="AN91" s="98"/>
+      <c r="AO91" s="98"/>
+      <c r="AP91" s="98"/>
+      <c r="AQ91" s="98"/>
+      <c r="AR91" s="98"/>
+      <c r="AS91" s="98"/>
+      <c r="AT91" s="98"/>
+      <c r="AU91" s="98"/>
+      <c r="AV91" s="98"/>
+      <c r="AW91" s="98"/>
+      <c r="AX91" s="98"/>
+      <c r="AY91" s="98"/>
+      <c r="AZ91" s="98"/>
+      <c r="BA91" s="98"/>
     </row>
     <row r="92" spans="1:53">
       <c r="A92" s="51" t="s">
@@ -11066,62 +11072,62 @@
       <c r="B116" s="17">
         <v>6</v>
       </c>
-      <c r="C116" s="106" t="s">
+      <c r="C116" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="D116" s="107"/>
-      <c r="E116" s="107"/>
-      <c r="F116" s="107"/>
-      <c r="G116" s="107"/>
-      <c r="H116" s="107"/>
-      <c r="I116" s="107"/>
-      <c r="J116" s="107"/>
-      <c r="K116" s="107"/>
-      <c r="L116" s="107"/>
-      <c r="M116" s="107"/>
-      <c r="N116" s="107"/>
-      <c r="O116" s="107"/>
-      <c r="P116" s="108"/>
-      <c r="Q116" s="109" t="str">
+      <c r="D116" s="95"/>
+      <c r="E116" s="95"/>
+      <c r="F116" s="95"/>
+      <c r="G116" s="95"/>
+      <c r="H116" s="95"/>
+      <c r="I116" s="95"/>
+      <c r="J116" s="95"/>
+      <c r="K116" s="95"/>
+      <c r="L116" s="95"/>
+      <c r="M116" s="95"/>
+      <c r="N116" s="95"/>
+      <c r="O116" s="95"/>
+      <c r="P116" s="96"/>
+      <c r="Q116" s="97" t="str">
         <f>VLOOKUP(B116,'SPECIFY(Đặc Tả)(1)'!$A$5:$BA$33,2,0)</f>
         <v>Tra cứu đội bóng</v>
       </c>
-      <c r="R116" s="110"/>
-      <c r="S116" s="110"/>
-      <c r="T116" s="110"/>
-      <c r="U116" s="110"/>
-      <c r="V116" s="110"/>
-      <c r="W116" s="110"/>
-      <c r="X116" s="110"/>
-      <c r="Y116" s="110"/>
-      <c r="Z116" s="110"/>
-      <c r="AA116" s="110"/>
-      <c r="AB116" s="110"/>
-      <c r="AC116" s="110"/>
-      <c r="AD116" s="110"/>
-      <c r="AE116" s="110"/>
-      <c r="AF116" s="110"/>
-      <c r="AG116" s="110"/>
-      <c r="AH116" s="110"/>
-      <c r="AI116" s="110"/>
-      <c r="AJ116" s="110"/>
-      <c r="AK116" s="110"/>
-      <c r="AL116" s="110"/>
-      <c r="AM116" s="110"/>
-      <c r="AN116" s="110"/>
-      <c r="AO116" s="110"/>
-      <c r="AP116" s="110"/>
-      <c r="AQ116" s="110"/>
-      <c r="AR116" s="110"/>
-      <c r="AS116" s="110"/>
-      <c r="AT116" s="110"/>
-      <c r="AU116" s="110"/>
-      <c r="AV116" s="110"/>
-      <c r="AW116" s="110"/>
-      <c r="AX116" s="110"/>
-      <c r="AY116" s="110"/>
-      <c r="AZ116" s="110"/>
-      <c r="BA116" s="110"/>
+      <c r="R116" s="98"/>
+      <c r="S116" s="98"/>
+      <c r="T116" s="98"/>
+      <c r="U116" s="98"/>
+      <c r="V116" s="98"/>
+      <c r="W116" s="98"/>
+      <c r="X116" s="98"/>
+      <c r="Y116" s="98"/>
+      <c r="Z116" s="98"/>
+      <c r="AA116" s="98"/>
+      <c r="AB116" s="98"/>
+      <c r="AC116" s="98"/>
+      <c r="AD116" s="98"/>
+      <c r="AE116" s="98"/>
+      <c r="AF116" s="98"/>
+      <c r="AG116" s="98"/>
+      <c r="AH116" s="98"/>
+      <c r="AI116" s="98"/>
+      <c r="AJ116" s="98"/>
+      <c r="AK116" s="98"/>
+      <c r="AL116" s="98"/>
+      <c r="AM116" s="98"/>
+      <c r="AN116" s="98"/>
+      <c r="AO116" s="98"/>
+      <c r="AP116" s="98"/>
+      <c r="AQ116" s="98"/>
+      <c r="AR116" s="98"/>
+      <c r="AS116" s="98"/>
+      <c r="AT116" s="98"/>
+      <c r="AU116" s="98"/>
+      <c r="AV116" s="98"/>
+      <c r="AW116" s="98"/>
+      <c r="AX116" s="98"/>
+      <c r="AY116" s="98"/>
+      <c r="AZ116" s="98"/>
+      <c r="BA116" s="98"/>
     </row>
     <row r="117" spans="1:53">
       <c r="A117" s="51" t="s">
@@ -12459,62 +12465,62 @@
       <c r="B141" s="17">
         <v>7</v>
       </c>
-      <c r="C141" s="106" t="s">
+      <c r="C141" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="D141" s="107"/>
-      <c r="E141" s="107"/>
-      <c r="F141" s="107"/>
-      <c r="G141" s="107"/>
-      <c r="H141" s="107"/>
-      <c r="I141" s="107"/>
-      <c r="J141" s="107"/>
-      <c r="K141" s="107"/>
-      <c r="L141" s="107"/>
-      <c r="M141" s="107"/>
-      <c r="N141" s="107"/>
-      <c r="O141" s="107"/>
-      <c r="P141" s="108"/>
-      <c r="Q141" s="109" t="str">
+      <c r="D141" s="95"/>
+      <c r="E141" s="95"/>
+      <c r="F141" s="95"/>
+      <c r="G141" s="95"/>
+      <c r="H141" s="95"/>
+      <c r="I141" s="95"/>
+      <c r="J141" s="95"/>
+      <c r="K141" s="95"/>
+      <c r="L141" s="95"/>
+      <c r="M141" s="95"/>
+      <c r="N141" s="95"/>
+      <c r="O141" s="95"/>
+      <c r="P141" s="96"/>
+      <c r="Q141" s="97" t="str">
         <f>VLOOKUP(B141,'SPECIFY(Đặc Tả)(1)'!$A$5:$BA$33,2,0)</f>
         <v>Lập báo cáo giải</v>
       </c>
-      <c r="R141" s="110"/>
-      <c r="S141" s="110"/>
-      <c r="T141" s="110"/>
-      <c r="U141" s="110"/>
-      <c r="V141" s="110"/>
-      <c r="W141" s="110"/>
-      <c r="X141" s="110"/>
-      <c r="Y141" s="110"/>
-      <c r="Z141" s="110"/>
-      <c r="AA141" s="110"/>
-      <c r="AB141" s="110"/>
-      <c r="AC141" s="110"/>
-      <c r="AD141" s="110"/>
-      <c r="AE141" s="110"/>
-      <c r="AF141" s="110"/>
-      <c r="AG141" s="110"/>
-      <c r="AH141" s="110"/>
-      <c r="AI141" s="110"/>
-      <c r="AJ141" s="110"/>
-      <c r="AK141" s="110"/>
-      <c r="AL141" s="110"/>
-      <c r="AM141" s="110"/>
-      <c r="AN141" s="110"/>
-      <c r="AO141" s="110"/>
-      <c r="AP141" s="110"/>
-      <c r="AQ141" s="110"/>
-      <c r="AR141" s="110"/>
-      <c r="AS141" s="110"/>
-      <c r="AT141" s="110"/>
-      <c r="AU141" s="110"/>
-      <c r="AV141" s="110"/>
-      <c r="AW141" s="110"/>
-      <c r="AX141" s="110"/>
-      <c r="AY141" s="110"/>
-      <c r="AZ141" s="110"/>
-      <c r="BA141" s="110"/>
+      <c r="R141" s="98"/>
+      <c r="S141" s="98"/>
+      <c r="T141" s="98"/>
+      <c r="U141" s="98"/>
+      <c r="V141" s="98"/>
+      <c r="W141" s="98"/>
+      <c r="X141" s="98"/>
+      <c r="Y141" s="98"/>
+      <c r="Z141" s="98"/>
+      <c r="AA141" s="98"/>
+      <c r="AB141" s="98"/>
+      <c r="AC141" s="98"/>
+      <c r="AD141" s="98"/>
+      <c r="AE141" s="98"/>
+      <c r="AF141" s="98"/>
+      <c r="AG141" s="98"/>
+      <c r="AH141" s="98"/>
+      <c r="AI141" s="98"/>
+      <c r="AJ141" s="98"/>
+      <c r="AK141" s="98"/>
+      <c r="AL141" s="98"/>
+      <c r="AM141" s="98"/>
+      <c r="AN141" s="98"/>
+      <c r="AO141" s="98"/>
+      <c r="AP141" s="98"/>
+      <c r="AQ141" s="98"/>
+      <c r="AR141" s="98"/>
+      <c r="AS141" s="98"/>
+      <c r="AT141" s="98"/>
+      <c r="AU141" s="98"/>
+      <c r="AV141" s="98"/>
+      <c r="AW141" s="98"/>
+      <c r="AX141" s="98"/>
+      <c r="AY141" s="98"/>
+      <c r="AZ141" s="98"/>
+      <c r="BA141" s="98"/>
     </row>
     <row r="142" spans="1:53">
       <c r="A142" s="51" t="s">
@@ -13852,62 +13858,62 @@
       <c r="B166" s="17">
         <v>8</v>
       </c>
-      <c r="C166" s="106" t="s">
+      <c r="C166" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="D166" s="107"/>
-      <c r="E166" s="107"/>
-      <c r="F166" s="107"/>
-      <c r="G166" s="107"/>
-      <c r="H166" s="107"/>
-      <c r="I166" s="107"/>
-      <c r="J166" s="107"/>
-      <c r="K166" s="107"/>
-      <c r="L166" s="107"/>
-      <c r="M166" s="107"/>
-      <c r="N166" s="107"/>
-      <c r="O166" s="107"/>
-      <c r="P166" s="108"/>
-      <c r="Q166" s="109" t="str">
+      <c r="D166" s="95"/>
+      <c r="E166" s="95"/>
+      <c r="F166" s="95"/>
+      <c r="G166" s="95"/>
+      <c r="H166" s="95"/>
+      <c r="I166" s="95"/>
+      <c r="J166" s="95"/>
+      <c r="K166" s="95"/>
+      <c r="L166" s="95"/>
+      <c r="M166" s="95"/>
+      <c r="N166" s="95"/>
+      <c r="O166" s="95"/>
+      <c r="P166" s="96"/>
+      <c r="Q166" s="97" t="str">
         <f>VLOOKUP(B166,'SPECIFY(Đặc Tả)(1)'!$A$5:$BA$33,2,0)</f>
         <v>Lập DS các đội ở các hạng đấu</v>
       </c>
-      <c r="R166" s="110"/>
-      <c r="S166" s="110"/>
-      <c r="T166" s="110"/>
-      <c r="U166" s="110"/>
-      <c r="V166" s="110"/>
-      <c r="W166" s="110"/>
-      <c r="X166" s="110"/>
-      <c r="Y166" s="110"/>
-      <c r="Z166" s="110"/>
-      <c r="AA166" s="110"/>
-      <c r="AB166" s="110"/>
-      <c r="AC166" s="110"/>
-      <c r="AD166" s="110"/>
-      <c r="AE166" s="110"/>
-      <c r="AF166" s="110"/>
-      <c r="AG166" s="110"/>
-      <c r="AH166" s="110"/>
-      <c r="AI166" s="110"/>
-      <c r="AJ166" s="110"/>
-      <c r="AK166" s="110"/>
-      <c r="AL166" s="110"/>
-      <c r="AM166" s="110"/>
-      <c r="AN166" s="110"/>
-      <c r="AO166" s="110"/>
-      <c r="AP166" s="110"/>
-      <c r="AQ166" s="110"/>
-      <c r="AR166" s="110"/>
-      <c r="AS166" s="110"/>
-      <c r="AT166" s="110"/>
-      <c r="AU166" s="110"/>
-      <c r="AV166" s="110"/>
-      <c r="AW166" s="110"/>
-      <c r="AX166" s="110"/>
-      <c r="AY166" s="110"/>
-      <c r="AZ166" s="110"/>
-      <c r="BA166" s="110"/>
+      <c r="R166" s="98"/>
+      <c r="S166" s="98"/>
+      <c r="T166" s="98"/>
+      <c r="U166" s="98"/>
+      <c r="V166" s="98"/>
+      <c r="W166" s="98"/>
+      <c r="X166" s="98"/>
+      <c r="Y166" s="98"/>
+      <c r="Z166" s="98"/>
+      <c r="AA166" s="98"/>
+      <c r="AB166" s="98"/>
+      <c r="AC166" s="98"/>
+      <c r="AD166" s="98"/>
+      <c r="AE166" s="98"/>
+      <c r="AF166" s="98"/>
+      <c r="AG166" s="98"/>
+      <c r="AH166" s="98"/>
+      <c r="AI166" s="98"/>
+      <c r="AJ166" s="98"/>
+      <c r="AK166" s="98"/>
+      <c r="AL166" s="98"/>
+      <c r="AM166" s="98"/>
+      <c r="AN166" s="98"/>
+      <c r="AO166" s="98"/>
+      <c r="AP166" s="98"/>
+      <c r="AQ166" s="98"/>
+      <c r="AR166" s="98"/>
+      <c r="AS166" s="98"/>
+      <c r="AT166" s="98"/>
+      <c r="AU166" s="98"/>
+      <c r="AV166" s="98"/>
+      <c r="AW166" s="98"/>
+      <c r="AX166" s="98"/>
+      <c r="AY166" s="98"/>
+      <c r="AZ166" s="98"/>
+      <c r="BA166" s="98"/>
     </row>
     <row r="167" spans="1:53">
       <c r="A167" s="51" t="s">
@@ -14726,32 +14732,32 @@
       <c r="N181" s="43"/>
       <c r="O181" s="43"/>
       <c r="P181" s="44"/>
-      <c r="Q181" s="46" t="s">
-        <v>89</v>
-      </c>
+      <c r="Q181" s="46"/>
       <c r="R181" s="47"/>
-      <c r="S181" s="47"/>
-      <c r="T181" s="47"/>
-      <c r="U181" s="47"/>
-      <c r="V181" s="47"/>
-      <c r="W181" s="47"/>
-      <c r="X181" s="47"/>
-      <c r="Y181" s="47"/>
-      <c r="Z181" s="47"/>
-      <c r="AA181" s="47"/>
-      <c r="AB181" s="47"/>
-      <c r="AC181" s="47"/>
-      <c r="AD181" s="47"/>
-      <c r="AE181" s="47"/>
-      <c r="AF181" s="47"/>
-      <c r="AG181" s="47"/>
-      <c r="AH181" s="47"/>
-      <c r="AI181" s="47"/>
-      <c r="AJ181" s="47"/>
-      <c r="AK181" s="47"/>
-      <c r="AL181" s="47"/>
-      <c r="AM181" s="47"/>
-      <c r="AN181" s="47"/>
+      <c r="S181" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="T181" s="45"/>
+      <c r="U181" s="45"/>
+      <c r="V181" s="45"/>
+      <c r="W181" s="45"/>
+      <c r="X181" s="45"/>
+      <c r="Y181" s="45"/>
+      <c r="Z181" s="45"/>
+      <c r="AA181" s="45"/>
+      <c r="AB181" s="45"/>
+      <c r="AC181" s="45"/>
+      <c r="AD181" s="45"/>
+      <c r="AE181" s="45"/>
+      <c r="AF181" s="45"/>
+      <c r="AG181" s="45"/>
+      <c r="AH181" s="45"/>
+      <c r="AI181" s="45"/>
+      <c r="AJ181" s="45"/>
+      <c r="AK181" s="45"/>
+      <c r="AL181" s="45"/>
+      <c r="AM181" s="45"/>
+      <c r="AN181" s="45"/>
       <c r="AO181" s="47"/>
       <c r="AP181" s="47"/>
       <c r="AQ181" s="47"/>
@@ -14784,12 +14790,10 @@
       <c r="O182" s="43"/>
       <c r="P182" s="44"/>
       <c r="Q182" s="46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R182" s="47"/>
-      <c r="S182" s="47" t="s">
-        <v>91</v>
-      </c>
+      <c r="S182" s="47"/>
       <c r="T182" s="47"/>
       <c r="U182" s="47"/>
       <c r="V182" s="47"/>
@@ -14826,139 +14830,143 @@
       <c r="BA182" s="47"/>
     </row>
     <row r="183" spans="1:53">
-      <c r="A183" s="39"/>
-      <c r="B183" s="39"/>
-      <c r="C183" s="39"/>
-      <c r="D183" s="39"/>
-      <c r="E183" s="39"/>
-      <c r="F183" s="39"/>
-      <c r="G183" s="39"/>
-      <c r="H183" s="39"/>
-      <c r="I183" s="39"/>
-      <c r="J183" s="39"/>
-      <c r="K183" s="39"/>
-      <c r="L183" s="39"/>
-      <c r="M183" s="39"/>
-      <c r="N183" s="39"/>
-      <c r="O183" s="39"/>
-      <c r="P183" s="40"/>
-      <c r="Q183" s="41"/>
-      <c r="R183" s="42"/>
-      <c r="S183" s="42" t="s">
+      <c r="A183" s="43"/>
+      <c r="B183" s="43"/>
+      <c r="C183" s="43"/>
+      <c r="D183" s="43"/>
+      <c r="E183" s="43"/>
+      <c r="F183" s="43"/>
+      <c r="G183" s="43"/>
+      <c r="H183" s="43"/>
+      <c r="I183" s="43"/>
+      <c r="J183" s="43"/>
+      <c r="K183" s="43"/>
+      <c r="L183" s="43"/>
+      <c r="M183" s="43"/>
+      <c r="N183" s="43"/>
+      <c r="O183" s="43"/>
+      <c r="P183" s="44"/>
+      <c r="Q183" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="R183" s="47"/>
+      <c r="S183" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="T183" s="47"/>
+      <c r="U183" s="47"/>
+      <c r="V183" s="47"/>
+      <c r="W183" s="47"/>
+      <c r="X183" s="47"/>
+      <c r="Y183" s="47"/>
+      <c r="Z183" s="47"/>
+      <c r="AA183" s="47"/>
+      <c r="AB183" s="47"/>
+      <c r="AC183" s="47"/>
+      <c r="AD183" s="47"/>
+      <c r="AE183" s="47"/>
+      <c r="AF183" s="47"/>
+      <c r="AG183" s="47"/>
+      <c r="AH183" s="47"/>
+      <c r="AI183" s="47"/>
+      <c r="AJ183" s="47"/>
+      <c r="AK183" s="47"/>
+      <c r="AL183" s="47"/>
+      <c r="AM183" s="47"/>
+      <c r="AN183" s="47"/>
+      <c r="AO183" s="47"/>
+      <c r="AP183" s="47"/>
+      <c r="AQ183" s="47"/>
+      <c r="AR183" s="47"/>
+      <c r="AS183" s="47"/>
+      <c r="AT183" s="47"/>
+      <c r="AU183" s="47"/>
+      <c r="AV183" s="47"/>
+      <c r="AW183" s="47"/>
+      <c r="AX183" s="47"/>
+      <c r="AY183" s="47"/>
+      <c r="AZ183" s="47"/>
+      <c r="BA183" s="47"/>
+    </row>
+    <row r="184" spans="1:53">
+      <c r="A184" s="39"/>
+      <c r="B184" s="39"/>
+      <c r="C184" s="39"/>
+      <c r="D184" s="39"/>
+      <c r="E184" s="39"/>
+      <c r="F184" s="39"/>
+      <c r="G184" s="39"/>
+      <c r="H184" s="39"/>
+      <c r="I184" s="39"/>
+      <c r="J184" s="39"/>
+      <c r="K184" s="39"/>
+      <c r="L184" s="39"/>
+      <c r="M184" s="39"/>
+      <c r="N184" s="39"/>
+      <c r="O184" s="39"/>
+      <c r="P184" s="40"/>
+      <c r="Q184" s="41"/>
+      <c r="R184" s="42"/>
+      <c r="S184" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="T183" s="42"/>
-      <c r="U183" s="42"/>
-      <c r="V183" s="42"/>
-      <c r="W183" s="42"/>
-      <c r="X183" s="42"/>
-      <c r="Y183" s="42"/>
-      <c r="Z183" s="42"/>
-      <c r="AA183" s="42"/>
-      <c r="AB183" s="42"/>
-      <c r="AC183" s="42"/>
-      <c r="AD183" s="42"/>
-      <c r="AE183" s="42"/>
-      <c r="AF183" s="42"/>
-      <c r="AG183" s="42"/>
-      <c r="AH183" s="42"/>
-      <c r="AI183" s="42"/>
-      <c r="AJ183" s="42"/>
-      <c r="AK183" s="42"/>
-      <c r="AL183" s="42"/>
-      <c r="AM183" s="42"/>
-      <c r="AN183" s="42"/>
-      <c r="AO183" s="42"/>
-      <c r="AP183" s="42"/>
-      <c r="AQ183" s="42"/>
-      <c r="AR183" s="42"/>
-      <c r="AS183" s="42"/>
-      <c r="AT183" s="42"/>
-      <c r="AU183" s="42"/>
-      <c r="AV183" s="42"/>
-      <c r="AW183" s="42"/>
-      <c r="AX183" s="42"/>
-      <c r="AY183" s="42"/>
-      <c r="AZ183" s="42"/>
-      <c r="BA183" s="42"/>
-    </row>
-    <row r="184" spans="1:53" ht="18.75" customHeight="1">
-      <c r="A184" s="52" t="s">
+      <c r="T184" s="42"/>
+      <c r="U184" s="42"/>
+      <c r="V184" s="42"/>
+      <c r="W184" s="42"/>
+      <c r="X184" s="42"/>
+      <c r="Y184" s="42"/>
+      <c r="Z184" s="42"/>
+      <c r="AA184" s="42"/>
+      <c r="AB184" s="42"/>
+      <c r="AC184" s="42"/>
+      <c r="AD184" s="42"/>
+      <c r="AE184" s="42"/>
+      <c r="AF184" s="42"/>
+      <c r="AG184" s="42"/>
+      <c r="AH184" s="42"/>
+      <c r="AI184" s="42"/>
+      <c r="AJ184" s="42"/>
+      <c r="AK184" s="42"/>
+      <c r="AL184" s="42"/>
+      <c r="AM184" s="42"/>
+      <c r="AN184" s="42"/>
+      <c r="AO184" s="42"/>
+      <c r="AP184" s="42"/>
+      <c r="AQ184" s="42"/>
+      <c r="AR184" s="42"/>
+      <c r="AS184" s="42"/>
+      <c r="AT184" s="42"/>
+      <c r="AU184" s="42"/>
+      <c r="AV184" s="42"/>
+      <c r="AW184" s="42"/>
+      <c r="AX184" s="42"/>
+      <c r="AY184" s="42"/>
+      <c r="AZ184" s="42"/>
+      <c r="BA184" s="42"/>
+    </row>
+    <row r="185" spans="1:53" ht="18.75" customHeight="1">
+      <c r="A185" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="B184" s="35"/>
-      <c r="C184" s="35"/>
-      <c r="D184" s="35"/>
-      <c r="E184" s="35"/>
-      <c r="F184" s="35"/>
-      <c r="G184" s="35"/>
-      <c r="H184" s="35"/>
-      <c r="I184" s="35"/>
-      <c r="J184" s="35"/>
-      <c r="K184" s="35"/>
-      <c r="L184" s="35"/>
-      <c r="M184" s="35"/>
-      <c r="N184" s="35"/>
-      <c r="O184" s="35"/>
-      <c r="P184" s="36"/>
-      <c r="Q184" s="45" t="s">
+      <c r="B185" s="35"/>
+      <c r="C185" s="35"/>
+      <c r="D185" s="35"/>
+      <c r="E185" s="35"/>
+      <c r="F185" s="35"/>
+      <c r="G185" s="35"/>
+      <c r="H185" s="35"/>
+      <c r="I185" s="35"/>
+      <c r="J185" s="35"/>
+      <c r="K185" s="35"/>
+      <c r="L185" s="35"/>
+      <c r="M185" s="35"/>
+      <c r="N185" s="35"/>
+      <c r="O185" s="35"/>
+      <c r="P185" s="36"/>
+      <c r="Q185" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="R184" s="45"/>
-      <c r="S184" s="45"/>
-      <c r="T184" s="45"/>
-      <c r="U184" s="45"/>
-      <c r="V184" s="45"/>
-      <c r="W184" s="45"/>
-      <c r="X184" s="45"/>
-      <c r="Y184" s="45"/>
-      <c r="Z184" s="45"/>
-      <c r="AA184" s="45"/>
-      <c r="AB184" s="45"/>
-      <c r="AC184" s="45"/>
-      <c r="AD184" s="45"/>
-      <c r="AE184" s="45"/>
-      <c r="AF184" s="45"/>
-      <c r="AG184" s="45"/>
-      <c r="AH184" s="45"/>
-      <c r="AI184" s="45"/>
-      <c r="AJ184" s="45"/>
-      <c r="AK184" s="45"/>
-      <c r="AL184" s="45"/>
-      <c r="AM184" s="45"/>
-      <c r="AN184" s="45"/>
-      <c r="AO184" s="45"/>
-      <c r="AP184" s="45"/>
-      <c r="AQ184" s="45"/>
-      <c r="AR184" s="45"/>
-      <c r="AS184" s="45"/>
-      <c r="AT184" s="45"/>
-      <c r="AU184" s="45"/>
-      <c r="AV184" s="45"/>
-      <c r="AW184" s="45"/>
-      <c r="AX184" s="45"/>
-      <c r="AY184" s="45"/>
-      <c r="AZ184" s="45"/>
-      <c r="BA184" s="45"/>
-    </row>
-    <row r="185" spans="1:53" hidden="1">
-      <c r="A185" s="43"/>
-      <c r="B185" s="43"/>
-      <c r="C185" s="43"/>
-      <c r="D185" s="43"/>
-      <c r="E185" s="43"/>
-      <c r="F185" s="43"/>
-      <c r="G185" s="43"/>
-      <c r="H185" s="43"/>
-      <c r="I185" s="43"/>
-      <c r="J185" s="43"/>
-      <c r="K185" s="43"/>
-      <c r="L185" s="43"/>
-      <c r="M185" s="43"/>
-      <c r="N185" s="43"/>
-      <c r="O185" s="43"/>
-      <c r="P185" s="44"/>
-      <c r="Q185" s="45"/>
       <c r="R185" s="45"/>
       <c r="S185" s="45"/>
       <c r="T185" s="45"/>
@@ -14996,23 +15004,23 @@
       <c r="AZ185" s="45"/>
       <c r="BA185" s="45"/>
     </row>
-    <row r="186" spans="1:53" ht="7.5" customHeight="1">
-      <c r="A186" s="39"/>
-      <c r="B186" s="39"/>
-      <c r="C186" s="39"/>
-      <c r="D186" s="39"/>
-      <c r="E186" s="39"/>
-      <c r="F186" s="39"/>
-      <c r="G186" s="39"/>
-      <c r="H186" s="39"/>
-      <c r="I186" s="39"/>
-      <c r="J186" s="39"/>
-      <c r="K186" s="39"/>
-      <c r="L186" s="39"/>
-      <c r="M186" s="39"/>
-      <c r="N186" s="39"/>
-      <c r="O186" s="39"/>
-      <c r="P186" s="40"/>
+    <row r="186" spans="1:53" hidden="1">
+      <c r="A186" s="43"/>
+      <c r="B186" s="43"/>
+      <c r="C186" s="43"/>
+      <c r="D186" s="43"/>
+      <c r="E186" s="43"/>
+      <c r="F186" s="43"/>
+      <c r="G186" s="43"/>
+      <c r="H186" s="43"/>
+      <c r="I186" s="43"/>
+      <c r="J186" s="43"/>
+      <c r="K186" s="43"/>
+      <c r="L186" s="43"/>
+      <c r="M186" s="43"/>
+      <c r="N186" s="43"/>
+      <c r="O186" s="43"/>
+      <c r="P186" s="44"/>
       <c r="Q186" s="45"/>
       <c r="R186" s="45"/>
       <c r="S186" s="45"/>
@@ -15051,549 +15059,547 @@
       <c r="AZ186" s="45"/>
       <c r="BA186" s="45"/>
     </row>
-    <row r="187" spans="1:53">
-      <c r="A187" s="52" t="s">
+    <row r="187" spans="1:53" ht="7.5" customHeight="1">
+      <c r="A187" s="39"/>
+      <c r="B187" s="39"/>
+      <c r="C187" s="39"/>
+      <c r="D187" s="39"/>
+      <c r="E187" s="39"/>
+      <c r="F187" s="39"/>
+      <c r="G187" s="39"/>
+      <c r="H187" s="39"/>
+      <c r="I187" s="39"/>
+      <c r="J187" s="39"/>
+      <c r="K187" s="39"/>
+      <c r="L187" s="39"/>
+      <c r="M187" s="39"/>
+      <c r="N187" s="39"/>
+      <c r="O187" s="39"/>
+      <c r="P187" s="40"/>
+      <c r="Q187" s="45"/>
+      <c r="R187" s="45"/>
+      <c r="S187" s="45"/>
+      <c r="T187" s="45"/>
+      <c r="U187" s="45"/>
+      <c r="V187" s="45"/>
+      <c r="W187" s="45"/>
+      <c r="X187" s="45"/>
+      <c r="Y187" s="45"/>
+      <c r="Z187" s="45"/>
+      <c r="AA187" s="45"/>
+      <c r="AB187" s="45"/>
+      <c r="AC187" s="45"/>
+      <c r="AD187" s="45"/>
+      <c r="AE187" s="45"/>
+      <c r="AF187" s="45"/>
+      <c r="AG187" s="45"/>
+      <c r="AH187" s="45"/>
+      <c r="AI187" s="45"/>
+      <c r="AJ187" s="45"/>
+      <c r="AK187" s="45"/>
+      <c r="AL187" s="45"/>
+      <c r="AM187" s="45"/>
+      <c r="AN187" s="45"/>
+      <c r="AO187" s="45"/>
+      <c r="AP187" s="45"/>
+      <c r="AQ187" s="45"/>
+      <c r="AR187" s="45"/>
+      <c r="AS187" s="45"/>
+      <c r="AT187" s="45"/>
+      <c r="AU187" s="45"/>
+      <c r="AV187" s="45"/>
+      <c r="AW187" s="45"/>
+      <c r="AX187" s="45"/>
+      <c r="AY187" s="45"/>
+      <c r="AZ187" s="45"/>
+      <c r="BA187" s="45"/>
+    </row>
+    <row r="188" spans="1:53">
+      <c r="A188" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="B187" s="35"/>
-      <c r="C187" s="35"/>
-      <c r="D187" s="35"/>
-      <c r="E187" s="35"/>
-      <c r="F187" s="35"/>
-      <c r="G187" s="35"/>
-      <c r="H187" s="35"/>
-      <c r="I187" s="35"/>
-      <c r="J187" s="35"/>
-      <c r="K187" s="35"/>
-      <c r="L187" s="35"/>
-      <c r="M187" s="35"/>
-      <c r="N187" s="35"/>
-      <c r="O187" s="35"/>
-      <c r="P187" s="36"/>
-      <c r="Q187" s="37" t="s">
+      <c r="B188" s="35"/>
+      <c r="C188" s="35"/>
+      <c r="D188" s="35"/>
+      <c r="E188" s="35"/>
+      <c r="F188" s="35"/>
+      <c r="G188" s="35"/>
+      <c r="H188" s="35"/>
+      <c r="I188" s="35"/>
+      <c r="J188" s="35"/>
+      <c r="K188" s="35"/>
+      <c r="L188" s="35"/>
+      <c r="M188" s="35"/>
+      <c r="N188" s="35"/>
+      <c r="O188" s="35"/>
+      <c r="P188" s="36"/>
+      <c r="Q188" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="R187" s="38"/>
-      <c r="S187" s="38"/>
-      <c r="T187" s="38"/>
-      <c r="U187" s="38"/>
-      <c r="V187" s="38"/>
-      <c r="W187" s="38"/>
-      <c r="X187" s="38"/>
-      <c r="Y187" s="38"/>
-      <c r="Z187" s="38"/>
-      <c r="AA187" s="38"/>
-      <c r="AB187" s="38"/>
-      <c r="AC187" s="38"/>
-      <c r="AD187" s="38"/>
-      <c r="AE187" s="38"/>
-      <c r="AF187" s="38"/>
-      <c r="AG187" s="38"/>
-      <c r="AH187" s="38"/>
-      <c r="AI187" s="38"/>
-      <c r="AJ187" s="38"/>
-      <c r="AK187" s="38"/>
-      <c r="AL187" s="38"/>
-      <c r="AM187" s="38"/>
-      <c r="AN187" s="38"/>
-      <c r="AO187" s="38"/>
-      <c r="AP187" s="38"/>
-      <c r="AQ187" s="38"/>
-      <c r="AR187" s="38"/>
-      <c r="AS187" s="38"/>
-      <c r="AT187" s="38"/>
-      <c r="AU187" s="38"/>
-      <c r="AV187" s="38"/>
-      <c r="AW187" s="38"/>
-      <c r="AX187" s="38"/>
-      <c r="AY187" s="38"/>
-      <c r="AZ187" s="38"/>
-      <c r="BA187" s="38"/>
-    </row>
-    <row r="188" spans="1:53">
-      <c r="A188" s="43"/>
-      <c r="B188" s="43"/>
-      <c r="C188" s="43"/>
-      <c r="D188" s="43"/>
-      <c r="E188" s="43"/>
-      <c r="F188" s="43"/>
-      <c r="G188" s="43"/>
-      <c r="H188" s="43"/>
-      <c r="I188" s="43"/>
-      <c r="J188" s="43"/>
-      <c r="K188" s="43"/>
-      <c r="L188" s="43"/>
-      <c r="M188" s="43"/>
-      <c r="N188" s="43"/>
-      <c r="O188" s="43"/>
-      <c r="P188" s="44"/>
-      <c r="Q188" s="46" t="s">
+      <c r="R188" s="38"/>
+      <c r="S188" s="38"/>
+      <c r="T188" s="38"/>
+      <c r="U188" s="38"/>
+      <c r="V188" s="38"/>
+      <c r="W188" s="38"/>
+      <c r="X188" s="38"/>
+      <c r="Y188" s="38"/>
+      <c r="Z188" s="38"/>
+      <c r="AA188" s="38"/>
+      <c r="AB188" s="38"/>
+      <c r="AC188" s="38"/>
+      <c r="AD188" s="38"/>
+      <c r="AE188" s="38"/>
+      <c r="AF188" s="38"/>
+      <c r="AG188" s="38"/>
+      <c r="AH188" s="38"/>
+      <c r="AI188" s="38"/>
+      <c r="AJ188" s="38"/>
+      <c r="AK188" s="38"/>
+      <c r="AL188" s="38"/>
+      <c r="AM188" s="38"/>
+      <c r="AN188" s="38"/>
+      <c r="AO188" s="38"/>
+      <c r="AP188" s="38"/>
+      <c r="AQ188" s="38"/>
+      <c r="AR188" s="38"/>
+      <c r="AS188" s="38"/>
+      <c r="AT188" s="38"/>
+      <c r="AU188" s="38"/>
+      <c r="AV188" s="38"/>
+      <c r="AW188" s="38"/>
+      <c r="AX188" s="38"/>
+      <c r="AY188" s="38"/>
+      <c r="AZ188" s="38"/>
+      <c r="BA188" s="38"/>
+    </row>
+    <row r="189" spans="1:53">
+      <c r="A189" s="43"/>
+      <c r="B189" s="43"/>
+      <c r="C189" s="43"/>
+      <c r="D189" s="43"/>
+      <c r="E189" s="43"/>
+      <c r="F189" s="43"/>
+      <c r="G189" s="43"/>
+      <c r="H189" s="43"/>
+      <c r="I189" s="43"/>
+      <c r="J189" s="43"/>
+      <c r="K189" s="43"/>
+      <c r="L189" s="43"/>
+      <c r="M189" s="43"/>
+      <c r="N189" s="43"/>
+      <c r="O189" s="43"/>
+      <c r="P189" s="44"/>
+      <c r="Q189" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="R188" s="47"/>
-      <c r="S188" s="47"/>
-      <c r="T188" s="47"/>
-      <c r="U188" s="47"/>
-      <c r="V188" s="47"/>
-      <c r="W188" s="47"/>
-      <c r="X188" s="47"/>
-      <c r="Y188" s="47"/>
-      <c r="Z188" s="47"/>
-      <c r="AA188" s="47"/>
-      <c r="AB188" s="47"/>
-      <c r="AC188" s="47"/>
-      <c r="AD188" s="47"/>
-      <c r="AE188" s="47"/>
-      <c r="AF188" s="47"/>
-      <c r="AG188" s="47"/>
-      <c r="AH188" s="47"/>
-      <c r="AI188" s="47"/>
-      <c r="AJ188" s="47"/>
-      <c r="AK188" s="47"/>
-      <c r="AL188" s="47"/>
-      <c r="AM188" s="47"/>
-      <c r="AN188" s="47"/>
-      <c r="AO188" s="47"/>
-      <c r="AP188" s="47"/>
-      <c r="AQ188" s="47"/>
-      <c r="AR188" s="47"/>
-      <c r="AS188" s="47"/>
-      <c r="AT188" s="47"/>
-      <c r="AU188" s="47"/>
-      <c r="AV188" s="47"/>
-      <c r="AW188" s="47"/>
-      <c r="AX188" s="47"/>
-      <c r="AY188" s="47"/>
-      <c r="AZ188" s="47"/>
-      <c r="BA188" s="47"/>
-    </row>
-    <row r="189" spans="1:53">
-      <c r="A189" s="39"/>
-      <c r="B189" s="39"/>
-      <c r="C189" s="39"/>
-      <c r="D189" s="39"/>
-      <c r="E189" s="39"/>
-      <c r="F189" s="39"/>
-      <c r="G189" s="39"/>
-      <c r="H189" s="39"/>
-      <c r="I189" s="39"/>
-      <c r="J189" s="39"/>
-      <c r="K189" s="39"/>
-      <c r="L189" s="39"/>
-      <c r="M189" s="39"/>
-      <c r="N189" s="39"/>
-      <c r="O189" s="39"/>
-      <c r="P189" s="40"/>
-      <c r="Q189" s="41" t="s">
+      <c r="R189" s="47"/>
+      <c r="S189" s="47"/>
+      <c r="T189" s="47"/>
+      <c r="U189" s="47"/>
+      <c r="V189" s="47"/>
+      <c r="W189" s="47"/>
+      <c r="X189" s="47"/>
+      <c r="Y189" s="47"/>
+      <c r="Z189" s="47"/>
+      <c r="AA189" s="47"/>
+      <c r="AB189" s="47"/>
+      <c r="AC189" s="47"/>
+      <c r="AD189" s="47"/>
+      <c r="AE189" s="47"/>
+      <c r="AF189" s="47"/>
+      <c r="AG189" s="47"/>
+      <c r="AH189" s="47"/>
+      <c r="AI189" s="47"/>
+      <c r="AJ189" s="47"/>
+      <c r="AK189" s="47"/>
+      <c r="AL189" s="47"/>
+      <c r="AM189" s="47"/>
+      <c r="AN189" s="47"/>
+      <c r="AO189" s="47"/>
+      <c r="AP189" s="47"/>
+      <c r="AQ189" s="47"/>
+      <c r="AR189" s="47"/>
+      <c r="AS189" s="47"/>
+      <c r="AT189" s="47"/>
+      <c r="AU189" s="47"/>
+      <c r="AV189" s="47"/>
+      <c r="AW189" s="47"/>
+      <c r="AX189" s="47"/>
+      <c r="AY189" s="47"/>
+      <c r="AZ189" s="47"/>
+      <c r="BA189" s="47"/>
+    </row>
+    <row r="190" spans="1:53">
+      <c r="A190" s="39"/>
+      <c r="B190" s="39"/>
+      <c r="C190" s="39"/>
+      <c r="D190" s="39"/>
+      <c r="E190" s="39"/>
+      <c r="F190" s="39"/>
+      <c r="G190" s="39"/>
+      <c r="H190" s="39"/>
+      <c r="I190" s="39"/>
+      <c r="J190" s="39"/>
+      <c r="K190" s="39"/>
+      <c r="L190" s="39"/>
+      <c r="M190" s="39"/>
+      <c r="N190" s="39"/>
+      <c r="O190" s="39"/>
+      <c r="P190" s="40"/>
+      <c r="Q190" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="R189" s="42"/>
-      <c r="S189" s="42"/>
-      <c r="T189" s="42"/>
-      <c r="U189" s="42"/>
-      <c r="V189" s="42"/>
-      <c r="W189" s="42"/>
-      <c r="X189" s="42"/>
-      <c r="Y189" s="42"/>
-      <c r="Z189" s="42"/>
-      <c r="AA189" s="42"/>
-      <c r="AB189" s="42"/>
-      <c r="AC189" s="42"/>
-      <c r="AD189" s="42"/>
-      <c r="AE189" s="42"/>
-      <c r="AF189" s="42"/>
-      <c r="AG189" s="42"/>
-      <c r="AH189" s="42"/>
-      <c r="AI189" s="42"/>
-      <c r="AJ189" s="42"/>
-      <c r="AK189" s="42"/>
-      <c r="AL189" s="42"/>
-      <c r="AM189" s="42"/>
-      <c r="AN189" s="42"/>
-      <c r="AO189" s="42"/>
-      <c r="AP189" s="42"/>
-      <c r="AQ189" s="42"/>
-      <c r="AR189" s="42"/>
-      <c r="AS189" s="42"/>
-      <c r="AT189" s="42"/>
-      <c r="AU189" s="42"/>
-      <c r="AV189" s="42"/>
-      <c r="AW189" s="42"/>
-      <c r="AX189" s="42"/>
-      <c r="AY189" s="42"/>
-      <c r="AZ189" s="42"/>
-      <c r="BA189" s="42"/>
-    </row>
-    <row r="190" spans="1:53">
-      <c r="A190" s="47"/>
-      <c r="B190" s="47"/>
-      <c r="C190" s="47"/>
-      <c r="D190" s="47"/>
-      <c r="E190" s="47"/>
-      <c r="F190" s="47"/>
-      <c r="G190" s="47"/>
-      <c r="H190" s="47"/>
-      <c r="I190" s="47"/>
-      <c r="J190" s="47"/>
-      <c r="K190" s="47"/>
-      <c r="L190" s="47"/>
-      <c r="M190" s="47"/>
-      <c r="N190" s="47"/>
-      <c r="O190" s="47"/>
-      <c r="P190" s="47"/>
-      <c r="Q190" s="47"/>
-      <c r="R190" s="47"/>
-      <c r="S190" s="47"/>
-      <c r="T190" s="47"/>
-      <c r="U190" s="47"/>
-      <c r="V190" s="47"/>
-      <c r="W190" s="47"/>
-      <c r="X190" s="47"/>
-      <c r="Y190" s="47"/>
-      <c r="Z190" s="47"/>
-      <c r="AA190" s="47"/>
-      <c r="AB190" s="47"/>
-      <c r="AC190" s="47"/>
-      <c r="AD190" s="47"/>
-      <c r="AE190" s="47"/>
-      <c r="AF190" s="47"/>
-      <c r="AG190" s="47"/>
-      <c r="AH190" s="47"/>
-      <c r="AI190" s="47"/>
-      <c r="AJ190" s="47"/>
-      <c r="AK190" s="47"/>
-      <c r="AL190" s="47"/>
-      <c r="AM190" s="47"/>
-      <c r="AN190" s="47"/>
-      <c r="AO190" s="47"/>
-      <c r="AP190" s="47"/>
-      <c r="AQ190" s="47"/>
-      <c r="AR190" s="47"/>
-      <c r="AS190" s="47"/>
-      <c r="AT190" s="47"/>
-      <c r="AU190" s="47"/>
-      <c r="AV190" s="47"/>
-      <c r="AW190" s="47"/>
-      <c r="AX190" s="47"/>
-      <c r="AY190" s="47"/>
-      <c r="AZ190" s="47"/>
-      <c r="BA190" s="47"/>
+      <c r="R190" s="42"/>
+      <c r="S190" s="42"/>
+      <c r="T190" s="42"/>
+      <c r="U190" s="42"/>
+      <c r="V190" s="42"/>
+      <c r="W190" s="42"/>
+      <c r="X190" s="42"/>
+      <c r="Y190" s="42"/>
+      <c r="Z190" s="42"/>
+      <c r="AA190" s="42"/>
+      <c r="AB190" s="42"/>
+      <c r="AC190" s="42"/>
+      <c r="AD190" s="42"/>
+      <c r="AE190" s="42"/>
+      <c r="AF190" s="42"/>
+      <c r="AG190" s="42"/>
+      <c r="AH190" s="42"/>
+      <c r="AI190" s="42"/>
+      <c r="AJ190" s="42"/>
+      <c r="AK190" s="42"/>
+      <c r="AL190" s="42"/>
+      <c r="AM190" s="42"/>
+      <c r="AN190" s="42"/>
+      <c r="AO190" s="42"/>
+      <c r="AP190" s="42"/>
+      <c r="AQ190" s="42"/>
+      <c r="AR190" s="42"/>
+      <c r="AS190" s="42"/>
+      <c r="AT190" s="42"/>
+      <c r="AU190" s="42"/>
+      <c r="AV190" s="42"/>
+      <c r="AW190" s="42"/>
+      <c r="AX190" s="42"/>
+      <c r="AY190" s="42"/>
+      <c r="AZ190" s="42"/>
+      <c r="BA190" s="42"/>
     </row>
     <row r="191" spans="1:53">
-      <c r="A191" s="16" t="s">
+      <c r="A191" s="47"/>
+      <c r="B191" s="47"/>
+      <c r="C191" s="47"/>
+      <c r="D191" s="47"/>
+      <c r="E191" s="47"/>
+      <c r="F191" s="47"/>
+      <c r="G191" s="47"/>
+      <c r="H191" s="47"/>
+      <c r="I191" s="47"/>
+      <c r="J191" s="47"/>
+      <c r="K191" s="47"/>
+      <c r="L191" s="47"/>
+      <c r="M191" s="47"/>
+      <c r="N191" s="47"/>
+      <c r="O191" s="47"/>
+      <c r="P191" s="47"/>
+      <c r="Q191" s="47"/>
+      <c r="R191" s="47"/>
+      <c r="S191" s="47"/>
+      <c r="T191" s="47"/>
+      <c r="U191" s="47"/>
+      <c r="V191" s="47"/>
+      <c r="W191" s="47"/>
+      <c r="X191" s="47"/>
+      <c r="Y191" s="47"/>
+      <c r="Z191" s="47"/>
+      <c r="AA191" s="47"/>
+      <c r="AB191" s="47"/>
+      <c r="AC191" s="47"/>
+      <c r="AD191" s="47"/>
+      <c r="AE191" s="47"/>
+      <c r="AF191" s="47"/>
+      <c r="AG191" s="47"/>
+      <c r="AH191" s="47"/>
+      <c r="AI191" s="47"/>
+      <c r="AJ191" s="47"/>
+      <c r="AK191" s="47"/>
+      <c r="AL191" s="47"/>
+      <c r="AM191" s="47"/>
+      <c r="AN191" s="47"/>
+      <c r="AO191" s="47"/>
+      <c r="AP191" s="47"/>
+      <c r="AQ191" s="47"/>
+      <c r="AR191" s="47"/>
+      <c r="AS191" s="47"/>
+      <c r="AT191" s="47"/>
+      <c r="AU191" s="47"/>
+      <c r="AV191" s="47"/>
+      <c r="AW191" s="47"/>
+      <c r="AX191" s="47"/>
+      <c r="AY191" s="47"/>
+      <c r="AZ191" s="47"/>
+      <c r="BA191" s="47"/>
+    </row>
+    <row r="192" spans="1:53">
+      <c r="A192" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B191" s="17">
+      <c r="B192" s="17">
         <v>9</v>
       </c>
-      <c r="C191" s="106" t="s">
+      <c r="C192" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="D191" s="107"/>
-      <c r="E191" s="107"/>
-      <c r="F191" s="107"/>
-      <c r="G191" s="107"/>
-      <c r="H191" s="107"/>
-      <c r="I191" s="107"/>
-      <c r="J191" s="107"/>
-      <c r="K191" s="107"/>
-      <c r="L191" s="107"/>
-      <c r="M191" s="107"/>
-      <c r="N191" s="107"/>
-      <c r="O191" s="107"/>
-      <c r="P191" s="108"/>
-      <c r="Q191" s="109" t="str">
-        <f>VLOOKUP(B191,'SPECIFY(Đặc Tả)(1)'!$A$5:$BA$33,2,0)</f>
+      <c r="D192" s="95"/>
+      <c r="E192" s="95"/>
+      <c r="F192" s="95"/>
+      <c r="G192" s="95"/>
+      <c r="H192" s="95"/>
+      <c r="I192" s="95"/>
+      <c r="J192" s="95"/>
+      <c r="K192" s="95"/>
+      <c r="L192" s="95"/>
+      <c r="M192" s="95"/>
+      <c r="N192" s="95"/>
+      <c r="O192" s="95"/>
+      <c r="P192" s="96"/>
+      <c r="Q192" s="97" t="str">
+        <f>VLOOKUP(B192,'SPECIFY(Đặc Tả)(1)'!$A$5:$BA$33,2,0)</f>
         <v>Lập DS các đội dự cup quốc gia</v>
       </c>
-      <c r="R191" s="110"/>
-      <c r="S191" s="110"/>
-      <c r="T191" s="110"/>
-      <c r="U191" s="110"/>
-      <c r="V191" s="110"/>
-      <c r="W191" s="110"/>
-      <c r="X191" s="110"/>
-      <c r="Y191" s="110"/>
-      <c r="Z191" s="110"/>
-      <c r="AA191" s="110"/>
-      <c r="AB191" s="110"/>
-      <c r="AC191" s="110"/>
-      <c r="AD191" s="110"/>
-      <c r="AE191" s="110"/>
-      <c r="AF191" s="110"/>
-      <c r="AG191" s="110"/>
-      <c r="AH191" s="110"/>
-      <c r="AI191" s="110"/>
-      <c r="AJ191" s="110"/>
-      <c r="AK191" s="110"/>
-      <c r="AL191" s="110"/>
-      <c r="AM191" s="110"/>
-      <c r="AN191" s="110"/>
-      <c r="AO191" s="110"/>
-      <c r="AP191" s="110"/>
-      <c r="AQ191" s="110"/>
-      <c r="AR191" s="110"/>
-      <c r="AS191" s="110"/>
-      <c r="AT191" s="110"/>
-      <c r="AU191" s="110"/>
-      <c r="AV191" s="110"/>
-      <c r="AW191" s="110"/>
-      <c r="AX191" s="110"/>
-      <c r="AY191" s="110"/>
-      <c r="AZ191" s="110"/>
-      <c r="BA191" s="110"/>
-    </row>
-    <row r="192" spans="1:53">
-      <c r="A192" s="51" t="s">
+      <c r="R192" s="98"/>
+      <c r="S192" s="98"/>
+      <c r="T192" s="98"/>
+      <c r="U192" s="98"/>
+      <c r="V192" s="98"/>
+      <c r="W192" s="98"/>
+      <c r="X192" s="98"/>
+      <c r="Y192" s="98"/>
+      <c r="Z192" s="98"/>
+      <c r="AA192" s="98"/>
+      <c r="AB192" s="98"/>
+      <c r="AC192" s="98"/>
+      <c r="AD192" s="98"/>
+      <c r="AE192" s="98"/>
+      <c r="AF192" s="98"/>
+      <c r="AG192" s="98"/>
+      <c r="AH192" s="98"/>
+      <c r="AI192" s="98"/>
+      <c r="AJ192" s="98"/>
+      <c r="AK192" s="98"/>
+      <c r="AL192" s="98"/>
+      <c r="AM192" s="98"/>
+      <c r="AN192" s="98"/>
+      <c r="AO192" s="98"/>
+      <c r="AP192" s="98"/>
+      <c r="AQ192" s="98"/>
+      <c r="AR192" s="98"/>
+      <c r="AS192" s="98"/>
+      <c r="AT192" s="98"/>
+      <c r="AU192" s="98"/>
+      <c r="AV192" s="98"/>
+      <c r="AW192" s="98"/>
+      <c r="AX192" s="98"/>
+      <c r="AY192" s="98"/>
+      <c r="AZ192" s="98"/>
+      <c r="BA192" s="98"/>
+    </row>
+    <row r="193" spans="1:53">
+      <c r="A193" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="B192" s="35"/>
-      <c r="C192" s="35"/>
-      <c r="D192" s="35"/>
-      <c r="E192" s="35"/>
-      <c r="F192" s="35"/>
-      <c r="G192" s="35"/>
-      <c r="H192" s="35"/>
-      <c r="I192" s="35"/>
-      <c r="J192" s="35"/>
-      <c r="K192" s="35"/>
-      <c r="L192" s="35"/>
-      <c r="M192" s="35"/>
-      <c r="N192" s="35"/>
-      <c r="O192" s="35"/>
-      <c r="P192" s="36"/>
-      <c r="Q192" s="37" t="s">
+      <c r="B193" s="35"/>
+      <c r="C193" s="35"/>
+      <c r="D193" s="35"/>
+      <c r="E193" s="35"/>
+      <c r="F193" s="35"/>
+      <c r="G193" s="35"/>
+      <c r="H193" s="35"/>
+      <c r="I193" s="35"/>
+      <c r="J193" s="35"/>
+      <c r="K193" s="35"/>
+      <c r="L193" s="35"/>
+      <c r="M193" s="35"/>
+      <c r="N193" s="35"/>
+      <c r="O193" s="35"/>
+      <c r="P193" s="36"/>
+      <c r="Q193" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="R192" s="38"/>
-      <c r="S192" s="38"/>
-      <c r="T192" s="38"/>
-      <c r="U192" s="38"/>
-      <c r="V192" s="38"/>
-      <c r="W192" s="38"/>
-      <c r="X192" s="38"/>
-      <c r="Y192" s="38"/>
-      <c r="Z192" s="38"/>
-      <c r="AA192" s="38"/>
-      <c r="AB192" s="38"/>
-      <c r="AC192" s="38"/>
-      <c r="AD192" s="38"/>
-      <c r="AE192" s="38"/>
-      <c r="AF192" s="38"/>
-      <c r="AG192" s="38"/>
-      <c r="AH192" s="38"/>
-      <c r="AI192" s="38"/>
-      <c r="AJ192" s="38"/>
-      <c r="AK192" s="38"/>
-      <c r="AL192" s="38"/>
-      <c r="AM192" s="38"/>
-      <c r="AN192" s="38"/>
-      <c r="AO192" s="38"/>
-      <c r="AP192" s="38"/>
-      <c r="AQ192" s="38"/>
-      <c r="AR192" s="38"/>
-      <c r="AS192" s="38"/>
-      <c r="AT192" s="38"/>
-      <c r="AU192" s="38"/>
-      <c r="AV192" s="38"/>
-      <c r="AW192" s="38"/>
-      <c r="AX192" s="38"/>
-      <c r="AY192" s="38"/>
-      <c r="AZ192" s="38"/>
-      <c r="BA192" s="38"/>
-    </row>
-    <row r="193" spans="1:53">
-      <c r="A193" s="43"/>
-      <c r="B193" s="43"/>
-      <c r="C193" s="43"/>
-      <c r="D193" s="43"/>
-      <c r="E193" s="43"/>
-      <c r="F193" s="43"/>
-      <c r="G193" s="43"/>
-      <c r="H193" s="43"/>
-      <c r="I193" s="43"/>
-      <c r="J193" s="43"/>
-      <c r="K193" s="43"/>
-      <c r="L193" s="43"/>
-      <c r="M193" s="43"/>
-      <c r="N193" s="43"/>
-      <c r="O193" s="43"/>
-      <c r="P193" s="44"/>
-      <c r="Q193" s="46" t="s">
+      <c r="R193" s="38"/>
+      <c r="S193" s="38"/>
+      <c r="T193" s="38"/>
+      <c r="U193" s="38"/>
+      <c r="V193" s="38"/>
+      <c r="W193" s="38"/>
+      <c r="X193" s="38"/>
+      <c r="Y193" s="38"/>
+      <c r="Z193" s="38"/>
+      <c r="AA193" s="38"/>
+      <c r="AB193" s="38"/>
+      <c r="AC193" s="38"/>
+      <c r="AD193" s="38"/>
+      <c r="AE193" s="38"/>
+      <c r="AF193" s="38"/>
+      <c r="AG193" s="38"/>
+      <c r="AH193" s="38"/>
+      <c r="AI193" s="38"/>
+      <c r="AJ193" s="38"/>
+      <c r="AK193" s="38"/>
+      <c r="AL193" s="38"/>
+      <c r="AM193" s="38"/>
+      <c r="AN193" s="38"/>
+      <c r="AO193" s="38"/>
+      <c r="AP193" s="38"/>
+      <c r="AQ193" s="38"/>
+      <c r="AR193" s="38"/>
+      <c r="AS193" s="38"/>
+      <c r="AT193" s="38"/>
+      <c r="AU193" s="38"/>
+      <c r="AV193" s="38"/>
+      <c r="AW193" s="38"/>
+      <c r="AX193" s="38"/>
+      <c r="AY193" s="38"/>
+      <c r="AZ193" s="38"/>
+      <c r="BA193" s="38"/>
+    </row>
+    <row r="194" spans="1:53">
+      <c r="A194" s="43"/>
+      <c r="B194" s="43"/>
+      <c r="C194" s="43"/>
+      <c r="D194" s="43"/>
+      <c r="E194" s="43"/>
+      <c r="F194" s="43"/>
+      <c r="G194" s="43"/>
+      <c r="H194" s="43"/>
+      <c r="I194" s="43"/>
+      <c r="J194" s="43"/>
+      <c r="K194" s="43"/>
+      <c r="L194" s="43"/>
+      <c r="M194" s="43"/>
+      <c r="N194" s="43"/>
+      <c r="O194" s="43"/>
+      <c r="P194" s="44"/>
+      <c r="Q194" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="R193" s="47"/>
-      <c r="S193" s="47"/>
-      <c r="T193" s="47"/>
-      <c r="U193" s="47"/>
-      <c r="V193" s="47"/>
-      <c r="W193" s="47"/>
-      <c r="X193" s="47"/>
-      <c r="Y193" s="47"/>
-      <c r="Z193" s="47"/>
-      <c r="AA193" s="47"/>
-      <c r="AB193" s="47"/>
-      <c r="AC193" s="47"/>
-      <c r="AD193" s="47"/>
-      <c r="AE193" s="47"/>
-      <c r="AF193" s="47"/>
-      <c r="AG193" s="47"/>
-      <c r="AH193" s="47"/>
-      <c r="AI193" s="47"/>
-      <c r="AJ193" s="47"/>
-      <c r="AK193" s="47"/>
-      <c r="AL193" s="47"/>
-      <c r="AM193" s="47"/>
-      <c r="AN193" s="47"/>
-      <c r="AO193" s="47"/>
-      <c r="AP193" s="47"/>
-      <c r="AQ193" s="47"/>
-      <c r="AR193" s="47"/>
-      <c r="AS193" s="47"/>
-      <c r="AT193" s="47"/>
-      <c r="AU193" s="47"/>
-      <c r="AV193" s="47"/>
-      <c r="AW193" s="47"/>
-      <c r="AX193" s="47"/>
-      <c r="AY193" s="47"/>
-      <c r="AZ193" s="47"/>
-      <c r="BA193" s="47"/>
-    </row>
-    <row r="194" spans="1:53">
-      <c r="A194" s="39"/>
-      <c r="B194" s="39"/>
-      <c r="C194" s="39"/>
-      <c r="D194" s="39"/>
-      <c r="E194" s="39"/>
-      <c r="F194" s="39"/>
-      <c r="G194" s="39"/>
-      <c r="H194" s="39"/>
-      <c r="I194" s="39"/>
-      <c r="J194" s="39"/>
-      <c r="K194" s="39"/>
-      <c r="L194" s="39"/>
-      <c r="M194" s="39"/>
-      <c r="N194" s="39"/>
-      <c r="O194" s="39"/>
-      <c r="P194" s="40"/>
-      <c r="Q194" s="41" t="s">
+      <c r="R194" s="47"/>
+      <c r="S194" s="47"/>
+      <c r="T194" s="47"/>
+      <c r="U194" s="47"/>
+      <c r="V194" s="47"/>
+      <c r="W194" s="47"/>
+      <c r="X194" s="47"/>
+      <c r="Y194" s="47"/>
+      <c r="Z194" s="47"/>
+      <c r="AA194" s="47"/>
+      <c r="AB194" s="47"/>
+      <c r="AC194" s="47"/>
+      <c r="AD194" s="47"/>
+      <c r="AE194" s="47"/>
+      <c r="AF194" s="47"/>
+      <c r="AG194" s="47"/>
+      <c r="AH194" s="47"/>
+      <c r="AI194" s="47"/>
+      <c r="AJ194" s="47"/>
+      <c r="AK194" s="47"/>
+      <c r="AL194" s="47"/>
+      <c r="AM194" s="47"/>
+      <c r="AN194" s="47"/>
+      <c r="AO194" s="47"/>
+      <c r="AP194" s="47"/>
+      <c r="AQ194" s="47"/>
+      <c r="AR194" s="47"/>
+      <c r="AS194" s="47"/>
+      <c r="AT194" s="47"/>
+      <c r="AU194" s="47"/>
+      <c r="AV194" s="47"/>
+      <c r="AW194" s="47"/>
+      <c r="AX194" s="47"/>
+      <c r="AY194" s="47"/>
+      <c r="AZ194" s="47"/>
+      <c r="BA194" s="47"/>
+    </row>
+    <row r="195" spans="1:53">
+      <c r="A195" s="39"/>
+      <c r="B195" s="39"/>
+      <c r="C195" s="39"/>
+      <c r="D195" s="39"/>
+      <c r="E195" s="39"/>
+      <c r="F195" s="39"/>
+      <c r="G195" s="39"/>
+      <c r="H195" s="39"/>
+      <c r="I195" s="39"/>
+      <c r="J195" s="39"/>
+      <c r="K195" s="39"/>
+      <c r="L195" s="39"/>
+      <c r="M195" s="39"/>
+      <c r="N195" s="39"/>
+      <c r="O195" s="39"/>
+      <c r="P195" s="40"/>
+      <c r="Q195" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="R194" s="42"/>
-      <c r="S194" s="42"/>
-      <c r="T194" s="42"/>
-      <c r="U194" s="42"/>
-      <c r="V194" s="42"/>
-      <c r="W194" s="42"/>
-      <c r="X194" s="42"/>
-      <c r="Y194" s="42"/>
-      <c r="Z194" s="42"/>
-      <c r="AA194" s="42"/>
-      <c r="AB194" s="42"/>
-      <c r="AC194" s="42"/>
-      <c r="AD194" s="42"/>
-      <c r="AE194" s="42"/>
-      <c r="AF194" s="42"/>
-      <c r="AG194" s="42"/>
-      <c r="AH194" s="42"/>
-      <c r="AI194" s="42"/>
-      <c r="AJ194" s="42"/>
-      <c r="AK194" s="42"/>
-      <c r="AL194" s="42"/>
-      <c r="AM194" s="42"/>
-      <c r="AN194" s="42"/>
-      <c r="AO194" s="42"/>
-      <c r="AP194" s="42"/>
-      <c r="AQ194" s="42"/>
-      <c r="AR194" s="42"/>
-      <c r="AS194" s="42"/>
-      <c r="AT194" s="42"/>
-      <c r="AU194" s="42"/>
-      <c r="AV194" s="42"/>
-      <c r="AW194" s="42"/>
-      <c r="AX194" s="42"/>
-      <c r="AY194" s="42"/>
-      <c r="AZ194" s="42"/>
-      <c r="BA194" s="42"/>
-    </row>
-    <row r="195" spans="1:53">
-      <c r="A195" s="52" t="s">
+      <c r="R195" s="42"/>
+      <c r="S195" s="42"/>
+      <c r="T195" s="42"/>
+      <c r="U195" s="42"/>
+      <c r="V195" s="42"/>
+      <c r="W195" s="42"/>
+      <c r="X195" s="42"/>
+      <c r="Y195" s="42"/>
+      <c r="Z195" s="42"/>
+      <c r="AA195" s="42"/>
+      <c r="AB195" s="42"/>
+      <c r="AC195" s="42"/>
+      <c r="AD195" s="42"/>
+      <c r="AE195" s="42"/>
+      <c r="AF195" s="42"/>
+      <c r="AG195" s="42"/>
+      <c r="AH195" s="42"/>
+      <c r="AI195" s="42"/>
+      <c r="AJ195" s="42"/>
+      <c r="AK195" s="42"/>
+      <c r="AL195" s="42"/>
+      <c r="AM195" s="42"/>
+      <c r="AN195" s="42"/>
+      <c r="AO195" s="42"/>
+      <c r="AP195" s="42"/>
+      <c r="AQ195" s="42"/>
+      <c r="AR195" s="42"/>
+      <c r="AS195" s="42"/>
+      <c r="AT195" s="42"/>
+      <c r="AU195" s="42"/>
+      <c r="AV195" s="42"/>
+      <c r="AW195" s="42"/>
+      <c r="AX195" s="42"/>
+      <c r="AY195" s="42"/>
+      <c r="AZ195" s="42"/>
+      <c r="BA195" s="42"/>
+    </row>
+    <row r="196" spans="1:53">
+      <c r="A196" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B195" s="35"/>
-      <c r="C195" s="35"/>
-      <c r="D195" s="35"/>
-      <c r="E195" s="35"/>
-      <c r="F195" s="35"/>
-      <c r="G195" s="35"/>
-      <c r="H195" s="35"/>
-      <c r="I195" s="35"/>
-      <c r="J195" s="35"/>
-      <c r="K195" s="35"/>
-      <c r="L195" s="35"/>
-      <c r="M195" s="35"/>
-      <c r="N195" s="35"/>
-      <c r="O195" s="35"/>
-      <c r="P195" s="36"/>
-      <c r="Q195" s="45" t="s">
+      <c r="B196" s="35"/>
+      <c r="C196" s="35"/>
+      <c r="D196" s="35"/>
+      <c r="E196" s="35"/>
+      <c r="F196" s="35"/>
+      <c r="G196" s="35"/>
+      <c r="H196" s="35"/>
+      <c r="I196" s="35"/>
+      <c r="J196" s="35"/>
+      <c r="K196" s="35"/>
+      <c r="L196" s="35"/>
+      <c r="M196" s="35"/>
+      <c r="N196" s="35"/>
+      <c r="O196" s="35"/>
+      <c r="P196" s="36"/>
+      <c r="Q196" s="45" t="s">
         <v>97</v>
-      </c>
-      <c r="R195" s="45"/>
-      <c r="S195" s="45"/>
-      <c r="T195" s="45"/>
-      <c r="U195" s="45"/>
-      <c r="V195" s="45"/>
-      <c r="W195" s="45"/>
-      <c r="X195" s="45"/>
-      <c r="Y195" s="45"/>
-      <c r="Z195" s="45"/>
-      <c r="AA195" s="45"/>
-      <c r="AB195" s="45"/>
-      <c r="AC195" s="45"/>
-      <c r="AD195" s="45"/>
-      <c r="AE195" s="45"/>
-      <c r="AF195" s="45"/>
-      <c r="AG195" s="45"/>
-      <c r="AH195" s="45"/>
-      <c r="AI195" s="45"/>
-      <c r="AJ195" s="45"/>
-      <c r="AK195" s="45"/>
-      <c r="AL195" s="45"/>
-      <c r="AM195" s="45"/>
-      <c r="AN195" s="45"/>
-      <c r="AO195" s="45"/>
-      <c r="AP195" s="45"/>
-      <c r="AQ195" s="45"/>
-      <c r="AR195" s="45"/>
-      <c r="AS195" s="45"/>
-      <c r="AT195" s="45"/>
-      <c r="AU195" s="45"/>
-      <c r="AV195" s="45"/>
-      <c r="AW195" s="45"/>
-      <c r="AX195" s="45"/>
-      <c r="AY195" s="45"/>
-      <c r="AZ195" s="45"/>
-      <c r="BA195" s="45"/>
-    </row>
-    <row r="196" spans="1:53">
-      <c r="A196" s="43"/>
-      <c r="B196" s="43"/>
-      <c r="C196" s="43"/>
-      <c r="D196" s="43"/>
-      <c r="E196" s="43"/>
-      <c r="F196" s="43"/>
-      <c r="G196" s="43"/>
-      <c r="H196" s="43"/>
-      <c r="I196" s="43"/>
-      <c r="J196" s="43"/>
-      <c r="K196" s="43"/>
-      <c r="L196" s="43"/>
-      <c r="M196" s="43"/>
-      <c r="N196" s="43"/>
-      <c r="O196" s="43"/>
-      <c r="P196" s="44"/>
-      <c r="Q196" s="45" t="s">
-        <v>81</v>
       </c>
       <c r="R196" s="45"/>
       <c r="S196" s="45"/>
@@ -15650,7 +15656,7 @@
       <c r="O197" s="43"/>
       <c r="P197" s="44"/>
       <c r="Q197" s="45" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="R197" s="45"/>
       <c r="S197" s="45"/>
@@ -15707,7 +15713,7 @@
       <c r="O198" s="43"/>
       <c r="P198" s="44"/>
       <c r="Q198" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R198" s="45"/>
       <c r="S198" s="45"/>
@@ -15764,7 +15770,7 @@
       <c r="O199" s="43"/>
       <c r="P199" s="44"/>
       <c r="Q199" s="45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R199" s="45"/>
       <c r="S199" s="45"/>
@@ -15803,7 +15809,7 @@
       <c r="AZ199" s="45"/>
       <c r="BA199" s="45"/>
     </row>
-    <row r="200" spans="1:53" ht="5.25" customHeight="1">
+    <row r="200" spans="1:53">
       <c r="A200" s="43"/>
       <c r="B200" s="43"/>
       <c r="C200" s="43"/>
@@ -15820,7 +15826,9 @@
       <c r="N200" s="43"/>
       <c r="O200" s="43"/>
       <c r="P200" s="44"/>
-      <c r="Q200" s="45"/>
+      <c r="Q200" s="45" t="s">
+        <v>100</v>
+      </c>
       <c r="R200" s="45"/>
       <c r="S200" s="45"/>
       <c r="T200" s="45"/>
@@ -15858,7 +15866,7 @@
       <c r="AZ200" s="45"/>
       <c r="BA200" s="45"/>
     </row>
-    <row r="201" spans="1:53" hidden="1">
+    <row r="201" spans="1:53" ht="5.25" customHeight="1">
       <c r="A201" s="43"/>
       <c r="B201" s="43"/>
       <c r="C201" s="43"/>
@@ -15913,23 +15921,23 @@
       <c r="AZ201" s="45"/>
       <c r="BA201" s="45"/>
     </row>
-    <row r="202" spans="1:53">
-      <c r="A202" s="39"/>
-      <c r="B202" s="39"/>
-      <c r="C202" s="39"/>
-      <c r="D202" s="39"/>
-      <c r="E202" s="39"/>
-      <c r="F202" s="39"/>
-      <c r="G202" s="39"/>
-      <c r="H202" s="39"/>
-      <c r="I202" s="39"/>
-      <c r="J202" s="39"/>
-      <c r="K202" s="39"/>
-      <c r="L202" s="39"/>
-      <c r="M202" s="39"/>
-      <c r="N202" s="39"/>
-      <c r="O202" s="39"/>
-      <c r="P202" s="40"/>
+    <row r="202" spans="1:53" hidden="1">
+      <c r="A202" s="43"/>
+      <c r="B202" s="43"/>
+      <c r="C202" s="43"/>
+      <c r="D202" s="43"/>
+      <c r="E202" s="43"/>
+      <c r="F202" s="43"/>
+      <c r="G202" s="43"/>
+      <c r="H202" s="43"/>
+      <c r="I202" s="43"/>
+      <c r="J202" s="43"/>
+      <c r="K202" s="43"/>
+      <c r="L202" s="43"/>
+      <c r="M202" s="43"/>
+      <c r="N202" s="43"/>
+      <c r="O202" s="43"/>
+      <c r="P202" s="44"/>
       <c r="Q202" s="45"/>
       <c r="R202" s="45"/>
       <c r="S202" s="45"/>
@@ -15968,121 +15976,119 @@
       <c r="AZ202" s="45"/>
       <c r="BA202" s="45"/>
     </row>
-    <row r="203" spans="1:53">
-      <c r="A203" s="52" t="s">
+    <row r="203" spans="1:53" ht="7.5" customHeight="1">
+      <c r="A203" s="39"/>
+      <c r="B203" s="39"/>
+      <c r="C203" s="39"/>
+      <c r="D203" s="39"/>
+      <c r="E203" s="39"/>
+      <c r="F203" s="39"/>
+      <c r="G203" s="39"/>
+      <c r="H203" s="39"/>
+      <c r="I203" s="39"/>
+      <c r="J203" s="39"/>
+      <c r="K203" s="39"/>
+      <c r="L203" s="39"/>
+      <c r="M203" s="39"/>
+      <c r="N203" s="39"/>
+      <c r="O203" s="39"/>
+      <c r="P203" s="40"/>
+      <c r="Q203" s="45"/>
+      <c r="R203" s="45"/>
+      <c r="S203" s="45"/>
+      <c r="T203" s="45"/>
+      <c r="U203" s="45"/>
+      <c r="V203" s="45"/>
+      <c r="W203" s="45"/>
+      <c r="X203" s="45"/>
+      <c r="Y203" s="45"/>
+      <c r="Z203" s="45"/>
+      <c r="AA203" s="45"/>
+      <c r="AB203" s="45"/>
+      <c r="AC203" s="45"/>
+      <c r="AD203" s="45"/>
+      <c r="AE203" s="45"/>
+      <c r="AF203" s="45"/>
+      <c r="AG203" s="45"/>
+      <c r="AH203" s="45"/>
+      <c r="AI203" s="45"/>
+      <c r="AJ203" s="45"/>
+      <c r="AK203" s="45"/>
+      <c r="AL203" s="45"/>
+      <c r="AM203" s="45"/>
+      <c r="AN203" s="45"/>
+      <c r="AO203" s="45"/>
+      <c r="AP203" s="45"/>
+      <c r="AQ203" s="45"/>
+      <c r="AR203" s="45"/>
+      <c r="AS203" s="45"/>
+      <c r="AT203" s="45"/>
+      <c r="AU203" s="45"/>
+      <c r="AV203" s="45"/>
+      <c r="AW203" s="45"/>
+      <c r="AX203" s="45"/>
+      <c r="AY203" s="45"/>
+      <c r="AZ203" s="45"/>
+      <c r="BA203" s="45"/>
+    </row>
+    <row r="204" spans="1:53">
+      <c r="A204" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="B203" s="35"/>
-      <c r="C203" s="35"/>
-      <c r="D203" s="35"/>
-      <c r="E203" s="35"/>
-      <c r="F203" s="35"/>
-      <c r="G203" s="35"/>
-      <c r="H203" s="35"/>
-      <c r="I203" s="35"/>
-      <c r="J203" s="35"/>
-      <c r="K203" s="35"/>
-      <c r="L203" s="35"/>
-      <c r="M203" s="35"/>
-      <c r="N203" s="35"/>
-      <c r="O203" s="35"/>
-      <c r="P203" s="36"/>
-      <c r="Q203" s="37" t="s">
+      <c r="B204" s="35"/>
+      <c r="C204" s="35"/>
+      <c r="D204" s="35"/>
+      <c r="E204" s="35"/>
+      <c r="F204" s="35"/>
+      <c r="G204" s="35"/>
+      <c r="H204" s="35"/>
+      <c r="I204" s="35"/>
+      <c r="J204" s="35"/>
+      <c r="K204" s="35"/>
+      <c r="L204" s="35"/>
+      <c r="M204" s="35"/>
+      <c r="N204" s="35"/>
+      <c r="O204" s="35"/>
+      <c r="P204" s="36"/>
+      <c r="Q204" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="R203" s="38"/>
-      <c r="S203" s="38"/>
-      <c r="T203" s="38"/>
-      <c r="U203" s="38"/>
-      <c r="V203" s="38"/>
-      <c r="W203" s="38"/>
-      <c r="X203" s="38"/>
-      <c r="Y203" s="38"/>
-      <c r="Z203" s="38"/>
-      <c r="AA203" s="38"/>
-      <c r="AB203" s="38"/>
-      <c r="AC203" s="38"/>
-      <c r="AD203" s="38"/>
-      <c r="AE203" s="38"/>
-      <c r="AF203" s="38"/>
-      <c r="AG203" s="38"/>
-      <c r="AH203" s="38"/>
-      <c r="AI203" s="38"/>
-      <c r="AJ203" s="38"/>
-      <c r="AK203" s="38"/>
-      <c r="AL203" s="38"/>
-      <c r="AM203" s="38"/>
-      <c r="AN203" s="38"/>
-      <c r="AO203" s="38"/>
-      <c r="AP203" s="38"/>
-      <c r="AQ203" s="38"/>
-      <c r="AR203" s="38"/>
-      <c r="AS203" s="38"/>
-      <c r="AT203" s="38"/>
-      <c r="AU203" s="38"/>
-      <c r="AV203" s="38"/>
-      <c r="AW203" s="38"/>
-      <c r="AX203" s="38"/>
-      <c r="AY203" s="38"/>
-      <c r="AZ203" s="38"/>
-      <c r="BA203" s="38"/>
-    </row>
-    <row r="204" spans="1:53">
-      <c r="A204" s="43"/>
-      <c r="B204" s="43"/>
-      <c r="C204" s="43"/>
-      <c r="D204" s="43"/>
-      <c r="E204" s="43"/>
-      <c r="F204" s="43"/>
-      <c r="G204" s="43"/>
-      <c r="H204" s="43"/>
-      <c r="I204" s="43"/>
-      <c r="J204" s="43"/>
-      <c r="K204" s="43"/>
-      <c r="L204" s="43"/>
-      <c r="M204" s="43"/>
-      <c r="N204" s="43"/>
-      <c r="O204" s="43"/>
-      <c r="P204" s="44"/>
-      <c r="Q204" s="46"/>
-      <c r="R204" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="S204" s="47"/>
-      <c r="T204" s="47"/>
-      <c r="U204" s="47"/>
-      <c r="V204" s="47"/>
-      <c r="W204" s="47"/>
-      <c r="X204" s="47"/>
-      <c r="Y204" s="47"/>
-      <c r="Z204" s="47"/>
-      <c r="AA204" s="47"/>
-      <c r="AB204" s="47"/>
-      <c r="AC204" s="47"/>
-      <c r="AD204" s="47"/>
-      <c r="AE204" s="47"/>
-      <c r="AF204" s="47"/>
-      <c r="AG204" s="47"/>
-      <c r="AH204" s="47"/>
-      <c r="AI204" s="47"/>
-      <c r="AJ204" s="47"/>
-      <c r="AK204" s="47"/>
-      <c r="AL204" s="47"/>
-      <c r="AM204" s="47"/>
-      <c r="AN204" s="47"/>
-      <c r="AO204" s="47"/>
-      <c r="AP204" s="47"/>
-      <c r="AQ204" s="47"/>
-      <c r="AR204" s="47"/>
-      <c r="AS204" s="47"/>
-      <c r="AT204" s="47"/>
-      <c r="AU204" s="47"/>
-      <c r="AV204" s="47"/>
-      <c r="AW204" s="47"/>
-      <c r="AX204" s="47"/>
-      <c r="AY204" s="47"/>
-      <c r="AZ204" s="47"/>
-      <c r="BA204" s="47"/>
+      <c r="R204" s="38"/>
+      <c r="S204" s="38"/>
+      <c r="T204" s="38"/>
+      <c r="U204" s="38"/>
+      <c r="V204" s="38"/>
+      <c r="W204" s="38"/>
+      <c r="X204" s="38"/>
+      <c r="Y204" s="38"/>
+      <c r="Z204" s="38"/>
+      <c r="AA204" s="38"/>
+      <c r="AB204" s="38"/>
+      <c r="AC204" s="38"/>
+      <c r="AD204" s="38"/>
+      <c r="AE204" s="38"/>
+      <c r="AF204" s="38"/>
+      <c r="AG204" s="38"/>
+      <c r="AH204" s="38"/>
+      <c r="AI204" s="38"/>
+      <c r="AJ204" s="38"/>
+      <c r="AK204" s="38"/>
+      <c r="AL204" s="38"/>
+      <c r="AM204" s="38"/>
+      <c r="AN204" s="38"/>
+      <c r="AO204" s="38"/>
+      <c r="AP204" s="38"/>
+      <c r="AQ204" s="38"/>
+      <c r="AR204" s="38"/>
+      <c r="AS204" s="38"/>
+      <c r="AT204" s="38"/>
+      <c r="AU204" s="38"/>
+      <c r="AV204" s="38"/>
+      <c r="AW204" s="38"/>
+      <c r="AX204" s="38"/>
+      <c r="AY204" s="38"/>
+      <c r="AZ204" s="38"/>
+      <c r="BA204" s="38"/>
     </row>
     <row r="205" spans="1:53">
       <c r="A205" s="43"/>
@@ -16103,7 +16109,7 @@
       <c r="P205" s="44"/>
       <c r="Q205" s="46"/>
       <c r="R205" s="47" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="S205" s="47"/>
       <c r="T205" s="47"/>
@@ -16158,10 +16164,10 @@
       <c r="N206" s="43"/>
       <c r="O206" s="43"/>
       <c r="P206" s="44"/>
-      <c r="Q206" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="R206" s="47"/>
+      <c r="Q206" s="46"/>
+      <c r="R206" s="47" t="s">
+        <v>88</v>
+      </c>
       <c r="S206" s="47"/>
       <c r="T206" s="47"/>
       <c r="U206" s="47"/>
@@ -16215,11 +16221,9 @@
       <c r="N207" s="43"/>
       <c r="O207" s="43"/>
       <c r="P207" s="44"/>
-      <c r="Q207" s="46" t="s">
-        <v>90</v>
-      </c>
+      <c r="Q207" s="46"/>
       <c r="R207" s="47" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="S207" s="47"/>
       <c r="T207" s="47"/>
@@ -16258,194 +16262,200 @@
       <c r="BA207" s="47"/>
     </row>
     <row r="208" spans="1:53">
-      <c r="A208" s="39"/>
-      <c r="B208" s="39"/>
-      <c r="C208" s="39"/>
-      <c r="D208" s="39"/>
-      <c r="E208" s="39"/>
-      <c r="F208" s="39"/>
-      <c r="G208" s="39"/>
-      <c r="H208" s="39"/>
-      <c r="I208" s="39"/>
-      <c r="J208" s="39"/>
-      <c r="K208" s="39"/>
-      <c r="L208" s="39"/>
-      <c r="M208" s="39"/>
-      <c r="N208" s="39"/>
-      <c r="O208" s="39"/>
-      <c r="P208" s="40"/>
-      <c r="Q208" s="41"/>
-      <c r="R208" s="42" t="s">
+      <c r="A208" s="43"/>
+      <c r="B208" s="43"/>
+      <c r="C208" s="43"/>
+      <c r="D208" s="43"/>
+      <c r="E208" s="43"/>
+      <c r="F208" s="43"/>
+      <c r="G208" s="43"/>
+      <c r="H208" s="43"/>
+      <c r="I208" s="43"/>
+      <c r="J208" s="43"/>
+      <c r="K208" s="43"/>
+      <c r="L208" s="43"/>
+      <c r="M208" s="43"/>
+      <c r="N208" s="43"/>
+      <c r="O208" s="43"/>
+      <c r="P208" s="44"/>
+      <c r="Q208" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="R208" s="47"/>
+      <c r="S208" s="47"/>
+      <c r="T208" s="47"/>
+      <c r="U208" s="47"/>
+      <c r="V208" s="47"/>
+      <c r="W208" s="47"/>
+      <c r="X208" s="47"/>
+      <c r="Y208" s="47"/>
+      <c r="Z208" s="47"/>
+      <c r="AA208" s="47"/>
+      <c r="AB208" s="47"/>
+      <c r="AC208" s="47"/>
+      <c r="AD208" s="47"/>
+      <c r="AE208" s="47"/>
+      <c r="AF208" s="47"/>
+      <c r="AG208" s="47"/>
+      <c r="AH208" s="47"/>
+      <c r="AI208" s="47"/>
+      <c r="AJ208" s="47"/>
+      <c r="AK208" s="47"/>
+      <c r="AL208" s="47"/>
+      <c r="AM208" s="47"/>
+      <c r="AN208" s="47"/>
+      <c r="AO208" s="47"/>
+      <c r="AP208" s="47"/>
+      <c r="AQ208" s="47"/>
+      <c r="AR208" s="47"/>
+      <c r="AS208" s="47"/>
+      <c r="AT208" s="47"/>
+      <c r="AU208" s="47"/>
+      <c r="AV208" s="47"/>
+      <c r="AW208" s="47"/>
+      <c r="AX208" s="47"/>
+      <c r="AY208" s="47"/>
+      <c r="AZ208" s="47"/>
+      <c r="BA208" s="47"/>
+    </row>
+    <row r="209" spans="1:53">
+      <c r="A209" s="43"/>
+      <c r="B209" s="43"/>
+      <c r="C209" s="43"/>
+      <c r="D209" s="43"/>
+      <c r="E209" s="43"/>
+      <c r="F209" s="43"/>
+      <c r="G209" s="43"/>
+      <c r="H209" s="43"/>
+      <c r="I209" s="43"/>
+      <c r="J209" s="43"/>
+      <c r="K209" s="43"/>
+      <c r="L209" s="43"/>
+      <c r="M209" s="43"/>
+      <c r="N209" s="43"/>
+      <c r="O209" s="43"/>
+      <c r="P209" s="44"/>
+      <c r="Q209" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="R209" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="S209" s="47"/>
+      <c r="T209" s="47"/>
+      <c r="U209" s="47"/>
+      <c r="V209" s="47"/>
+      <c r="W209" s="47"/>
+      <c r="X209" s="47"/>
+      <c r="Y209" s="47"/>
+      <c r="Z209" s="47"/>
+      <c r="AA209" s="47"/>
+      <c r="AB209" s="47"/>
+      <c r="AC209" s="47"/>
+      <c r="AD209" s="47"/>
+      <c r="AE209" s="47"/>
+      <c r="AF209" s="47"/>
+      <c r="AG209" s="47"/>
+      <c r="AH209" s="47"/>
+      <c r="AI209" s="47"/>
+      <c r="AJ209" s="47"/>
+      <c r="AK209" s="47"/>
+      <c r="AL209" s="47"/>
+      <c r="AM209" s="47"/>
+      <c r="AN209" s="47"/>
+      <c r="AO209" s="47"/>
+      <c r="AP209" s="47"/>
+      <c r="AQ209" s="47"/>
+      <c r="AR209" s="47"/>
+      <c r="AS209" s="47"/>
+      <c r="AT209" s="47"/>
+      <c r="AU209" s="47"/>
+      <c r="AV209" s="47"/>
+      <c r="AW209" s="47"/>
+      <c r="AX209" s="47"/>
+      <c r="AY209" s="47"/>
+      <c r="AZ209" s="47"/>
+      <c r="BA209" s="47"/>
+    </row>
+    <row r="210" spans="1:53">
+      <c r="A210" s="39"/>
+      <c r="B210" s="39"/>
+      <c r="C210" s="39"/>
+      <c r="D210" s="39"/>
+      <c r="E210" s="39"/>
+      <c r="F210" s="39"/>
+      <c r="G210" s="39"/>
+      <c r="H210" s="39"/>
+      <c r="I210" s="39"/>
+      <c r="J210" s="39"/>
+      <c r="K210" s="39"/>
+      <c r="L210" s="39"/>
+      <c r="M210" s="39"/>
+      <c r="N210" s="39"/>
+      <c r="O210" s="39"/>
+      <c r="P210" s="40"/>
+      <c r="Q210" s="41"/>
+      <c r="R210" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="S208" s="42"/>
-      <c r="T208" s="42"/>
-      <c r="U208" s="42"/>
-      <c r="V208" s="42"/>
-      <c r="W208" s="42"/>
-      <c r="X208" s="42"/>
-      <c r="Y208" s="42"/>
-      <c r="Z208" s="42"/>
-      <c r="AA208" s="42"/>
-      <c r="AB208" s="42"/>
-      <c r="AC208" s="42"/>
-      <c r="AD208" s="42"/>
-      <c r="AE208" s="42"/>
-      <c r="AF208" s="42"/>
-      <c r="AG208" s="42"/>
-      <c r="AH208" s="42"/>
-      <c r="AI208" s="42"/>
-      <c r="AJ208" s="42"/>
-      <c r="AK208" s="42"/>
-      <c r="AL208" s="42"/>
-      <c r="AM208" s="42"/>
-      <c r="AN208" s="42"/>
-      <c r="AO208" s="42"/>
-      <c r="AP208" s="42"/>
-      <c r="AQ208" s="42"/>
-      <c r="AR208" s="42"/>
-      <c r="AS208" s="42"/>
-      <c r="AT208" s="42"/>
-      <c r="AU208" s="42"/>
-      <c r="AV208" s="42"/>
-      <c r="AW208" s="42"/>
-      <c r="AX208" s="42"/>
-      <c r="AY208" s="42"/>
-      <c r="AZ208" s="42"/>
-      <c r="BA208" s="42"/>
-    </row>
-    <row r="209" spans="1:53">
-      <c r="A209" s="52" t="s">
+      <c r="S210" s="42"/>
+      <c r="T210" s="42"/>
+      <c r="U210" s="42"/>
+      <c r="V210" s="42"/>
+      <c r="W210" s="42"/>
+      <c r="X210" s="42"/>
+      <c r="Y210" s="42"/>
+      <c r="Z210" s="42"/>
+      <c r="AA210" s="42"/>
+      <c r="AB210" s="42"/>
+      <c r="AC210" s="42"/>
+      <c r="AD210" s="42"/>
+      <c r="AE210" s="42"/>
+      <c r="AF210" s="42"/>
+      <c r="AG210" s="42"/>
+      <c r="AH210" s="42"/>
+      <c r="AI210" s="42"/>
+      <c r="AJ210" s="42"/>
+      <c r="AK210" s="42"/>
+      <c r="AL210" s="42"/>
+      <c r="AM210" s="42"/>
+      <c r="AN210" s="42"/>
+      <c r="AO210" s="42"/>
+      <c r="AP210" s="42"/>
+      <c r="AQ210" s="42"/>
+      <c r="AR210" s="42"/>
+      <c r="AS210" s="42"/>
+      <c r="AT210" s="42"/>
+      <c r="AU210" s="42"/>
+      <c r="AV210" s="42"/>
+      <c r="AW210" s="42"/>
+      <c r="AX210" s="42"/>
+      <c r="AY210" s="42"/>
+      <c r="AZ210" s="42"/>
+      <c r="BA210" s="42"/>
+    </row>
+    <row r="211" spans="1:53">
+      <c r="A211" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="B209" s="35"/>
-      <c r="C209" s="35"/>
-      <c r="D209" s="35"/>
-      <c r="E209" s="35"/>
-      <c r="F209" s="35"/>
-      <c r="G209" s="35"/>
-      <c r="H209" s="35"/>
-      <c r="I209" s="35"/>
-      <c r="J209" s="35"/>
-      <c r="K209" s="35"/>
-      <c r="L209" s="35"/>
-      <c r="M209" s="35"/>
-      <c r="N209" s="35"/>
-      <c r="O209" s="35"/>
-      <c r="P209" s="36"/>
-      <c r="Q209" s="45" t="s">
+      <c r="B211" s="35"/>
+      <c r="C211" s="35"/>
+      <c r="D211" s="35"/>
+      <c r="E211" s="35"/>
+      <c r="F211" s="35"/>
+      <c r="G211" s="35"/>
+      <c r="H211" s="35"/>
+      <c r="I211" s="35"/>
+      <c r="J211" s="35"/>
+      <c r="K211" s="35"/>
+      <c r="L211" s="35"/>
+      <c r="M211" s="35"/>
+      <c r="N211" s="35"/>
+      <c r="O211" s="35"/>
+      <c r="P211" s="36"/>
+      <c r="Q211" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="R209" s="45"/>
-      <c r="S209" s="45"/>
-      <c r="T209" s="45"/>
-      <c r="U209" s="45"/>
-      <c r="V209" s="45"/>
-      <c r="W209" s="45"/>
-      <c r="X209" s="45"/>
-      <c r="Y209" s="45"/>
-      <c r="Z209" s="45"/>
-      <c r="AA209" s="45"/>
-      <c r="AB209" s="45"/>
-      <c r="AC209" s="45"/>
-      <c r="AD209" s="45"/>
-      <c r="AE209" s="45"/>
-      <c r="AF209" s="45"/>
-      <c r="AG209" s="45"/>
-      <c r="AH209" s="45"/>
-      <c r="AI209" s="45"/>
-      <c r="AJ209" s="45"/>
-      <c r="AK209" s="45"/>
-      <c r="AL209" s="45"/>
-      <c r="AM209" s="45"/>
-      <c r="AN209" s="45"/>
-      <c r="AO209" s="45"/>
-      <c r="AP209" s="45"/>
-      <c r="AQ209" s="45"/>
-      <c r="AR209" s="45"/>
-      <c r="AS209" s="45"/>
-      <c r="AT209" s="45"/>
-      <c r="AU209" s="45"/>
-      <c r="AV209" s="45"/>
-      <c r="AW209" s="45"/>
-      <c r="AX209" s="45"/>
-      <c r="AY209" s="45"/>
-      <c r="AZ209" s="45"/>
-      <c r="BA209" s="45"/>
-    </row>
-    <row r="210" spans="1:53">
-      <c r="A210" s="43"/>
-      <c r="B210" s="43"/>
-      <c r="C210" s="43"/>
-      <c r="D210" s="43"/>
-      <c r="E210" s="43"/>
-      <c r="F210" s="43"/>
-      <c r="G210" s="43"/>
-      <c r="H210" s="43"/>
-      <c r="I210" s="43"/>
-      <c r="J210" s="43"/>
-      <c r="K210" s="43"/>
-      <c r="L210" s="43"/>
-      <c r="M210" s="43"/>
-      <c r="N210" s="43"/>
-      <c r="O210" s="43"/>
-      <c r="P210" s="44"/>
-      <c r="Q210" s="45"/>
-      <c r="R210" s="45"/>
-      <c r="S210" s="45"/>
-      <c r="T210" s="45"/>
-      <c r="U210" s="45"/>
-      <c r="V210" s="45"/>
-      <c r="W210" s="45"/>
-      <c r="X210" s="45"/>
-      <c r="Y210" s="45"/>
-      <c r="Z210" s="45"/>
-      <c r="AA210" s="45"/>
-      <c r="AB210" s="45"/>
-      <c r="AC210" s="45"/>
-      <c r="AD210" s="45"/>
-      <c r="AE210" s="45"/>
-      <c r="AF210" s="45"/>
-      <c r="AG210" s="45"/>
-      <c r="AH210" s="45"/>
-      <c r="AI210" s="45"/>
-      <c r="AJ210" s="45"/>
-      <c r="AK210" s="45"/>
-      <c r="AL210" s="45"/>
-      <c r="AM210" s="45"/>
-      <c r="AN210" s="45"/>
-      <c r="AO210" s="45"/>
-      <c r="AP210" s="45"/>
-      <c r="AQ210" s="45"/>
-      <c r="AR210" s="45"/>
-      <c r="AS210" s="45"/>
-      <c r="AT210" s="45"/>
-      <c r="AU210" s="45"/>
-      <c r="AV210" s="45"/>
-      <c r="AW210" s="45"/>
-      <c r="AX210" s="45"/>
-      <c r="AY210" s="45"/>
-      <c r="AZ210" s="45"/>
-      <c r="BA210" s="45"/>
-    </row>
-    <row r="211" spans="1:53">
-      <c r="A211" s="39"/>
-      <c r="B211" s="39"/>
-      <c r="C211" s="39"/>
-      <c r="D211" s="39"/>
-      <c r="E211" s="39"/>
-      <c r="F211" s="39"/>
-      <c r="G211" s="39"/>
-      <c r="H211" s="39"/>
-      <c r="I211" s="39"/>
-      <c r="J211" s="39"/>
-      <c r="K211" s="39"/>
-      <c r="L211" s="39"/>
-      <c r="M211" s="39"/>
-      <c r="N211" s="39"/>
-      <c r="O211" s="39"/>
-      <c r="P211" s="40"/>
-      <c r="Q211" s="45"/>
       <c r="R211" s="45"/>
       <c r="S211" s="45"/>
       <c r="T211" s="45"/>
@@ -16483,413 +16493,411 @@
       <c r="AZ211" s="45"/>
       <c r="BA211" s="45"/>
     </row>
-    <row r="212" spans="1:53">
-      <c r="A212" s="52" t="s">
+    <row r="212" spans="1:53" ht="7.5" customHeight="1">
+      <c r="A212" s="39"/>
+      <c r="B212" s="39"/>
+      <c r="C212" s="39"/>
+      <c r="D212" s="39"/>
+      <c r="E212" s="39"/>
+      <c r="F212" s="39"/>
+      <c r="G212" s="39"/>
+      <c r="H212" s="39"/>
+      <c r="I212" s="39"/>
+      <c r="J212" s="39"/>
+      <c r="K212" s="39"/>
+      <c r="L212" s="39"/>
+      <c r="M212" s="39"/>
+      <c r="N212" s="39"/>
+      <c r="O212" s="39"/>
+      <c r="P212" s="40"/>
+      <c r="Q212" s="45"/>
+      <c r="R212" s="45"/>
+      <c r="S212" s="45"/>
+      <c r="T212" s="45"/>
+      <c r="U212" s="45"/>
+      <c r="V212" s="45"/>
+      <c r="W212" s="45"/>
+      <c r="X212" s="45"/>
+      <c r="Y212" s="45"/>
+      <c r="Z212" s="45"/>
+      <c r="AA212" s="45"/>
+      <c r="AB212" s="45"/>
+      <c r="AC212" s="45"/>
+      <c r="AD212" s="45"/>
+      <c r="AE212" s="45"/>
+      <c r="AF212" s="45"/>
+      <c r="AG212" s="45"/>
+      <c r="AH212" s="45"/>
+      <c r="AI212" s="45"/>
+      <c r="AJ212" s="45"/>
+      <c r="AK212" s="45"/>
+      <c r="AL212" s="45"/>
+      <c r="AM212" s="45"/>
+      <c r="AN212" s="45"/>
+      <c r="AO212" s="45"/>
+      <c r="AP212" s="45"/>
+      <c r="AQ212" s="45"/>
+      <c r="AR212" s="45"/>
+      <c r="AS212" s="45"/>
+      <c r="AT212" s="45"/>
+      <c r="AU212" s="45"/>
+      <c r="AV212" s="45"/>
+      <c r="AW212" s="45"/>
+      <c r="AX212" s="45"/>
+      <c r="AY212" s="45"/>
+      <c r="AZ212" s="45"/>
+      <c r="BA212" s="45"/>
+    </row>
+    <row r="213" spans="1:53">
+      <c r="A213" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="B212" s="35"/>
-      <c r="C212" s="35"/>
-      <c r="D212" s="35"/>
-      <c r="E212" s="35"/>
-      <c r="F212" s="35"/>
-      <c r="G212" s="35"/>
-      <c r="H212" s="35"/>
-      <c r="I212" s="35"/>
-      <c r="J212" s="35"/>
-      <c r="K212" s="35"/>
-      <c r="L212" s="35"/>
-      <c r="M212" s="35"/>
-      <c r="N212" s="35"/>
-      <c r="O212" s="35"/>
-      <c r="P212" s="36"/>
-      <c r="Q212" s="37" t="s">
+      <c r="B213" s="35"/>
+      <c r="C213" s="35"/>
+      <c r="D213" s="35"/>
+      <c r="E213" s="35"/>
+      <c r="F213" s="35"/>
+      <c r="G213" s="35"/>
+      <c r="H213" s="35"/>
+      <c r="I213" s="35"/>
+      <c r="J213" s="35"/>
+      <c r="K213" s="35"/>
+      <c r="L213" s="35"/>
+      <c r="M213" s="35"/>
+      <c r="N213" s="35"/>
+      <c r="O213" s="35"/>
+      <c r="P213" s="36"/>
+      <c r="Q213" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="R212" s="38"/>
-      <c r="S212" s="38"/>
-      <c r="T212" s="38"/>
-      <c r="U212" s="38"/>
-      <c r="V212" s="38"/>
-      <c r="W212" s="38"/>
-      <c r="X212" s="38"/>
-      <c r="Y212" s="38"/>
-      <c r="Z212" s="38"/>
-      <c r="AA212" s="38"/>
-      <c r="AB212" s="38"/>
-      <c r="AC212" s="38"/>
-      <c r="AD212" s="38"/>
-      <c r="AE212" s="38"/>
-      <c r="AF212" s="38"/>
-      <c r="AG212" s="38"/>
-      <c r="AH212" s="38"/>
-      <c r="AI212" s="38"/>
-      <c r="AJ212" s="38"/>
-      <c r="AK212" s="38"/>
-      <c r="AL212" s="38"/>
-      <c r="AM212" s="38"/>
-      <c r="AN212" s="38"/>
-      <c r="AO212" s="38"/>
-      <c r="AP212" s="38"/>
-      <c r="AQ212" s="38"/>
-      <c r="AR212" s="38"/>
-      <c r="AS212" s="38"/>
-      <c r="AT212" s="38"/>
-      <c r="AU212" s="38"/>
-      <c r="AV212" s="38"/>
-      <c r="AW212" s="38"/>
-      <c r="AX212" s="38"/>
-      <c r="AY212" s="38"/>
-      <c r="AZ212" s="38"/>
-      <c r="BA212" s="38"/>
-    </row>
-    <row r="213" spans="1:53">
-      <c r="A213" s="43"/>
-      <c r="B213" s="43"/>
-      <c r="C213" s="43"/>
-      <c r="D213" s="43"/>
-      <c r="E213" s="43"/>
-      <c r="F213" s="43"/>
-      <c r="G213" s="43"/>
-      <c r="H213" s="43"/>
-      <c r="I213" s="43"/>
-      <c r="J213" s="43"/>
-      <c r="K213" s="43"/>
-      <c r="L213" s="43"/>
-      <c r="M213" s="43"/>
-      <c r="N213" s="43"/>
-      <c r="O213" s="43"/>
-      <c r="P213" s="44"/>
-      <c r="Q213" s="46" t="s">
+      <c r="R213" s="38"/>
+      <c r="S213" s="38"/>
+      <c r="T213" s="38"/>
+      <c r="U213" s="38"/>
+      <c r="V213" s="38"/>
+      <c r="W213" s="38"/>
+      <c r="X213" s="38"/>
+      <c r="Y213" s="38"/>
+      <c r="Z213" s="38"/>
+      <c r="AA213" s="38"/>
+      <c r="AB213" s="38"/>
+      <c r="AC213" s="38"/>
+      <c r="AD213" s="38"/>
+      <c r="AE213" s="38"/>
+      <c r="AF213" s="38"/>
+      <c r="AG213" s="38"/>
+      <c r="AH213" s="38"/>
+      <c r="AI213" s="38"/>
+      <c r="AJ213" s="38"/>
+      <c r="AK213" s="38"/>
+      <c r="AL213" s="38"/>
+      <c r="AM213" s="38"/>
+      <c r="AN213" s="38"/>
+      <c r="AO213" s="38"/>
+      <c r="AP213" s="38"/>
+      <c r="AQ213" s="38"/>
+      <c r="AR213" s="38"/>
+      <c r="AS213" s="38"/>
+      <c r="AT213" s="38"/>
+      <c r="AU213" s="38"/>
+      <c r="AV213" s="38"/>
+      <c r="AW213" s="38"/>
+      <c r="AX213" s="38"/>
+      <c r="AY213" s="38"/>
+      <c r="AZ213" s="38"/>
+      <c r="BA213" s="38"/>
+    </row>
+    <row r="214" spans="1:53">
+      <c r="A214" s="43"/>
+      <c r="B214" s="43"/>
+      <c r="C214" s="43"/>
+      <c r="D214" s="43"/>
+      <c r="E214" s="43"/>
+      <c r="F214" s="43"/>
+      <c r="G214" s="43"/>
+      <c r="H214" s="43"/>
+      <c r="I214" s="43"/>
+      <c r="J214" s="43"/>
+      <c r="K214" s="43"/>
+      <c r="L214" s="43"/>
+      <c r="M214" s="43"/>
+      <c r="N214" s="43"/>
+      <c r="O214" s="43"/>
+      <c r="P214" s="44"/>
+      <c r="Q214" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="R213" s="47"/>
-      <c r="S213" s="47"/>
-      <c r="T213" s="47"/>
-      <c r="U213" s="47"/>
-      <c r="V213" s="47"/>
-      <c r="W213" s="47"/>
-      <c r="X213" s="47"/>
-      <c r="Y213" s="47"/>
-      <c r="Z213" s="47"/>
-      <c r="AA213" s="47"/>
-      <c r="AB213" s="47"/>
-      <c r="AC213" s="47"/>
-      <c r="AD213" s="47"/>
-      <c r="AE213" s="47"/>
-      <c r="AF213" s="47"/>
-      <c r="AG213" s="47"/>
-      <c r="AH213" s="47"/>
-      <c r="AI213" s="47"/>
-      <c r="AJ213" s="47"/>
-      <c r="AK213" s="47"/>
-      <c r="AL213" s="47"/>
-      <c r="AM213" s="47"/>
-      <c r="AN213" s="47"/>
-      <c r="AO213" s="47"/>
-      <c r="AP213" s="47"/>
-      <c r="AQ213" s="47"/>
-      <c r="AR213" s="47"/>
-      <c r="AS213" s="47"/>
-      <c r="AT213" s="47"/>
-      <c r="AU213" s="47"/>
-      <c r="AV213" s="47"/>
-      <c r="AW213" s="47"/>
-      <c r="AX213" s="47"/>
-      <c r="AY213" s="47"/>
-      <c r="AZ213" s="47"/>
-      <c r="BA213" s="47"/>
-    </row>
-    <row r="214" spans="1:53">
-      <c r="A214" s="39"/>
-      <c r="B214" s="39"/>
-      <c r="C214" s="39"/>
-      <c r="D214" s="39"/>
-      <c r="E214" s="39"/>
-      <c r="F214" s="39"/>
-      <c r="G214" s="39"/>
-      <c r="H214" s="39"/>
-      <c r="I214" s="39"/>
-      <c r="J214" s="39"/>
-      <c r="K214" s="39"/>
-      <c r="L214" s="39"/>
-      <c r="M214" s="39"/>
-      <c r="N214" s="39"/>
-      <c r="O214" s="39"/>
-      <c r="P214" s="40"/>
-      <c r="Q214" s="41" t="s">
+      <c r="R214" s="47"/>
+      <c r="S214" s="47"/>
+      <c r="T214" s="47"/>
+      <c r="U214" s="47"/>
+      <c r="V214" s="47"/>
+      <c r="W214" s="47"/>
+      <c r="X214" s="47"/>
+      <c r="Y214" s="47"/>
+      <c r="Z214" s="47"/>
+      <c r="AA214" s="47"/>
+      <c r="AB214" s="47"/>
+      <c r="AC214" s="47"/>
+      <c r="AD214" s="47"/>
+      <c r="AE214" s="47"/>
+      <c r="AF214" s="47"/>
+      <c r="AG214" s="47"/>
+      <c r="AH214" s="47"/>
+      <c r="AI214" s="47"/>
+      <c r="AJ214" s="47"/>
+      <c r="AK214" s="47"/>
+      <c r="AL214" s="47"/>
+      <c r="AM214" s="47"/>
+      <c r="AN214" s="47"/>
+      <c r="AO214" s="47"/>
+      <c r="AP214" s="47"/>
+      <c r="AQ214" s="47"/>
+      <c r="AR214" s="47"/>
+      <c r="AS214" s="47"/>
+      <c r="AT214" s="47"/>
+      <c r="AU214" s="47"/>
+      <c r="AV214" s="47"/>
+      <c r="AW214" s="47"/>
+      <c r="AX214" s="47"/>
+      <c r="AY214" s="47"/>
+      <c r="AZ214" s="47"/>
+      <c r="BA214" s="47"/>
+    </row>
+    <row r="215" spans="1:53">
+      <c r="A215" s="39"/>
+      <c r="B215" s="39"/>
+      <c r="C215" s="39"/>
+      <c r="D215" s="39"/>
+      <c r="E215" s="39"/>
+      <c r="F215" s="39"/>
+      <c r="G215" s="39"/>
+      <c r="H215" s="39"/>
+      <c r="I215" s="39"/>
+      <c r="J215" s="39"/>
+      <c r="K215" s="39"/>
+      <c r="L215" s="39"/>
+      <c r="M215" s="39"/>
+      <c r="N215" s="39"/>
+      <c r="O215" s="39"/>
+      <c r="P215" s="40"/>
+      <c r="Q215" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="R214" s="42"/>
-      <c r="S214" s="42"/>
-      <c r="T214" s="42"/>
-      <c r="U214" s="42"/>
-      <c r="V214" s="42"/>
-      <c r="W214" s="42"/>
-      <c r="X214" s="42"/>
-      <c r="Y214" s="42"/>
-      <c r="Z214" s="42"/>
-      <c r="AA214" s="42"/>
-      <c r="AB214" s="42"/>
-      <c r="AC214" s="42"/>
-      <c r="AD214" s="42"/>
-      <c r="AE214" s="42"/>
-      <c r="AF214" s="42"/>
-      <c r="AG214" s="42"/>
-      <c r="AH214" s="42"/>
-      <c r="AI214" s="42"/>
-      <c r="AJ214" s="42"/>
-      <c r="AK214" s="42"/>
-      <c r="AL214" s="42"/>
-      <c r="AM214" s="42"/>
-      <c r="AN214" s="42"/>
-      <c r="AO214" s="42"/>
-      <c r="AP214" s="42"/>
-      <c r="AQ214" s="42"/>
-      <c r="AR214" s="42"/>
-      <c r="AS214" s="42"/>
-      <c r="AT214" s="42"/>
-      <c r="AU214" s="42"/>
-      <c r="AV214" s="42"/>
-      <c r="AW214" s="42"/>
-      <c r="AX214" s="42"/>
-      <c r="AY214" s="42"/>
-      <c r="AZ214" s="42"/>
-      <c r="BA214" s="42"/>
-    </row>
-    <row r="215" spans="1:53">
-      <c r="A215" s="47"/>
-      <c r="B215" s="47"/>
-      <c r="C215" s="47"/>
-      <c r="D215" s="47"/>
-      <c r="E215" s="47"/>
-      <c r="F215" s="47"/>
-      <c r="G215" s="47"/>
-      <c r="H215" s="47"/>
-      <c r="I215" s="47"/>
-      <c r="J215" s="47"/>
-      <c r="K215" s="47"/>
-      <c r="L215" s="47"/>
-      <c r="M215" s="47"/>
-      <c r="N215" s="47"/>
-      <c r="O215" s="47"/>
-      <c r="P215" s="47"/>
-      <c r="Q215" s="47"/>
-      <c r="R215" s="47"/>
-      <c r="S215" s="47"/>
-      <c r="T215" s="47"/>
-      <c r="U215" s="47"/>
-      <c r="V215" s="47"/>
-      <c r="W215" s="47"/>
-      <c r="X215" s="47"/>
-      <c r="Y215" s="47"/>
-      <c r="Z215" s="47"/>
-      <c r="AA215" s="47"/>
-      <c r="AB215" s="47"/>
-      <c r="AC215" s="47"/>
-      <c r="AD215" s="47"/>
-      <c r="AE215" s="47"/>
-      <c r="AF215" s="47"/>
-      <c r="AG215" s="47"/>
-      <c r="AH215" s="47"/>
-      <c r="AI215" s="47"/>
-      <c r="AJ215" s="47"/>
-      <c r="AK215" s="47"/>
-      <c r="AL215" s="47"/>
-      <c r="AM215" s="47"/>
-      <c r="AN215" s="47"/>
-      <c r="AO215" s="47"/>
-      <c r="AP215" s="47"/>
-      <c r="AQ215" s="47"/>
-      <c r="AR215" s="47"/>
-      <c r="AS215" s="47"/>
-      <c r="AT215" s="47"/>
-      <c r="AU215" s="47"/>
-      <c r="AV215" s="47"/>
-      <c r="AW215" s="47"/>
-      <c r="AX215" s="47"/>
-      <c r="AY215" s="47"/>
-      <c r="AZ215" s="47"/>
-      <c r="BA215" s="47"/>
+      <c r="R215" s="42"/>
+      <c r="S215" s="42"/>
+      <c r="T215" s="42"/>
+      <c r="U215" s="42"/>
+      <c r="V215" s="42"/>
+      <c r="W215" s="42"/>
+      <c r="X215" s="42"/>
+      <c r="Y215" s="42"/>
+      <c r="Z215" s="42"/>
+      <c r="AA215" s="42"/>
+      <c r="AB215" s="42"/>
+      <c r="AC215" s="42"/>
+      <c r="AD215" s="42"/>
+      <c r="AE215" s="42"/>
+      <c r="AF215" s="42"/>
+      <c r="AG215" s="42"/>
+      <c r="AH215" s="42"/>
+      <c r="AI215" s="42"/>
+      <c r="AJ215" s="42"/>
+      <c r="AK215" s="42"/>
+      <c r="AL215" s="42"/>
+      <c r="AM215" s="42"/>
+      <c r="AN215" s="42"/>
+      <c r="AO215" s="42"/>
+      <c r="AP215" s="42"/>
+      <c r="AQ215" s="42"/>
+      <c r="AR215" s="42"/>
+      <c r="AS215" s="42"/>
+      <c r="AT215" s="42"/>
+      <c r="AU215" s="42"/>
+      <c r="AV215" s="42"/>
+      <c r="AW215" s="42"/>
+      <c r="AX215" s="42"/>
+      <c r="AY215" s="42"/>
+      <c r="AZ215" s="42"/>
+      <c r="BA215" s="42"/>
     </row>
     <row r="216" spans="1:53">
-      <c r="A216" s="16" t="s">
+      <c r="A216" s="47"/>
+      <c r="B216" s="47"/>
+      <c r="C216" s="47"/>
+      <c r="D216" s="47"/>
+      <c r="E216" s="47"/>
+      <c r="F216" s="47"/>
+      <c r="G216" s="47"/>
+      <c r="H216" s="47"/>
+      <c r="I216" s="47"/>
+      <c r="J216" s="47"/>
+      <c r="K216" s="47"/>
+      <c r="L216" s="47"/>
+      <c r="M216" s="47"/>
+      <c r="N216" s="47"/>
+      <c r="O216" s="47"/>
+      <c r="P216" s="47"/>
+      <c r="Q216" s="47"/>
+      <c r="R216" s="47"/>
+      <c r="S216" s="47"/>
+      <c r="T216" s="47"/>
+      <c r="U216" s="47"/>
+      <c r="V216" s="47"/>
+      <c r="W216" s="47"/>
+      <c r="X216" s="47"/>
+      <c r="Y216" s="47"/>
+      <c r="Z216" s="47"/>
+      <c r="AA216" s="47"/>
+      <c r="AB216" s="47"/>
+      <c r="AC216" s="47"/>
+      <c r="AD216" s="47"/>
+      <c r="AE216" s="47"/>
+      <c r="AF216" s="47"/>
+      <c r="AG216" s="47"/>
+      <c r="AH216" s="47"/>
+      <c r="AI216" s="47"/>
+      <c r="AJ216" s="47"/>
+      <c r="AK216" s="47"/>
+      <c r="AL216" s="47"/>
+      <c r="AM216" s="47"/>
+      <c r="AN216" s="47"/>
+      <c r="AO216" s="47"/>
+      <c r="AP216" s="47"/>
+      <c r="AQ216" s="47"/>
+      <c r="AR216" s="47"/>
+      <c r="AS216" s="47"/>
+      <c r="AT216" s="47"/>
+      <c r="AU216" s="47"/>
+      <c r="AV216" s="47"/>
+      <c r="AW216" s="47"/>
+      <c r="AX216" s="47"/>
+      <c r="AY216" s="47"/>
+      <c r="AZ216" s="47"/>
+      <c r="BA216" s="47"/>
+    </row>
+    <row r="217" spans="1:53">
+      <c r="A217" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B216" s="17">
+      <c r="B217" s="17">
         <v>10</v>
       </c>
-      <c r="C216" s="106" t="s">
+      <c r="C217" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="D216" s="107"/>
-      <c r="E216" s="107"/>
-      <c r="F216" s="107"/>
-      <c r="G216" s="107"/>
-      <c r="H216" s="107"/>
-      <c r="I216" s="107"/>
-      <c r="J216" s="107"/>
-      <c r="K216" s="107"/>
-      <c r="L216" s="107"/>
-      <c r="M216" s="107"/>
-      <c r="N216" s="107"/>
-      <c r="O216" s="107"/>
-      <c r="P216" s="108"/>
-      <c r="Q216" s="109" t="str">
-        <f>VLOOKUP(B216,'SPECIFY(Đặc Tả)(1)'!$A$5:$BA$33,2,0)</f>
+      <c r="D217" s="95"/>
+      <c r="E217" s="95"/>
+      <c r="F217" s="95"/>
+      <c r="G217" s="95"/>
+      <c r="H217" s="95"/>
+      <c r="I217" s="95"/>
+      <c r="J217" s="95"/>
+      <c r="K217" s="95"/>
+      <c r="L217" s="95"/>
+      <c r="M217" s="95"/>
+      <c r="N217" s="95"/>
+      <c r="O217" s="95"/>
+      <c r="P217" s="96"/>
+      <c r="Q217" s="97" t="str">
+        <f>VLOOKUP(B217,'SPECIFY(Đặc Tả)(1)'!$A$5:$BA$33,2,0)</f>
         <v>Lập DS các đội dự cup châu lục</v>
       </c>
-      <c r="R216" s="110"/>
-      <c r="S216" s="110"/>
-      <c r="T216" s="110"/>
-      <c r="U216" s="110"/>
-      <c r="V216" s="110"/>
-      <c r="W216" s="110"/>
-      <c r="X216" s="110"/>
-      <c r="Y216" s="110"/>
-      <c r="Z216" s="110"/>
-      <c r="AA216" s="110"/>
-      <c r="AB216" s="110"/>
-      <c r="AC216" s="110"/>
-      <c r="AD216" s="110"/>
-      <c r="AE216" s="110"/>
-      <c r="AF216" s="110"/>
-      <c r="AG216" s="110"/>
-      <c r="AH216" s="110"/>
-      <c r="AI216" s="110"/>
-      <c r="AJ216" s="110"/>
-      <c r="AK216" s="110"/>
-      <c r="AL216" s="110"/>
-      <c r="AM216" s="110"/>
-      <c r="AN216" s="110"/>
-      <c r="AO216" s="110"/>
-      <c r="AP216" s="110"/>
-      <c r="AQ216" s="110"/>
-      <c r="AR216" s="110"/>
-      <c r="AS216" s="110"/>
-      <c r="AT216" s="110"/>
-      <c r="AU216" s="110"/>
-      <c r="AV216" s="110"/>
-      <c r="AW216" s="110"/>
-      <c r="AX216" s="110"/>
-      <c r="AY216" s="110"/>
-      <c r="AZ216" s="110"/>
-      <c r="BA216" s="110"/>
-    </row>
-    <row r="217" spans="1:53">
-      <c r="A217" s="51" t="s">
+      <c r="R217" s="98"/>
+      <c r="S217" s="98"/>
+      <c r="T217" s="98"/>
+      <c r="U217" s="98"/>
+      <c r="V217" s="98"/>
+      <c r="W217" s="98"/>
+      <c r="X217" s="98"/>
+      <c r="Y217" s="98"/>
+      <c r="Z217" s="98"/>
+      <c r="AA217" s="98"/>
+      <c r="AB217" s="98"/>
+      <c r="AC217" s="98"/>
+      <c r="AD217" s="98"/>
+      <c r="AE217" s="98"/>
+      <c r="AF217" s="98"/>
+      <c r="AG217" s="98"/>
+      <c r="AH217" s="98"/>
+      <c r="AI217" s="98"/>
+      <c r="AJ217" s="98"/>
+      <c r="AK217" s="98"/>
+      <c r="AL217" s="98"/>
+      <c r="AM217" s="98"/>
+      <c r="AN217" s="98"/>
+      <c r="AO217" s="98"/>
+      <c r="AP217" s="98"/>
+      <c r="AQ217" s="98"/>
+      <c r="AR217" s="98"/>
+      <c r="AS217" s="98"/>
+      <c r="AT217" s="98"/>
+      <c r="AU217" s="98"/>
+      <c r="AV217" s="98"/>
+      <c r="AW217" s="98"/>
+      <c r="AX217" s="98"/>
+      <c r="AY217" s="98"/>
+      <c r="AZ217" s="98"/>
+      <c r="BA217" s="98"/>
+    </row>
+    <row r="218" spans="1:53">
+      <c r="A218" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="B217" s="35"/>
-      <c r="C217" s="35"/>
-      <c r="D217" s="35"/>
-      <c r="E217" s="35"/>
-      <c r="F217" s="35"/>
-      <c r="G217" s="35"/>
-      <c r="H217" s="35"/>
-      <c r="I217" s="35"/>
-      <c r="J217" s="35"/>
-      <c r="K217" s="35"/>
-      <c r="L217" s="35"/>
-      <c r="M217" s="35"/>
-      <c r="N217" s="35"/>
-      <c r="O217" s="35"/>
-      <c r="P217" s="36"/>
-      <c r="Q217" s="37" t="s">
+      <c r="B218" s="35"/>
+      <c r="C218" s="35"/>
+      <c r="D218" s="35"/>
+      <c r="E218" s="35"/>
+      <c r="F218" s="35"/>
+      <c r="G218" s="35"/>
+      <c r="H218" s="35"/>
+      <c r="I218" s="35"/>
+      <c r="J218" s="35"/>
+      <c r="K218" s="35"/>
+      <c r="L218" s="35"/>
+      <c r="M218" s="35"/>
+      <c r="N218" s="35"/>
+      <c r="O218" s="35"/>
+      <c r="P218" s="36"/>
+      <c r="Q218" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="R217" s="38"/>
-      <c r="S217" s="38"/>
-      <c r="T217" s="38"/>
-      <c r="U217" s="38"/>
-      <c r="V217" s="38"/>
-      <c r="W217" s="38"/>
-      <c r="X217" s="38"/>
-      <c r="Y217" s="38"/>
-      <c r="Z217" s="38"/>
-      <c r="AA217" s="38"/>
-      <c r="AB217" s="38"/>
-      <c r="AC217" s="38"/>
-      <c r="AD217" s="38"/>
-      <c r="AE217" s="38"/>
-      <c r="AF217" s="38"/>
-      <c r="AG217" s="38"/>
-      <c r="AH217" s="38"/>
-      <c r="AI217" s="38"/>
-      <c r="AJ217" s="38"/>
-      <c r="AK217" s="38"/>
-      <c r="AL217" s="38"/>
-      <c r="AM217" s="38"/>
-      <c r="AN217" s="38"/>
-      <c r="AO217" s="38"/>
-      <c r="AP217" s="38"/>
-      <c r="AQ217" s="38"/>
-      <c r="AR217" s="38"/>
-      <c r="AS217" s="38"/>
-      <c r="AT217" s="38"/>
-      <c r="AU217" s="38"/>
-      <c r="AV217" s="38"/>
-      <c r="AW217" s="38"/>
-      <c r="AX217" s="38"/>
-      <c r="AY217" s="38"/>
-      <c r="AZ217" s="38"/>
-      <c r="BA217" s="38"/>
-    </row>
-    <row r="218" spans="1:53">
-      <c r="A218" s="43"/>
-      <c r="B218" s="43"/>
-      <c r="C218" s="43"/>
-      <c r="D218" s="43"/>
-      <c r="E218" s="43"/>
-      <c r="F218" s="43"/>
-      <c r="G218" s="43"/>
-      <c r="H218" s="43"/>
-      <c r="I218" s="43"/>
-      <c r="J218" s="43"/>
-      <c r="K218" s="43"/>
-      <c r="L218" s="43"/>
-      <c r="M218" s="43"/>
-      <c r="N218" s="43"/>
-      <c r="O218" s="43"/>
-      <c r="P218" s="44"/>
-      <c r="Q218" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="R218" s="47"/>
-      <c r="S218" s="47"/>
-      <c r="T218" s="47"/>
-      <c r="U218" s="47"/>
-      <c r="V218" s="47"/>
-      <c r="W218" s="47"/>
-      <c r="X218" s="47"/>
-      <c r="Y218" s="47"/>
-      <c r="Z218" s="47"/>
-      <c r="AA218" s="47"/>
-      <c r="AB218" s="47"/>
-      <c r="AC218" s="47"/>
-      <c r="AD218" s="47"/>
-      <c r="AE218" s="47"/>
-      <c r="AF218" s="47"/>
-      <c r="AG218" s="47"/>
-      <c r="AH218" s="47"/>
-      <c r="AI218" s="47"/>
-      <c r="AJ218" s="47"/>
-      <c r="AK218" s="47"/>
-      <c r="AL218" s="47"/>
-      <c r="AM218" s="47"/>
-      <c r="AN218" s="47"/>
-      <c r="AO218" s="47"/>
-      <c r="AP218" s="47"/>
-      <c r="AQ218" s="47"/>
-      <c r="AR218" s="47"/>
-      <c r="AS218" s="47"/>
-      <c r="AT218" s="47"/>
-      <c r="AU218" s="47"/>
-      <c r="AV218" s="47"/>
-      <c r="AW218" s="47"/>
-      <c r="AX218" s="47"/>
-      <c r="AY218" s="47"/>
-      <c r="AZ218" s="47"/>
-      <c r="BA218" s="47"/>
+      <c r="R218" s="38"/>
+      <c r="S218" s="38"/>
+      <c r="T218" s="38"/>
+      <c r="U218" s="38"/>
+      <c r="V218" s="38"/>
+      <c r="W218" s="38"/>
+      <c r="X218" s="38"/>
+      <c r="Y218" s="38"/>
+      <c r="Z218" s="38"/>
+      <c r="AA218" s="38"/>
+      <c r="AB218" s="38"/>
+      <c r="AC218" s="38"/>
+      <c r="AD218" s="38"/>
+      <c r="AE218" s="38"/>
+      <c r="AF218" s="38"/>
+      <c r="AG218" s="38"/>
+      <c r="AH218" s="38"/>
+      <c r="AI218" s="38"/>
+      <c r="AJ218" s="38"/>
+      <c r="AK218" s="38"/>
+      <c r="AL218" s="38"/>
+      <c r="AM218" s="38"/>
+      <c r="AN218" s="38"/>
+      <c r="AO218" s="38"/>
+      <c r="AP218" s="38"/>
+      <c r="AQ218" s="38"/>
+      <c r="AR218" s="38"/>
+      <c r="AS218" s="38"/>
+      <c r="AT218" s="38"/>
+      <c r="AU218" s="38"/>
+      <c r="AV218" s="38"/>
+      <c r="AW218" s="38"/>
+      <c r="AX218" s="38"/>
+      <c r="AY218" s="38"/>
+      <c r="AZ218" s="38"/>
+      <c r="BA218" s="38"/>
     </row>
     <row r="219" spans="1:53">
       <c r="A219" s="43"/>
@@ -16909,7 +16917,7 @@
       <c r="O219" s="43"/>
       <c r="P219" s="44"/>
       <c r="Q219" s="46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R219" s="47"/>
       <c r="S219" s="47"/>
@@ -16929,9 +16937,7 @@
       <c r="AG219" s="47"/>
       <c r="AH219" s="47"/>
       <c r="AI219" s="47"/>
-      <c r="AJ219" s="47" t="s">
-        <v>112</v>
-      </c>
+      <c r="AJ219" s="47"/>
       <c r="AK219" s="47"/>
       <c r="AL219" s="47"/>
       <c r="AM219" s="47"/>
@@ -16951,140 +16957,142 @@
       <c r="BA219" s="47"/>
     </row>
     <row r="220" spans="1:53">
-      <c r="A220" s="39"/>
-      <c r="B220" s="39"/>
-      <c r="C220" s="39"/>
-      <c r="D220" s="39"/>
-      <c r="E220" s="39"/>
-      <c r="F220" s="39"/>
-      <c r="G220" s="39"/>
-      <c r="H220" s="39"/>
-      <c r="I220" s="39"/>
-      <c r="J220" s="39"/>
-      <c r="K220" s="39"/>
-      <c r="L220" s="39"/>
-      <c r="M220" s="39"/>
-      <c r="N220" s="39"/>
-      <c r="O220" s="39"/>
-      <c r="P220" s="40"/>
-      <c r="Q220" s="41" t="s">
+      <c r="A220" s="43"/>
+      <c r="B220" s="43"/>
+      <c r="C220" s="43"/>
+      <c r="D220" s="43"/>
+      <c r="E220" s="43"/>
+      <c r="F220" s="43"/>
+      <c r="G220" s="43"/>
+      <c r="H220" s="43"/>
+      <c r="I220" s="43"/>
+      <c r="J220" s="43"/>
+      <c r="K220" s="43"/>
+      <c r="L220" s="43"/>
+      <c r="M220" s="43"/>
+      <c r="N220" s="43"/>
+      <c r="O220" s="43"/>
+      <c r="P220" s="44"/>
+      <c r="Q220" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="R220" s="47"/>
+      <c r="S220" s="47"/>
+      <c r="T220" s="47"/>
+      <c r="U220" s="47"/>
+      <c r="V220" s="47"/>
+      <c r="W220" s="47"/>
+      <c r="X220" s="47"/>
+      <c r="Y220" s="47"/>
+      <c r="Z220" s="47"/>
+      <c r="AA220" s="47"/>
+      <c r="AB220" s="47"/>
+      <c r="AC220" s="47"/>
+      <c r="AD220" s="47"/>
+      <c r="AE220" s="47"/>
+      <c r="AF220" s="47"/>
+      <c r="AG220" s="47"/>
+      <c r="AH220" s="47"/>
+      <c r="AI220" s="47"/>
+      <c r="AJ220" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK220" s="47"/>
+      <c r="AL220" s="47"/>
+      <c r="AM220" s="47"/>
+      <c r="AN220" s="47"/>
+      <c r="AO220" s="47"/>
+      <c r="AP220" s="47"/>
+      <c r="AQ220" s="47"/>
+      <c r="AR220" s="47"/>
+      <c r="AS220" s="47"/>
+      <c r="AT220" s="47"/>
+      <c r="AU220" s="47"/>
+      <c r="AV220" s="47"/>
+      <c r="AW220" s="47"/>
+      <c r="AX220" s="47"/>
+      <c r="AY220" s="47"/>
+      <c r="AZ220" s="47"/>
+      <c r="BA220" s="47"/>
+    </row>
+    <row r="221" spans="1:53">
+      <c r="A221" s="39"/>
+      <c r="B221" s="39"/>
+      <c r="C221" s="39"/>
+      <c r="D221" s="39"/>
+      <c r="E221" s="39"/>
+      <c r="F221" s="39"/>
+      <c r="G221" s="39"/>
+      <c r="H221" s="39"/>
+      <c r="I221" s="39"/>
+      <c r="J221" s="39"/>
+      <c r="K221" s="39"/>
+      <c r="L221" s="39"/>
+      <c r="M221" s="39"/>
+      <c r="N221" s="39"/>
+      <c r="O221" s="39"/>
+      <c r="P221" s="40"/>
+      <c r="Q221" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="R220" s="42"/>
-      <c r="S220" s="42"/>
-      <c r="T220" s="42"/>
-      <c r="U220" s="42"/>
-      <c r="V220" s="42"/>
-      <c r="W220" s="42"/>
-      <c r="X220" s="42"/>
-      <c r="Y220" s="42"/>
-      <c r="Z220" s="42"/>
-      <c r="AA220" s="42"/>
-      <c r="AB220" s="42"/>
-      <c r="AC220" s="42"/>
-      <c r="AD220" s="42"/>
-      <c r="AE220" s="42"/>
-      <c r="AF220" s="42"/>
-      <c r="AG220" s="42"/>
-      <c r="AH220" s="42"/>
-      <c r="AI220" s="42"/>
-      <c r="AJ220" s="42"/>
-      <c r="AK220" s="42"/>
-      <c r="AL220" s="42"/>
-      <c r="AM220" s="42"/>
-      <c r="AN220" s="42"/>
-      <c r="AO220" s="42"/>
-      <c r="AP220" s="42"/>
-      <c r="AQ220" s="42"/>
-      <c r="AR220" s="42"/>
-      <c r="AS220" s="42"/>
-      <c r="AT220" s="42"/>
-      <c r="AU220" s="42"/>
-      <c r="AV220" s="42"/>
-      <c r="AW220" s="42"/>
-      <c r="AX220" s="42"/>
-      <c r="AY220" s="42"/>
-      <c r="AZ220" s="42"/>
-      <c r="BA220" s="42"/>
-    </row>
-    <row r="221" spans="1:53">
-      <c r="A221" s="52" t="s">
+      <c r="R221" s="42"/>
+      <c r="S221" s="42"/>
+      <c r="T221" s="42"/>
+      <c r="U221" s="42"/>
+      <c r="V221" s="42"/>
+      <c r="W221" s="42"/>
+      <c r="X221" s="42"/>
+      <c r="Y221" s="42"/>
+      <c r="Z221" s="42"/>
+      <c r="AA221" s="42"/>
+      <c r="AB221" s="42"/>
+      <c r="AC221" s="42"/>
+      <c r="AD221" s="42"/>
+      <c r="AE221" s="42"/>
+      <c r="AF221" s="42"/>
+      <c r="AG221" s="42"/>
+      <c r="AH221" s="42"/>
+      <c r="AI221" s="42"/>
+      <c r="AJ221" s="42"/>
+      <c r="AK221" s="42"/>
+      <c r="AL221" s="42"/>
+      <c r="AM221" s="42"/>
+      <c r="AN221" s="42"/>
+      <c r="AO221" s="42"/>
+      <c r="AP221" s="42"/>
+      <c r="AQ221" s="42"/>
+      <c r="AR221" s="42"/>
+      <c r="AS221" s="42"/>
+      <c r="AT221" s="42"/>
+      <c r="AU221" s="42"/>
+      <c r="AV221" s="42"/>
+      <c r="AW221" s="42"/>
+      <c r="AX221" s="42"/>
+      <c r="AY221" s="42"/>
+      <c r="AZ221" s="42"/>
+      <c r="BA221" s="42"/>
+    </row>
+    <row r="222" spans="1:53">
+      <c r="A222" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B221" s="35"/>
-      <c r="C221" s="35"/>
-      <c r="D221" s="35"/>
-      <c r="E221" s="35"/>
-      <c r="F221" s="35"/>
-      <c r="G221" s="35"/>
-      <c r="H221" s="35"/>
-      <c r="I221" s="35"/>
-      <c r="J221" s="35"/>
-      <c r="K221" s="35"/>
-      <c r="L221" s="35"/>
-      <c r="M221" s="35"/>
-      <c r="N221" s="35"/>
-      <c r="O221" s="35"/>
-      <c r="P221" s="36"/>
-      <c r="Q221" s="45" t="s">
+      <c r="B222" s="35"/>
+      <c r="C222" s="35"/>
+      <c r="D222" s="35"/>
+      <c r="E222" s="35"/>
+      <c r="F222" s="35"/>
+      <c r="G222" s="35"/>
+      <c r="H222" s="35"/>
+      <c r="I222" s="35"/>
+      <c r="J222" s="35"/>
+      <c r="K222" s="35"/>
+      <c r="L222" s="35"/>
+      <c r="M222" s="35"/>
+      <c r="N222" s="35"/>
+      <c r="O222" s="35"/>
+      <c r="P222" s="36"/>
+      <c r="Q222" s="45" t="s">
         <v>97</v>
-      </c>
-      <c r="R221" s="45"/>
-      <c r="S221" s="45"/>
-      <c r="T221" s="45"/>
-      <c r="U221" s="45"/>
-      <c r="V221" s="45"/>
-      <c r="W221" s="45"/>
-      <c r="X221" s="45"/>
-      <c r="Y221" s="45"/>
-      <c r="Z221" s="45"/>
-      <c r="AA221" s="45"/>
-      <c r="AB221" s="45"/>
-      <c r="AC221" s="45"/>
-      <c r="AD221" s="45"/>
-      <c r="AE221" s="45"/>
-      <c r="AF221" s="45"/>
-      <c r="AG221" s="45"/>
-      <c r="AH221" s="45"/>
-      <c r="AI221" s="45"/>
-      <c r="AJ221" s="45"/>
-      <c r="AK221" s="45"/>
-      <c r="AL221" s="45"/>
-      <c r="AM221" s="45"/>
-      <c r="AN221" s="45"/>
-      <c r="AO221" s="45"/>
-      <c r="AP221" s="45"/>
-      <c r="AQ221" s="45"/>
-      <c r="AR221" s="45"/>
-      <c r="AS221" s="45"/>
-      <c r="AT221" s="45"/>
-      <c r="AU221" s="45"/>
-      <c r="AV221" s="45"/>
-      <c r="AW221" s="45"/>
-      <c r="AX221" s="45"/>
-      <c r="AY221" s="45"/>
-      <c r="AZ221" s="45"/>
-      <c r="BA221" s="45"/>
-    </row>
-    <row r="222" spans="1:53">
-      <c r="A222" s="43"/>
-      <c r="B222" s="43"/>
-      <c r="C222" s="43"/>
-      <c r="D222" s="43"/>
-      <c r="E222" s="43"/>
-      <c r="F222" s="43"/>
-      <c r="G222" s="43"/>
-      <c r="H222" s="43"/>
-      <c r="I222" s="43"/>
-      <c r="J222" s="43"/>
-      <c r="K222" s="43"/>
-      <c r="L222" s="43"/>
-      <c r="M222" s="43"/>
-      <c r="N222" s="43"/>
-      <c r="O222" s="43"/>
-      <c r="P222" s="44"/>
-      <c r="Q222" s="45" t="s">
-        <v>81</v>
       </c>
       <c r="R222" s="45"/>
       <c r="S222" s="45"/>
@@ -17141,7 +17149,7 @@
       <c r="O223" s="43"/>
       <c r="P223" s="44"/>
       <c r="Q223" s="45" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="R223" s="45"/>
       <c r="S223" s="45"/>
@@ -17198,7 +17206,7 @@
       <c r="O224" s="43"/>
       <c r="P224" s="44"/>
       <c r="Q224" s="45" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="R224" s="45"/>
       <c r="S224" s="45"/>
@@ -17255,7 +17263,7 @@
       <c r="O225" s="43"/>
       <c r="P225" s="44"/>
       <c r="Q225" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R225" s="45"/>
       <c r="S225" s="45"/>
@@ -17312,7 +17320,7 @@
       <c r="O226" s="43"/>
       <c r="P226" s="44"/>
       <c r="Q226" s="45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R226" s="45"/>
       <c r="S226" s="45"/>
@@ -17351,7 +17359,7 @@
       <c r="AZ226" s="45"/>
       <c r="BA226" s="45"/>
     </row>
-    <row r="227" spans="1:53" ht="6.75" customHeight="1">
+    <row r="227" spans="1:53">
       <c r="A227" s="43"/>
       <c r="B227" s="43"/>
       <c r="C227" s="43"/>
@@ -17368,7 +17376,9 @@
       <c r="N227" s="43"/>
       <c r="O227" s="43"/>
       <c r="P227" s="44"/>
-      <c r="Q227" s="45"/>
+      <c r="Q227" s="45" t="s">
+        <v>110</v>
+      </c>
       <c r="R227" s="45"/>
       <c r="S227" s="45"/>
       <c r="T227" s="45"/>
@@ -17406,23 +17416,23 @@
       <c r="AZ227" s="45"/>
       <c r="BA227" s="45"/>
     </row>
-    <row r="228" spans="1:53" ht="0.75" hidden="1" customHeight="1">
-      <c r="A228" s="39"/>
-      <c r="B228" s="39"/>
-      <c r="C228" s="39"/>
-      <c r="D228" s="39"/>
-      <c r="E228" s="39"/>
-      <c r="F228" s="39"/>
-      <c r="G228" s="39"/>
-      <c r="H228" s="39"/>
-      <c r="I228" s="39"/>
-      <c r="J228" s="39"/>
-      <c r="K228" s="39"/>
-      <c r="L228" s="39"/>
-      <c r="M228" s="39"/>
-      <c r="N228" s="39"/>
-      <c r="O228" s="39"/>
-      <c r="P228" s="40"/>
+    <row r="228" spans="1:53" ht="6.75" customHeight="1">
+      <c r="A228" s="43"/>
+      <c r="B228" s="43"/>
+      <c r="C228" s="43"/>
+      <c r="D228" s="43"/>
+      <c r="E228" s="43"/>
+      <c r="F228" s="43"/>
+      <c r="G228" s="43"/>
+      <c r="H228" s="43"/>
+      <c r="I228" s="43"/>
+      <c r="J228" s="43"/>
+      <c r="K228" s="43"/>
+      <c r="L228" s="43"/>
+      <c r="M228" s="43"/>
+      <c r="N228" s="43"/>
+      <c r="O228" s="43"/>
+      <c r="P228" s="44"/>
       <c r="Q228" s="45"/>
       <c r="R228" s="45"/>
       <c r="S228" s="45"/>
@@ -17461,121 +17471,119 @@
       <c r="AZ228" s="45"/>
       <c r="BA228" s="45"/>
     </row>
-    <row r="229" spans="1:53">
-      <c r="A229" s="52" t="s">
+    <row r="229" spans="1:53" ht="0.75" hidden="1" customHeight="1">
+      <c r="A229" s="39"/>
+      <c r="B229" s="39"/>
+      <c r="C229" s="39"/>
+      <c r="D229" s="39"/>
+      <c r="E229" s="39"/>
+      <c r="F229" s="39"/>
+      <c r="G229" s="39"/>
+      <c r="H229" s="39"/>
+      <c r="I229" s="39"/>
+      <c r="J229" s="39"/>
+      <c r="K229" s="39"/>
+      <c r="L229" s="39"/>
+      <c r="M229" s="39"/>
+      <c r="N229" s="39"/>
+      <c r="O229" s="39"/>
+      <c r="P229" s="40"/>
+      <c r="Q229" s="45"/>
+      <c r="R229" s="45"/>
+      <c r="S229" s="45"/>
+      <c r="T229" s="45"/>
+      <c r="U229" s="45"/>
+      <c r="V229" s="45"/>
+      <c r="W229" s="45"/>
+      <c r="X229" s="45"/>
+      <c r="Y229" s="45"/>
+      <c r="Z229" s="45"/>
+      <c r="AA229" s="45"/>
+      <c r="AB229" s="45"/>
+      <c r="AC229" s="45"/>
+      <c r="AD229" s="45"/>
+      <c r="AE229" s="45"/>
+      <c r="AF229" s="45"/>
+      <c r="AG229" s="45"/>
+      <c r="AH229" s="45"/>
+      <c r="AI229" s="45"/>
+      <c r="AJ229" s="45"/>
+      <c r="AK229" s="45"/>
+      <c r="AL229" s="45"/>
+      <c r="AM229" s="45"/>
+      <c r="AN229" s="45"/>
+      <c r="AO229" s="45"/>
+      <c r="AP229" s="45"/>
+      <c r="AQ229" s="45"/>
+      <c r="AR229" s="45"/>
+      <c r="AS229" s="45"/>
+      <c r="AT229" s="45"/>
+      <c r="AU229" s="45"/>
+      <c r="AV229" s="45"/>
+      <c r="AW229" s="45"/>
+      <c r="AX229" s="45"/>
+      <c r="AY229" s="45"/>
+      <c r="AZ229" s="45"/>
+      <c r="BA229" s="45"/>
+    </row>
+    <row r="230" spans="1:53">
+      <c r="A230" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="B229" s="35"/>
-      <c r="C229" s="35"/>
-      <c r="D229" s="35"/>
-      <c r="E229" s="35"/>
-      <c r="F229" s="35"/>
-      <c r="G229" s="35"/>
-      <c r="H229" s="35"/>
-      <c r="I229" s="35"/>
-      <c r="J229" s="35"/>
-      <c r="K229" s="35"/>
-      <c r="L229" s="35"/>
-      <c r="M229" s="35"/>
-      <c r="N229" s="35"/>
-      <c r="O229" s="35"/>
-      <c r="P229" s="36"/>
-      <c r="Q229" s="37" t="s">
+      <c r="B230" s="35"/>
+      <c r="C230" s="35"/>
+      <c r="D230" s="35"/>
+      <c r="E230" s="35"/>
+      <c r="F230" s="35"/>
+      <c r="G230" s="35"/>
+      <c r="H230" s="35"/>
+      <c r="I230" s="35"/>
+      <c r="J230" s="35"/>
+      <c r="K230" s="35"/>
+      <c r="L230" s="35"/>
+      <c r="M230" s="35"/>
+      <c r="N230" s="35"/>
+      <c r="O230" s="35"/>
+      <c r="P230" s="36"/>
+      <c r="Q230" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="R229" s="38"/>
-      <c r="S229" s="38"/>
-      <c r="T229" s="38"/>
-      <c r="U229" s="38"/>
-      <c r="V229" s="38"/>
-      <c r="W229" s="38"/>
-      <c r="X229" s="38"/>
-      <c r="Y229" s="38"/>
-      <c r="Z229" s="38"/>
-      <c r="AA229" s="38"/>
-      <c r="AB229" s="38"/>
-      <c r="AC229" s="38"/>
-      <c r="AD229" s="38"/>
-      <c r="AE229" s="38"/>
-      <c r="AF229" s="38"/>
-      <c r="AG229" s="38"/>
-      <c r="AH229" s="38"/>
-      <c r="AI229" s="38"/>
-      <c r="AJ229" s="38"/>
-      <c r="AK229" s="38"/>
-      <c r="AL229" s="38"/>
-      <c r="AM229" s="38"/>
-      <c r="AN229" s="38"/>
-      <c r="AO229" s="38"/>
-      <c r="AP229" s="38"/>
-      <c r="AQ229" s="38"/>
-      <c r="AR229" s="38"/>
-      <c r="AS229" s="38"/>
-      <c r="AT229" s="38"/>
-      <c r="AU229" s="38"/>
-      <c r="AV229" s="38"/>
-      <c r="AW229" s="38"/>
-      <c r="AX229" s="38"/>
-      <c r="AY229" s="38"/>
-      <c r="AZ229" s="38"/>
-      <c r="BA229" s="38"/>
-    </row>
-    <row r="230" spans="1:53">
-      <c r="A230" s="43"/>
-      <c r="B230" s="43"/>
-      <c r="C230" s="43"/>
-      <c r="D230" s="43"/>
-      <c r="E230" s="43"/>
-      <c r="F230" s="43"/>
-      <c r="G230" s="43"/>
-      <c r="H230" s="43"/>
-      <c r="I230" s="43"/>
-      <c r="J230" s="43"/>
-      <c r="K230" s="43"/>
-      <c r="L230" s="43"/>
-      <c r="M230" s="43"/>
-      <c r="N230" s="43"/>
-      <c r="O230" s="43"/>
-      <c r="P230" s="44"/>
-      <c r="Q230" s="46"/>
-      <c r="R230" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="S230" s="47"/>
-      <c r="T230" s="47"/>
-      <c r="U230" s="47"/>
-      <c r="V230" s="47"/>
-      <c r="W230" s="47"/>
-      <c r="X230" s="47"/>
-      <c r="Y230" s="47"/>
-      <c r="Z230" s="47"/>
-      <c r="AA230" s="47"/>
-      <c r="AB230" s="47"/>
-      <c r="AC230" s="47"/>
-      <c r="AD230" s="47"/>
-      <c r="AE230" s="47"/>
-      <c r="AF230" s="47"/>
-      <c r="AG230" s="47"/>
-      <c r="AH230" s="47"/>
-      <c r="AI230" s="47"/>
-      <c r="AJ230" s="47"/>
-      <c r="AK230" s="47"/>
-      <c r="AL230" s="47"/>
-      <c r="AM230" s="47"/>
-      <c r="AN230" s="47"/>
-      <c r="AO230" s="47"/>
-      <c r="AP230" s="47"/>
-      <c r="AQ230" s="47"/>
-      <c r="AR230" s="47"/>
-      <c r="AS230" s="47"/>
-      <c r="AT230" s="47"/>
-      <c r="AU230" s="47"/>
-      <c r="AV230" s="47"/>
-      <c r="AW230" s="47"/>
-      <c r="AX230" s="47"/>
-      <c r="AY230" s="47"/>
-      <c r="AZ230" s="47"/>
-      <c r="BA230" s="47"/>
+      <c r="R230" s="38"/>
+      <c r="S230" s="38"/>
+      <c r="T230" s="38"/>
+      <c r="U230" s="38"/>
+      <c r="V230" s="38"/>
+      <c r="W230" s="38"/>
+      <c r="X230" s="38"/>
+      <c r="Y230" s="38"/>
+      <c r="Z230" s="38"/>
+      <c r="AA230" s="38"/>
+      <c r="AB230" s="38"/>
+      <c r="AC230" s="38"/>
+      <c r="AD230" s="38"/>
+      <c r="AE230" s="38"/>
+      <c r="AF230" s="38"/>
+      <c r="AG230" s="38"/>
+      <c r="AH230" s="38"/>
+      <c r="AI230" s="38"/>
+      <c r="AJ230" s="38"/>
+      <c r="AK230" s="38"/>
+      <c r="AL230" s="38"/>
+      <c r="AM230" s="38"/>
+      <c r="AN230" s="38"/>
+      <c r="AO230" s="38"/>
+      <c r="AP230" s="38"/>
+      <c r="AQ230" s="38"/>
+      <c r="AR230" s="38"/>
+      <c r="AS230" s="38"/>
+      <c r="AT230" s="38"/>
+      <c r="AU230" s="38"/>
+      <c r="AV230" s="38"/>
+      <c r="AW230" s="38"/>
+      <c r="AX230" s="38"/>
+      <c r="AY230" s="38"/>
+      <c r="AZ230" s="38"/>
+      <c r="BA230" s="38"/>
     </row>
     <row r="231" spans="1:53">
       <c r="A231" s="43"/>
@@ -17596,7 +17604,7 @@
       <c r="P231" s="44"/>
       <c r="Q231" s="46"/>
       <c r="R231" s="47" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="S231" s="47"/>
       <c r="T231" s="47"/>
@@ -17651,10 +17659,10 @@
       <c r="N232" s="43"/>
       <c r="O232" s="43"/>
       <c r="P232" s="44"/>
-      <c r="Q232" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="R232" s="47"/>
+      <c r="Q232" s="46"/>
+      <c r="R232" s="47" t="s">
+        <v>88</v>
+      </c>
       <c r="S232" s="47"/>
       <c r="T232" s="47"/>
       <c r="U232" s="47"/>
@@ -17709,11 +17717,9 @@
       <c r="O233" s="43"/>
       <c r="P233" s="44"/>
       <c r="Q233" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="R233" s="47" t="s">
-        <v>104</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="R233" s="47"/>
       <c r="S233" s="47"/>
       <c r="T233" s="47"/>
       <c r="U233" s="47"/>
@@ -17751,139 +17757,143 @@
       <c r="BA233" s="47"/>
     </row>
     <row r="234" spans="1:53">
-      <c r="A234" s="39"/>
-      <c r="B234" s="39"/>
-      <c r="C234" s="39"/>
-      <c r="D234" s="39"/>
-      <c r="E234" s="39"/>
-      <c r="F234" s="39"/>
-      <c r="G234" s="39"/>
-      <c r="H234" s="39"/>
-      <c r="I234" s="39"/>
-      <c r="J234" s="39"/>
-      <c r="K234" s="39"/>
-      <c r="L234" s="39"/>
-      <c r="M234" s="39"/>
-      <c r="N234" s="39"/>
-      <c r="O234" s="39"/>
-      <c r="P234" s="40"/>
-      <c r="Q234" s="41"/>
-      <c r="R234" s="42" t="s">
+      <c r="A234" s="43"/>
+      <c r="B234" s="43"/>
+      <c r="C234" s="43"/>
+      <c r="D234" s="43"/>
+      <c r="E234" s="43"/>
+      <c r="F234" s="43"/>
+      <c r="G234" s="43"/>
+      <c r="H234" s="43"/>
+      <c r="I234" s="43"/>
+      <c r="J234" s="43"/>
+      <c r="K234" s="43"/>
+      <c r="L234" s="43"/>
+      <c r="M234" s="43"/>
+      <c r="N234" s="43"/>
+      <c r="O234" s="43"/>
+      <c r="P234" s="44"/>
+      <c r="Q234" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="R234" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="S234" s="47"/>
+      <c r="T234" s="47"/>
+      <c r="U234" s="47"/>
+      <c r="V234" s="47"/>
+      <c r="W234" s="47"/>
+      <c r="X234" s="47"/>
+      <c r="Y234" s="47"/>
+      <c r="Z234" s="47"/>
+      <c r="AA234" s="47"/>
+      <c r="AB234" s="47"/>
+      <c r="AC234" s="47"/>
+      <c r="AD234" s="47"/>
+      <c r="AE234" s="47"/>
+      <c r="AF234" s="47"/>
+      <c r="AG234" s="47"/>
+      <c r="AH234" s="47"/>
+      <c r="AI234" s="47"/>
+      <c r="AJ234" s="47"/>
+      <c r="AK234" s="47"/>
+      <c r="AL234" s="47"/>
+      <c r="AM234" s="47"/>
+      <c r="AN234" s="47"/>
+      <c r="AO234" s="47"/>
+      <c r="AP234" s="47"/>
+      <c r="AQ234" s="47"/>
+      <c r="AR234" s="47"/>
+      <c r="AS234" s="47"/>
+      <c r="AT234" s="47"/>
+      <c r="AU234" s="47"/>
+      <c r="AV234" s="47"/>
+      <c r="AW234" s="47"/>
+      <c r="AX234" s="47"/>
+      <c r="AY234" s="47"/>
+      <c r="AZ234" s="47"/>
+      <c r="BA234" s="47"/>
+    </row>
+    <row r="235" spans="1:53">
+      <c r="A235" s="39"/>
+      <c r="B235" s="39"/>
+      <c r="C235" s="39"/>
+      <c r="D235" s="39"/>
+      <c r="E235" s="39"/>
+      <c r="F235" s="39"/>
+      <c r="G235" s="39"/>
+      <c r="H235" s="39"/>
+      <c r="I235" s="39"/>
+      <c r="J235" s="39"/>
+      <c r="K235" s="39"/>
+      <c r="L235" s="39"/>
+      <c r="M235" s="39"/>
+      <c r="N235" s="39"/>
+      <c r="O235" s="39"/>
+      <c r="P235" s="40"/>
+      <c r="Q235" s="41"/>
+      <c r="R235" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="S234" s="42"/>
-      <c r="T234" s="42"/>
-      <c r="U234" s="42"/>
-      <c r="V234" s="42"/>
-      <c r="W234" s="42"/>
-      <c r="X234" s="42"/>
-      <c r="Y234" s="42"/>
-      <c r="Z234" s="42"/>
-      <c r="AA234" s="42"/>
-      <c r="AB234" s="42"/>
-      <c r="AC234" s="42"/>
-      <c r="AD234" s="42"/>
-      <c r="AE234" s="42"/>
-      <c r="AF234" s="42"/>
-      <c r="AG234" s="42"/>
-      <c r="AH234" s="42"/>
-      <c r="AI234" s="42"/>
-      <c r="AJ234" s="42"/>
-      <c r="AK234" s="42"/>
-      <c r="AL234" s="42"/>
-      <c r="AM234" s="42"/>
-      <c r="AN234" s="42"/>
-      <c r="AO234" s="42"/>
-      <c r="AP234" s="42"/>
-      <c r="AQ234" s="42"/>
-      <c r="AR234" s="42"/>
-      <c r="AS234" s="42"/>
-      <c r="AT234" s="42"/>
-      <c r="AU234" s="42"/>
-      <c r="AV234" s="42"/>
-      <c r="AW234" s="42"/>
-      <c r="AX234" s="42"/>
-      <c r="AY234" s="42"/>
-      <c r="AZ234" s="42"/>
-      <c r="BA234" s="42"/>
-    </row>
-    <row r="235" spans="1:53">
-      <c r="A235" s="52" t="s">
+      <c r="S235" s="42"/>
+      <c r="T235" s="42"/>
+      <c r="U235" s="42"/>
+      <c r="V235" s="42"/>
+      <c r="W235" s="42"/>
+      <c r="X235" s="42"/>
+      <c r="Y235" s="42"/>
+      <c r="Z235" s="42"/>
+      <c r="AA235" s="42"/>
+      <c r="AB235" s="42"/>
+      <c r="AC235" s="42"/>
+      <c r="AD235" s="42"/>
+      <c r="AE235" s="42"/>
+      <c r="AF235" s="42"/>
+      <c r="AG235" s="42"/>
+      <c r="AH235" s="42"/>
+      <c r="AI235" s="42"/>
+      <c r="AJ235" s="42"/>
+      <c r="AK235" s="42"/>
+      <c r="AL235" s="42"/>
+      <c r="AM235" s="42"/>
+      <c r="AN235" s="42"/>
+      <c r="AO235" s="42"/>
+      <c r="AP235" s="42"/>
+      <c r="AQ235" s="42"/>
+      <c r="AR235" s="42"/>
+      <c r="AS235" s="42"/>
+      <c r="AT235" s="42"/>
+      <c r="AU235" s="42"/>
+      <c r="AV235" s="42"/>
+      <c r="AW235" s="42"/>
+      <c r="AX235" s="42"/>
+      <c r="AY235" s="42"/>
+      <c r="AZ235" s="42"/>
+      <c r="BA235" s="42"/>
+    </row>
+    <row r="236" spans="1:53">
+      <c r="A236" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="B235" s="35"/>
-      <c r="C235" s="35"/>
-      <c r="D235" s="35"/>
-      <c r="E235" s="35"/>
-      <c r="F235" s="35"/>
-      <c r="G235" s="35"/>
-      <c r="H235" s="35"/>
-      <c r="I235" s="35"/>
-      <c r="J235" s="35"/>
-      <c r="K235" s="35"/>
-      <c r="L235" s="35"/>
-      <c r="M235" s="35"/>
-      <c r="N235" s="35"/>
-      <c r="O235" s="35"/>
-      <c r="P235" s="36"/>
-      <c r="Q235" s="45" t="s">
+      <c r="B236" s="35"/>
+      <c r="C236" s="35"/>
+      <c r="D236" s="35"/>
+      <c r="E236" s="35"/>
+      <c r="F236" s="35"/>
+      <c r="G236" s="35"/>
+      <c r="H236" s="35"/>
+      <c r="I236" s="35"/>
+      <c r="J236" s="35"/>
+      <c r="K236" s="35"/>
+      <c r="L236" s="35"/>
+      <c r="M236" s="35"/>
+      <c r="N236" s="35"/>
+      <c r="O236" s="35"/>
+      <c r="P236" s="36"/>
+      <c r="Q236" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="R235" s="45"/>
-      <c r="S235" s="45"/>
-      <c r="T235" s="45"/>
-      <c r="U235" s="45"/>
-      <c r="V235" s="45"/>
-      <c r="W235" s="45"/>
-      <c r="X235" s="45"/>
-      <c r="Y235" s="45"/>
-      <c r="Z235" s="45"/>
-      <c r="AA235" s="45"/>
-      <c r="AB235" s="45"/>
-      <c r="AC235" s="45"/>
-      <c r="AD235" s="45"/>
-      <c r="AE235" s="45"/>
-      <c r="AF235" s="45"/>
-      <c r="AG235" s="45"/>
-      <c r="AH235" s="45"/>
-      <c r="AI235" s="45"/>
-      <c r="AJ235" s="45"/>
-      <c r="AK235" s="45"/>
-      <c r="AL235" s="45"/>
-      <c r="AM235" s="45"/>
-      <c r="AN235" s="45"/>
-      <c r="AO235" s="45"/>
-      <c r="AP235" s="45"/>
-      <c r="AQ235" s="45"/>
-      <c r="AR235" s="45"/>
-      <c r="AS235" s="45"/>
-      <c r="AT235" s="45"/>
-      <c r="AU235" s="45"/>
-      <c r="AV235" s="45"/>
-      <c r="AW235" s="45"/>
-      <c r="AX235" s="45"/>
-      <c r="AY235" s="45"/>
-      <c r="AZ235" s="45"/>
-      <c r="BA235" s="45"/>
-    </row>
-    <row r="236" spans="1:53" ht="5.25" customHeight="1">
-      <c r="A236" s="43"/>
-      <c r="B236" s="43"/>
-      <c r="C236" s="43"/>
-      <c r="D236" s="43"/>
-      <c r="E236" s="43"/>
-      <c r="F236" s="43"/>
-      <c r="G236" s="43"/>
-      <c r="H236" s="43"/>
-      <c r="I236" s="43"/>
-      <c r="J236" s="43"/>
-      <c r="K236" s="43"/>
-      <c r="L236" s="43"/>
-      <c r="M236" s="43"/>
-      <c r="N236" s="43"/>
-      <c r="O236" s="43"/>
-      <c r="P236" s="44"/>
-      <c r="Q236" s="45"/>
       <c r="R236" s="45"/>
       <c r="S236" s="45"/>
       <c r="T236" s="45"/>
@@ -17921,23 +17931,23 @@
       <c r="AZ236" s="45"/>
       <c r="BA236" s="45"/>
     </row>
-    <row r="237" spans="1:53" hidden="1">
-      <c r="A237" s="39"/>
-      <c r="B237" s="39"/>
-      <c r="C237" s="39"/>
-      <c r="D237" s="39"/>
-      <c r="E237" s="39"/>
-      <c r="F237" s="39"/>
-      <c r="G237" s="39"/>
-      <c r="H237" s="39"/>
-      <c r="I237" s="39"/>
-      <c r="J237" s="39"/>
-      <c r="K237" s="39"/>
-      <c r="L237" s="39"/>
-      <c r="M237" s="39"/>
-      <c r="N237" s="39"/>
-      <c r="O237" s="39"/>
-      <c r="P237" s="40"/>
+    <row r="237" spans="1:53" ht="5.25" customHeight="1">
+      <c r="A237" s="43"/>
+      <c r="B237" s="43"/>
+      <c r="C237" s="43"/>
+      <c r="D237" s="43"/>
+      <c r="E237" s="43"/>
+      <c r="F237" s="43"/>
+      <c r="G237" s="43"/>
+      <c r="H237" s="43"/>
+      <c r="I237" s="43"/>
+      <c r="J237" s="43"/>
+      <c r="K237" s="43"/>
+      <c r="L237" s="43"/>
+      <c r="M237" s="43"/>
+      <c r="N237" s="43"/>
+      <c r="O237" s="43"/>
+      <c r="P237" s="44"/>
       <c r="Q237" s="45"/>
       <c r="R237" s="45"/>
       <c r="S237" s="45"/>
@@ -17976,539 +17986,540 @@
       <c r="AZ237" s="45"/>
       <c r="BA237" s="45"/>
     </row>
-    <row r="238" spans="1:53">
-      <c r="A238" s="52" t="s">
+    <row r="238" spans="1:53" hidden="1">
+      <c r="A238" s="39"/>
+      <c r="B238" s="39"/>
+      <c r="C238" s="39"/>
+      <c r="D238" s="39"/>
+      <c r="E238" s="39"/>
+      <c r="F238" s="39"/>
+      <c r="G238" s="39"/>
+      <c r="H238" s="39"/>
+      <c r="I238" s="39"/>
+      <c r="J238" s="39"/>
+      <c r="K238" s="39"/>
+      <c r="L238" s="39"/>
+      <c r="M238" s="39"/>
+      <c r="N238" s="39"/>
+      <c r="O238" s="39"/>
+      <c r="P238" s="40"/>
+      <c r="Q238" s="45"/>
+      <c r="R238" s="45"/>
+      <c r="S238" s="45"/>
+      <c r="T238" s="45"/>
+      <c r="U238" s="45"/>
+      <c r="V238" s="45"/>
+      <c r="W238" s="45"/>
+      <c r="X238" s="45"/>
+      <c r="Y238" s="45"/>
+      <c r="Z238" s="45"/>
+      <c r="AA238" s="45"/>
+      <c r="AB238" s="45"/>
+      <c r="AC238" s="45"/>
+      <c r="AD238" s="45"/>
+      <c r="AE238" s="45"/>
+      <c r="AF238" s="45"/>
+      <c r="AG238" s="45"/>
+      <c r="AH238" s="45"/>
+      <c r="AI238" s="45"/>
+      <c r="AJ238" s="45"/>
+      <c r="AK238" s="45"/>
+      <c r="AL238" s="45"/>
+      <c r="AM238" s="45"/>
+      <c r="AN238" s="45"/>
+      <c r="AO238" s="45"/>
+      <c r="AP238" s="45"/>
+      <c r="AQ238" s="45"/>
+      <c r="AR238" s="45"/>
+      <c r="AS238" s="45"/>
+      <c r="AT238" s="45"/>
+      <c r="AU238" s="45"/>
+      <c r="AV238" s="45"/>
+      <c r="AW238" s="45"/>
+      <c r="AX238" s="45"/>
+      <c r="AY238" s="45"/>
+      <c r="AZ238" s="45"/>
+      <c r="BA238" s="45"/>
+    </row>
+    <row r="239" spans="1:53">
+      <c r="A239" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="B238" s="35"/>
-      <c r="C238" s="35"/>
-      <c r="D238" s="35"/>
-      <c r="E238" s="35"/>
-      <c r="F238" s="35"/>
-      <c r="G238" s="35"/>
-      <c r="H238" s="35"/>
-      <c r="I238" s="35"/>
-      <c r="J238" s="35"/>
-      <c r="K238" s="35"/>
-      <c r="L238" s="35"/>
-      <c r="M238" s="35"/>
-      <c r="N238" s="35"/>
-      <c r="O238" s="35"/>
-      <c r="P238" s="36"/>
-      <c r="Q238" s="37" t="s">
+      <c r="B239" s="35"/>
+      <c r="C239" s="35"/>
+      <c r="D239" s="35"/>
+      <c r="E239" s="35"/>
+      <c r="F239" s="35"/>
+      <c r="G239" s="35"/>
+      <c r="H239" s="35"/>
+      <c r="I239" s="35"/>
+      <c r="J239" s="35"/>
+      <c r="K239" s="35"/>
+      <c r="L239" s="35"/>
+      <c r="M239" s="35"/>
+      <c r="N239" s="35"/>
+      <c r="O239" s="35"/>
+      <c r="P239" s="36"/>
+      <c r="Q239" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="R238" s="38"/>
-      <c r="S238" s="38"/>
-      <c r="T238" s="38"/>
-      <c r="U238" s="38"/>
-      <c r="V238" s="38"/>
-      <c r="W238" s="38"/>
-      <c r="X238" s="38"/>
-      <c r="Y238" s="38"/>
-      <c r="Z238" s="38"/>
-      <c r="AA238" s="38"/>
-      <c r="AB238" s="38"/>
-      <c r="AC238" s="38"/>
-      <c r="AD238" s="38"/>
-      <c r="AE238" s="38"/>
-      <c r="AF238" s="38"/>
-      <c r="AG238" s="38"/>
-      <c r="AH238" s="38"/>
-      <c r="AI238" s="38"/>
-      <c r="AJ238" s="38"/>
-      <c r="AK238" s="38"/>
-      <c r="AL238" s="38"/>
-      <c r="AM238" s="38"/>
-      <c r="AN238" s="38"/>
-      <c r="AO238" s="38"/>
-      <c r="AP238" s="38"/>
-      <c r="AQ238" s="38"/>
-      <c r="AR238" s="38"/>
-      <c r="AS238" s="38"/>
-      <c r="AT238" s="38"/>
-      <c r="AU238" s="38"/>
-      <c r="AV238" s="38"/>
-      <c r="AW238" s="38"/>
-      <c r="AX238" s="38"/>
-      <c r="AY238" s="38"/>
-      <c r="AZ238" s="38"/>
-      <c r="BA238" s="38"/>
-    </row>
-    <row r="239" spans="1:53">
-      <c r="A239" s="43"/>
-      <c r="B239" s="43"/>
-      <c r="C239" s="43"/>
-      <c r="D239" s="43"/>
-      <c r="E239" s="43"/>
-      <c r="F239" s="43"/>
-      <c r="G239" s="43"/>
-      <c r="H239" s="43"/>
-      <c r="I239" s="43"/>
-      <c r="J239" s="43"/>
-      <c r="K239" s="43"/>
-      <c r="L239" s="43"/>
-      <c r="M239" s="43"/>
-      <c r="N239" s="43"/>
-      <c r="O239" s="43"/>
-      <c r="P239" s="44"/>
-      <c r="Q239" s="46" t="s">
+      <c r="R239" s="38"/>
+      <c r="S239" s="38"/>
+      <c r="T239" s="38"/>
+      <c r="U239" s="38"/>
+      <c r="V239" s="38"/>
+      <c r="W239" s="38"/>
+      <c r="X239" s="38"/>
+      <c r="Y239" s="38"/>
+      <c r="Z239" s="38"/>
+      <c r="AA239" s="38"/>
+      <c r="AB239" s="38"/>
+      <c r="AC239" s="38"/>
+      <c r="AD239" s="38"/>
+      <c r="AE239" s="38"/>
+      <c r="AF239" s="38"/>
+      <c r="AG239" s="38"/>
+      <c r="AH239" s="38"/>
+      <c r="AI239" s="38"/>
+      <c r="AJ239" s="38"/>
+      <c r="AK239" s="38"/>
+      <c r="AL239" s="38"/>
+      <c r="AM239" s="38"/>
+      <c r="AN239" s="38"/>
+      <c r="AO239" s="38"/>
+      <c r="AP239" s="38"/>
+      <c r="AQ239" s="38"/>
+      <c r="AR239" s="38"/>
+      <c r="AS239" s="38"/>
+      <c r="AT239" s="38"/>
+      <c r="AU239" s="38"/>
+      <c r="AV239" s="38"/>
+      <c r="AW239" s="38"/>
+      <c r="AX239" s="38"/>
+      <c r="AY239" s="38"/>
+      <c r="AZ239" s="38"/>
+      <c r="BA239" s="38"/>
+    </row>
+    <row r="240" spans="1:53">
+      <c r="A240" s="43"/>
+      <c r="B240" s="43"/>
+      <c r="C240" s="43"/>
+      <c r="D240" s="43"/>
+      <c r="E240" s="43"/>
+      <c r="F240" s="43"/>
+      <c r="G240" s="43"/>
+      <c r="H240" s="43"/>
+      <c r="I240" s="43"/>
+      <c r="J240" s="43"/>
+      <c r="K240" s="43"/>
+      <c r="L240" s="43"/>
+      <c r="M240" s="43"/>
+      <c r="N240" s="43"/>
+      <c r="O240" s="43"/>
+      <c r="P240" s="44"/>
+      <c r="Q240" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="R239" s="47"/>
-      <c r="S239" s="47"/>
-      <c r="T239" s="47"/>
-      <c r="U239" s="47"/>
-      <c r="V239" s="47"/>
-      <c r="W239" s="47"/>
-      <c r="X239" s="47"/>
-      <c r="Y239" s="47"/>
-      <c r="Z239" s="47"/>
-      <c r="AA239" s="47"/>
-      <c r="AB239" s="47"/>
-      <c r="AC239" s="47"/>
-      <c r="AD239" s="47"/>
-      <c r="AE239" s="47"/>
-      <c r="AF239" s="47"/>
-      <c r="AG239" s="47"/>
-      <c r="AH239" s="47"/>
-      <c r="AI239" s="47"/>
-      <c r="AJ239" s="47"/>
-      <c r="AK239" s="47"/>
-      <c r="AL239" s="47"/>
-      <c r="AM239" s="47"/>
-      <c r="AN239" s="47"/>
-      <c r="AO239" s="47"/>
-      <c r="AP239" s="47"/>
-      <c r="AQ239" s="47"/>
-      <c r="AR239" s="47"/>
-      <c r="AS239" s="47"/>
-      <c r="AT239" s="47"/>
-      <c r="AU239" s="47"/>
-      <c r="AV239" s="47"/>
-      <c r="AW239" s="47"/>
-      <c r="AX239" s="47"/>
-      <c r="AY239" s="47"/>
-      <c r="AZ239" s="47"/>
-      <c r="BA239" s="47"/>
-    </row>
-    <row r="240" spans="1:53">
-      <c r="A240" s="39"/>
-      <c r="B240" s="39"/>
-      <c r="C240" s="39"/>
-      <c r="D240" s="39"/>
-      <c r="E240" s="39"/>
-      <c r="F240" s="39"/>
-      <c r="G240" s="39"/>
-      <c r="H240" s="39"/>
-      <c r="I240" s="39"/>
-      <c r="J240" s="39"/>
-      <c r="K240" s="39"/>
-      <c r="L240" s="39"/>
-      <c r="M240" s="39"/>
-      <c r="N240" s="39"/>
-      <c r="O240" s="39"/>
-      <c r="P240" s="40"/>
-      <c r="Q240" s="41" t="s">
+      <c r="R240" s="47"/>
+      <c r="S240" s="47"/>
+      <c r="T240" s="47"/>
+      <c r="U240" s="47"/>
+      <c r="V240" s="47"/>
+      <c r="W240" s="47"/>
+      <c r="X240" s="47"/>
+      <c r="Y240" s="47"/>
+      <c r="Z240" s="47"/>
+      <c r="AA240" s="47"/>
+      <c r="AB240" s="47"/>
+      <c r="AC240" s="47"/>
+      <c r="AD240" s="47"/>
+      <c r="AE240" s="47"/>
+      <c r="AF240" s="47"/>
+      <c r="AG240" s="47"/>
+      <c r="AH240" s="47"/>
+      <c r="AI240" s="47"/>
+      <c r="AJ240" s="47"/>
+      <c r="AK240" s="47"/>
+      <c r="AL240" s="47"/>
+      <c r="AM240" s="47"/>
+      <c r="AN240" s="47"/>
+      <c r="AO240" s="47"/>
+      <c r="AP240" s="47"/>
+      <c r="AQ240" s="47"/>
+      <c r="AR240" s="47"/>
+      <c r="AS240" s="47"/>
+      <c r="AT240" s="47"/>
+      <c r="AU240" s="47"/>
+      <c r="AV240" s="47"/>
+      <c r="AW240" s="47"/>
+      <c r="AX240" s="47"/>
+      <c r="AY240" s="47"/>
+      <c r="AZ240" s="47"/>
+      <c r="BA240" s="47"/>
+    </row>
+    <row r="241" spans="1:53">
+      <c r="A241" s="39"/>
+      <c r="B241" s="39"/>
+      <c r="C241" s="39"/>
+      <c r="D241" s="39"/>
+      <c r="E241" s="39"/>
+      <c r="F241" s="39"/>
+      <c r="G241" s="39"/>
+      <c r="H241" s="39"/>
+      <c r="I241" s="39"/>
+      <c r="J241" s="39"/>
+      <c r="K241" s="39"/>
+      <c r="L241" s="39"/>
+      <c r="M241" s="39"/>
+      <c r="N241" s="39"/>
+      <c r="O241" s="39"/>
+      <c r="P241" s="40"/>
+      <c r="Q241" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="R240" s="42"/>
-      <c r="S240" s="42"/>
-      <c r="T240" s="42"/>
-      <c r="U240" s="42"/>
-      <c r="V240" s="42"/>
-      <c r="W240" s="42"/>
-      <c r="X240" s="42"/>
-      <c r="Y240" s="42"/>
-      <c r="Z240" s="42"/>
-      <c r="AA240" s="42"/>
-      <c r="AB240" s="42"/>
-      <c r="AC240" s="42"/>
-      <c r="AD240" s="42"/>
-      <c r="AE240" s="42"/>
-      <c r="AF240" s="42"/>
-      <c r="AG240" s="42"/>
-      <c r="AH240" s="42"/>
-      <c r="AI240" s="42"/>
-      <c r="AJ240" s="42"/>
-      <c r="AK240" s="42"/>
-      <c r="AL240" s="42"/>
-      <c r="AM240" s="42"/>
-      <c r="AN240" s="42"/>
-      <c r="AO240" s="42"/>
-      <c r="AP240" s="42"/>
-      <c r="AQ240" s="42"/>
-      <c r="AR240" s="42"/>
-      <c r="AS240" s="42"/>
-      <c r="AT240" s="42"/>
-      <c r="AU240" s="42"/>
-      <c r="AV240" s="42"/>
-      <c r="AW240" s="42"/>
-      <c r="AX240" s="42"/>
-      <c r="AY240" s="42"/>
-      <c r="AZ240" s="42"/>
-      <c r="BA240" s="42"/>
-    </row>
-    <row r="241" spans="1:53">
-      <c r="A241" s="47"/>
-      <c r="B241" s="47"/>
-      <c r="C241" s="47"/>
-      <c r="D241" s="47"/>
-      <c r="E241" s="47"/>
-      <c r="F241" s="47"/>
-      <c r="G241" s="47"/>
-      <c r="H241" s="47"/>
-      <c r="I241" s="47"/>
-      <c r="J241" s="47"/>
-      <c r="K241" s="47"/>
-      <c r="L241" s="47"/>
-      <c r="M241" s="47"/>
-      <c r="N241" s="47"/>
-      <c r="O241" s="47"/>
-      <c r="P241" s="47"/>
-      <c r="Q241" s="47"/>
-      <c r="R241" s="47"/>
-      <c r="S241" s="47"/>
-      <c r="T241" s="47"/>
-      <c r="U241" s="47"/>
-      <c r="V241" s="47"/>
-      <c r="W241" s="47"/>
-      <c r="X241" s="47"/>
-      <c r="Y241" s="47"/>
-      <c r="Z241" s="47"/>
-      <c r="AA241" s="47"/>
-      <c r="AB241" s="47"/>
-      <c r="AC241" s="47"/>
-      <c r="AD241" s="47"/>
-      <c r="AE241" s="47"/>
-      <c r="AF241" s="47"/>
-      <c r="AG241" s="47"/>
-      <c r="AH241" s="47"/>
-      <c r="AI241" s="47"/>
-      <c r="AJ241" s="47"/>
-      <c r="AK241" s="47"/>
-      <c r="AL241" s="47"/>
-      <c r="AM241" s="47"/>
-      <c r="AN241" s="47"/>
-      <c r="AO241" s="47"/>
-      <c r="AP241" s="47"/>
-      <c r="AQ241" s="47"/>
-      <c r="AR241" s="47"/>
-      <c r="AS241" s="47"/>
-      <c r="AT241" s="47"/>
-      <c r="AU241" s="47"/>
-      <c r="AV241" s="47"/>
-      <c r="AW241" s="47"/>
-      <c r="AX241" s="47"/>
-      <c r="AY241" s="47"/>
-      <c r="AZ241" s="47"/>
-      <c r="BA241" s="47"/>
+      <c r="R241" s="42"/>
+      <c r="S241" s="42"/>
+      <c r="T241" s="42"/>
+      <c r="U241" s="42"/>
+      <c r="V241" s="42"/>
+      <c r="W241" s="42"/>
+      <c r="X241" s="42"/>
+      <c r="Y241" s="42"/>
+      <c r="Z241" s="42"/>
+      <c r="AA241" s="42"/>
+      <c r="AB241" s="42"/>
+      <c r="AC241" s="42"/>
+      <c r="AD241" s="42"/>
+      <c r="AE241" s="42"/>
+      <c r="AF241" s="42"/>
+      <c r="AG241" s="42"/>
+      <c r="AH241" s="42"/>
+      <c r="AI241" s="42"/>
+      <c r="AJ241" s="42"/>
+      <c r="AK241" s="42"/>
+      <c r="AL241" s="42"/>
+      <c r="AM241" s="42"/>
+      <c r="AN241" s="42"/>
+      <c r="AO241" s="42"/>
+      <c r="AP241" s="42"/>
+      <c r="AQ241" s="42"/>
+      <c r="AR241" s="42"/>
+      <c r="AS241" s="42"/>
+      <c r="AT241" s="42"/>
+      <c r="AU241" s="42"/>
+      <c r="AV241" s="42"/>
+      <c r="AW241" s="42"/>
+      <c r="AX241" s="42"/>
+      <c r="AY241" s="42"/>
+      <c r="AZ241" s="42"/>
+      <c r="BA241" s="42"/>
     </row>
     <row r="242" spans="1:53">
-      <c r="A242" s="16" t="s">
+      <c r="A242" s="47"/>
+      <c r="B242" s="47"/>
+      <c r="C242" s="47"/>
+      <c r="D242" s="47"/>
+      <c r="E242" s="47"/>
+      <c r="F242" s="47"/>
+      <c r="G242" s="47"/>
+      <c r="H242" s="47"/>
+      <c r="I242" s="47"/>
+      <c r="J242" s="47"/>
+      <c r="K242" s="47"/>
+      <c r="L242" s="47"/>
+      <c r="M242" s="47"/>
+      <c r="N242" s="47"/>
+      <c r="O242" s="47"/>
+      <c r="P242" s="47"/>
+      <c r="Q242" s="47"/>
+      <c r="R242" s="47"/>
+      <c r="S242" s="47"/>
+      <c r="T242" s="47"/>
+      <c r="U242" s="47"/>
+      <c r="V242" s="47"/>
+      <c r="W242" s="47"/>
+      <c r="X242" s="47"/>
+      <c r="Y242" s="47"/>
+      <c r="Z242" s="47"/>
+      <c r="AA242" s="47"/>
+      <c r="AB242" s="47"/>
+      <c r="AC242" s="47"/>
+      <c r="AD242" s="47"/>
+      <c r="AE242" s="47"/>
+      <c r="AF242" s="47"/>
+      <c r="AG242" s="47"/>
+      <c r="AH242" s="47"/>
+      <c r="AI242" s="47"/>
+      <c r="AJ242" s="47"/>
+      <c r="AK242" s="47"/>
+      <c r="AL242" s="47"/>
+      <c r="AM242" s="47"/>
+      <c r="AN242" s="47"/>
+      <c r="AO242" s="47"/>
+      <c r="AP242" s="47"/>
+      <c r="AQ242" s="47"/>
+      <c r="AR242" s="47"/>
+      <c r="AS242" s="47"/>
+      <c r="AT242" s="47"/>
+      <c r="AU242" s="47"/>
+      <c r="AV242" s="47"/>
+      <c r="AW242" s="47"/>
+      <c r="AX242" s="47"/>
+      <c r="AY242" s="47"/>
+      <c r="AZ242" s="47"/>
+      <c r="BA242" s="47"/>
+    </row>
+    <row r="243" spans="1:53">
+      <c r="A243" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B242" s="17">
+      <c r="B243" s="17">
         <v>11</v>
       </c>
-      <c r="C242" s="106" t="s">
+      <c r="C243" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="D242" s="107"/>
-      <c r="E242" s="107"/>
-      <c r="F242" s="107"/>
-      <c r="G242" s="107"/>
-      <c r="H242" s="107"/>
-      <c r="I242" s="107"/>
-      <c r="J242" s="107"/>
-      <c r="K242" s="107"/>
-      <c r="L242" s="107"/>
-      <c r="M242" s="107"/>
-      <c r="N242" s="107"/>
-      <c r="O242" s="107"/>
-      <c r="P242" s="108"/>
-      <c r="Q242" s="109" t="str">
-        <f>VLOOKUP(B242,'SPECIFY(Đặc Tả)(1)'!$A$5:$BA$33,2,0)</f>
+      <c r="D243" s="95"/>
+      <c r="E243" s="95"/>
+      <c r="F243" s="95"/>
+      <c r="G243" s="95"/>
+      <c r="H243" s="95"/>
+      <c r="I243" s="95"/>
+      <c r="J243" s="95"/>
+      <c r="K243" s="95"/>
+      <c r="L243" s="95"/>
+      <c r="M243" s="95"/>
+      <c r="N243" s="95"/>
+      <c r="O243" s="95"/>
+      <c r="P243" s="96"/>
+      <c r="Q243" s="97" t="str">
+        <f>VLOOKUP(B243,'SPECIFY(Đặc Tả)(1)'!$A$5:$BA$33,2,0)</f>
         <v>Thay đổi quy định</v>
       </c>
-      <c r="R242" s="110"/>
-      <c r="S242" s="110"/>
-      <c r="T242" s="110"/>
-      <c r="U242" s="110"/>
-      <c r="V242" s="110"/>
-      <c r="W242" s="110"/>
-      <c r="X242" s="110"/>
-      <c r="Y242" s="110"/>
-      <c r="Z242" s="110"/>
-      <c r="AA242" s="110"/>
-      <c r="AB242" s="110"/>
-      <c r="AC242" s="110"/>
-      <c r="AD242" s="110"/>
-      <c r="AE242" s="110"/>
-      <c r="AF242" s="110"/>
-      <c r="AG242" s="110"/>
-      <c r="AH242" s="110"/>
-      <c r="AI242" s="110"/>
-      <c r="AJ242" s="110"/>
-      <c r="AK242" s="110"/>
-      <c r="AL242" s="110"/>
-      <c r="AM242" s="110"/>
-      <c r="AN242" s="110"/>
-      <c r="AO242" s="110"/>
-      <c r="AP242" s="110"/>
-      <c r="AQ242" s="110"/>
-      <c r="AR242" s="110"/>
-      <c r="AS242" s="110"/>
-      <c r="AT242" s="110"/>
-      <c r="AU242" s="110"/>
-      <c r="AV242" s="110"/>
-      <c r="AW242" s="110"/>
-      <c r="AX242" s="110"/>
-      <c r="AY242" s="110"/>
-      <c r="AZ242" s="110"/>
-      <c r="BA242" s="110"/>
-    </row>
-    <row r="243" spans="1:53">
-      <c r="A243" s="51" t="s">
+      <c r="R243" s="98"/>
+      <c r="S243" s="98"/>
+      <c r="T243" s="98"/>
+      <c r="U243" s="98"/>
+      <c r="V243" s="98"/>
+      <c r="W243" s="98"/>
+      <c r="X243" s="98"/>
+      <c r="Y243" s="98"/>
+      <c r="Z243" s="98"/>
+      <c r="AA243" s="98"/>
+      <c r="AB243" s="98"/>
+      <c r="AC243" s="98"/>
+      <c r="AD243" s="98"/>
+      <c r="AE243" s="98"/>
+      <c r="AF243" s="98"/>
+      <c r="AG243" s="98"/>
+      <c r="AH243" s="98"/>
+      <c r="AI243" s="98"/>
+      <c r="AJ243" s="98"/>
+      <c r="AK243" s="98"/>
+      <c r="AL243" s="98"/>
+      <c r="AM243" s="98"/>
+      <c r="AN243" s="98"/>
+      <c r="AO243" s="98"/>
+      <c r="AP243" s="98"/>
+      <c r="AQ243" s="98"/>
+      <c r="AR243" s="98"/>
+      <c r="AS243" s="98"/>
+      <c r="AT243" s="98"/>
+      <c r="AU243" s="98"/>
+      <c r="AV243" s="98"/>
+      <c r="AW243" s="98"/>
+      <c r="AX243" s="98"/>
+      <c r="AY243" s="98"/>
+      <c r="AZ243" s="98"/>
+      <c r="BA243" s="98"/>
+    </row>
+    <row r="244" spans="1:53">
+      <c r="A244" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="B243" s="35"/>
-      <c r="C243" s="35"/>
-      <c r="D243" s="35"/>
-      <c r="E243" s="35"/>
-      <c r="F243" s="35"/>
-      <c r="G243" s="35"/>
-      <c r="H243" s="35"/>
-      <c r="I243" s="35"/>
-      <c r="J243" s="35"/>
-      <c r="K243" s="35"/>
-      <c r="L243" s="35"/>
-      <c r="M243" s="35"/>
-      <c r="N243" s="35"/>
-      <c r="O243" s="35"/>
-      <c r="P243" s="36"/>
-      <c r="Q243" s="37"/>
-      <c r="R243" s="38"/>
-      <c r="S243" s="38"/>
-      <c r="T243" s="38"/>
-      <c r="U243" s="38"/>
-      <c r="V243" s="38"/>
-      <c r="W243" s="38"/>
-      <c r="X243" s="38"/>
-      <c r="Y243" s="38"/>
-      <c r="Z243" s="38"/>
-      <c r="AA243" s="38"/>
-      <c r="AB243" s="38"/>
-      <c r="AC243" s="38"/>
-      <c r="AD243" s="38"/>
-      <c r="AE243" s="38"/>
-      <c r="AF243" s="38"/>
-      <c r="AG243" s="38"/>
-      <c r="AH243" s="38"/>
-      <c r="AI243" s="38"/>
-      <c r="AJ243" s="38"/>
-      <c r="AK243" s="38"/>
-      <c r="AL243" s="38"/>
-      <c r="AM243" s="38"/>
-      <c r="AN243" s="38"/>
-      <c r="AO243" s="38"/>
-      <c r="AP243" s="38"/>
-      <c r="AQ243" s="38"/>
-      <c r="AR243" s="38"/>
-      <c r="AS243" s="38"/>
-      <c r="AT243" s="38"/>
-      <c r="AU243" s="38"/>
-      <c r="AV243" s="38"/>
-      <c r="AW243" s="38"/>
-      <c r="AX243" s="38"/>
-      <c r="AY243" s="38"/>
-      <c r="AZ243" s="38"/>
-      <c r="BA243" s="38"/>
-    </row>
-    <row r="244" spans="1:53">
-      <c r="A244" s="43"/>
-      <c r="B244" s="43"/>
-      <c r="C244" s="43"/>
-      <c r="D244" s="43"/>
-      <c r="E244" s="43"/>
-      <c r="F244" s="43"/>
-      <c r="G244" s="43"/>
-      <c r="H244" s="43"/>
-      <c r="I244" s="43"/>
-      <c r="J244" s="43"/>
-      <c r="K244" s="43"/>
-      <c r="L244" s="43"/>
-      <c r="M244" s="43"/>
-      <c r="N244" s="43"/>
-      <c r="O244" s="43"/>
-      <c r="P244" s="44"/>
-      <c r="Q244" s="46"/>
-      <c r="R244" s="47"/>
-      <c r="S244" s="47"/>
-      <c r="T244" s="47"/>
-      <c r="U244" s="47"/>
-      <c r="V244" s="47"/>
-      <c r="W244" s="47"/>
-      <c r="X244" s="47"/>
-      <c r="Y244" s="47"/>
-      <c r="Z244" s="47"/>
-      <c r="AA244" s="47"/>
-      <c r="AB244" s="47"/>
-      <c r="AC244" s="47"/>
-      <c r="AD244" s="47"/>
-      <c r="AE244" s="47"/>
-      <c r="AF244" s="47"/>
-      <c r="AG244" s="47"/>
-      <c r="AH244" s="47"/>
-      <c r="AI244" s="47"/>
-      <c r="AJ244" s="47"/>
-      <c r="AK244" s="47"/>
-      <c r="AL244" s="47"/>
-      <c r="AM244" s="47"/>
-      <c r="AN244" s="47"/>
-      <c r="AO244" s="47"/>
-      <c r="AP244" s="47"/>
-      <c r="AQ244" s="47"/>
-      <c r="AR244" s="47"/>
-      <c r="AS244" s="47"/>
-      <c r="AT244" s="47"/>
-      <c r="AU244" s="47"/>
-      <c r="AV244" s="47"/>
-      <c r="AW244" s="47"/>
-      <c r="AX244" s="47"/>
-      <c r="AY244" s="47"/>
-      <c r="AZ244" s="47"/>
-      <c r="BA244" s="47"/>
+      <c r="B244" s="35"/>
+      <c r="C244" s="35"/>
+      <c r="D244" s="35"/>
+      <c r="E244" s="35"/>
+      <c r="F244" s="35"/>
+      <c r="G244" s="35"/>
+      <c r="H244" s="35"/>
+      <c r="I244" s="35"/>
+      <c r="J244" s="35"/>
+      <c r="K244" s="35"/>
+      <c r="L244" s="35"/>
+      <c r="M244" s="35"/>
+      <c r="N244" s="35"/>
+      <c r="O244" s="35"/>
+      <c r="P244" s="36"/>
+      <c r="Q244" s="37"/>
+      <c r="R244" s="38"/>
+      <c r="S244" s="38"/>
+      <c r="T244" s="38"/>
+      <c r="U244" s="38"/>
+      <c r="V244" s="38"/>
+      <c r="W244" s="38"/>
+      <c r="X244" s="38"/>
+      <c r="Y244" s="38"/>
+      <c r="Z244" s="38"/>
+      <c r="AA244" s="38"/>
+      <c r="AB244" s="38"/>
+      <c r="AC244" s="38"/>
+      <c r="AD244" s="38"/>
+      <c r="AE244" s="38"/>
+      <c r="AF244" s="38"/>
+      <c r="AG244" s="38"/>
+      <c r="AH244" s="38"/>
+      <c r="AI244" s="38"/>
+      <c r="AJ244" s="38"/>
+      <c r="AK244" s="38"/>
+      <c r="AL244" s="38"/>
+      <c r="AM244" s="38"/>
+      <c r="AN244" s="38"/>
+      <c r="AO244" s="38"/>
+      <c r="AP244" s="38"/>
+      <c r="AQ244" s="38"/>
+      <c r="AR244" s="38"/>
+      <c r="AS244" s="38"/>
+      <c r="AT244" s="38"/>
+      <c r="AU244" s="38"/>
+      <c r="AV244" s="38"/>
+      <c r="AW244" s="38"/>
+      <c r="AX244" s="38"/>
+      <c r="AY244" s="38"/>
+      <c r="AZ244" s="38"/>
+      <c r="BA244" s="38"/>
     </row>
     <row r="245" spans="1:53">
-      <c r="A245" s="39"/>
-      <c r="B245" s="39"/>
-      <c r="C245" s="39"/>
-      <c r="D245" s="39"/>
-      <c r="E245" s="39"/>
-      <c r="F245" s="39"/>
-      <c r="G245" s="39"/>
-      <c r="H245" s="39"/>
-      <c r="I245" s="39"/>
-      <c r="J245" s="39"/>
-      <c r="K245" s="39"/>
-      <c r="L245" s="39"/>
-      <c r="M245" s="39"/>
-      <c r="N245" s="39"/>
-      <c r="O245" s="39"/>
-      <c r="P245" s="40"/>
-      <c r="Q245" s="41"/>
-      <c r="R245" s="42"/>
-      <c r="S245" s="42"/>
-      <c r="T245" s="42"/>
-      <c r="U245" s="42"/>
-      <c r="V245" s="42"/>
-      <c r="W245" s="42"/>
-      <c r="X245" s="42"/>
-      <c r="Y245" s="42"/>
-      <c r="Z245" s="42"/>
-      <c r="AA245" s="42"/>
-      <c r="AB245" s="42"/>
-      <c r="AC245" s="42"/>
-      <c r="AD245" s="42"/>
-      <c r="AE245" s="42"/>
-      <c r="AF245" s="42"/>
-      <c r="AG245" s="42"/>
-      <c r="AH245" s="42"/>
-      <c r="AI245" s="42"/>
-      <c r="AJ245" s="42"/>
-      <c r="AK245" s="42"/>
-      <c r="AL245" s="42"/>
-      <c r="AM245" s="42"/>
-      <c r="AN245" s="42"/>
-      <c r="AO245" s="42"/>
-      <c r="AP245" s="42"/>
-      <c r="AQ245" s="42"/>
-      <c r="AR245" s="42"/>
-      <c r="AS245" s="42"/>
-      <c r="AT245" s="42"/>
-      <c r="AU245" s="42"/>
-      <c r="AV245" s="42"/>
-      <c r="AW245" s="42"/>
-      <c r="AX245" s="42"/>
-      <c r="AY245" s="42"/>
-      <c r="AZ245" s="42"/>
-      <c r="BA245" s="42"/>
+      <c r="A245" s="43"/>
+      <c r="B245" s="43"/>
+      <c r="C245" s="43"/>
+      <c r="D245" s="43"/>
+      <c r="E245" s="43"/>
+      <c r="F245" s="43"/>
+      <c r="G245" s="43"/>
+      <c r="H245" s="43"/>
+      <c r="I245" s="43"/>
+      <c r="J245" s="43"/>
+      <c r="K245" s="43"/>
+      <c r="L245" s="43"/>
+      <c r="M245" s="43"/>
+      <c r="N245" s="43"/>
+      <c r="O245" s="43"/>
+      <c r="P245" s="44"/>
+      <c r="Q245" s="46"/>
+      <c r="R245" s="47"/>
+      <c r="S245" s="47"/>
+      <c r="T245" s="47"/>
+      <c r="U245" s="47"/>
+      <c r="V245" s="47"/>
+      <c r="W245" s="47"/>
+      <c r="X245" s="47"/>
+      <c r="Y245" s="47"/>
+      <c r="Z245" s="47"/>
+      <c r="AA245" s="47"/>
+      <c r="AB245" s="47"/>
+      <c r="AC245" s="47"/>
+      <c r="AD245" s="47"/>
+      <c r="AE245" s="47"/>
+      <c r="AF245" s="47"/>
+      <c r="AG245" s="47"/>
+      <c r="AH245" s="47"/>
+      <c r="AI245" s="47"/>
+      <c r="AJ245" s="47"/>
+      <c r="AK245" s="47"/>
+      <c r="AL245" s="47"/>
+      <c r="AM245" s="47"/>
+      <c r="AN245" s="47"/>
+      <c r="AO245" s="47"/>
+      <c r="AP245" s="47"/>
+      <c r="AQ245" s="47"/>
+      <c r="AR245" s="47"/>
+      <c r="AS245" s="47"/>
+      <c r="AT245" s="47"/>
+      <c r="AU245" s="47"/>
+      <c r="AV245" s="47"/>
+      <c r="AW245" s="47"/>
+      <c r="AX245" s="47"/>
+      <c r="AY245" s="47"/>
+      <c r="AZ245" s="47"/>
+      <c r="BA245" s="47"/>
     </row>
     <row r="246" spans="1:53">
-      <c r="A246" s="52" t="s">
+      <c r="A246" s="39"/>
+      <c r="B246" s="39"/>
+      <c r="C246" s="39"/>
+      <c r="D246" s="39"/>
+      <c r="E246" s="39"/>
+      <c r="F246" s="39"/>
+      <c r="G246" s="39"/>
+      <c r="H246" s="39"/>
+      <c r="I246" s="39"/>
+      <c r="J246" s="39"/>
+      <c r="K246" s="39"/>
+      <c r="L246" s="39"/>
+      <c r="M246" s="39"/>
+      <c r="N246" s="39"/>
+      <c r="O246" s="39"/>
+      <c r="P246" s="40"/>
+      <c r="Q246" s="41"/>
+      <c r="R246" s="42"/>
+      <c r="S246" s="42"/>
+      <c r="T246" s="42"/>
+      <c r="U246" s="42"/>
+      <c r="V246" s="42"/>
+      <c r="W246" s="42"/>
+      <c r="X246" s="42"/>
+      <c r="Y246" s="42"/>
+      <c r="Z246" s="42"/>
+      <c r="AA246" s="42"/>
+      <c r="AB246" s="42"/>
+      <c r="AC246" s="42"/>
+      <c r="AD246" s="42"/>
+      <c r="AE246" s="42"/>
+      <c r="AF246" s="42"/>
+      <c r="AG246" s="42"/>
+      <c r="AH246" s="42"/>
+      <c r="AI246" s="42"/>
+      <c r="AJ246" s="42"/>
+      <c r="AK246" s="42"/>
+      <c r="AL246" s="42"/>
+      <c r="AM246" s="42"/>
+      <c r="AN246" s="42"/>
+      <c r="AO246" s="42"/>
+      <c r="AP246" s="42"/>
+      <c r="AQ246" s="42"/>
+      <c r="AR246" s="42"/>
+      <c r="AS246" s="42"/>
+      <c r="AT246" s="42"/>
+      <c r="AU246" s="42"/>
+      <c r="AV246" s="42"/>
+      <c r="AW246" s="42"/>
+      <c r="AX246" s="42"/>
+      <c r="AY246" s="42"/>
+      <c r="AZ246" s="42"/>
+      <c r="BA246" s="42"/>
+    </row>
+    <row r="247" spans="1:53">
+      <c r="A247" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B246" s="35"/>
-      <c r="C246" s="35"/>
-      <c r="D246" s="35"/>
-      <c r="E246" s="35"/>
-      <c r="F246" s="35"/>
-      <c r="G246" s="35"/>
-      <c r="H246" s="35"/>
-      <c r="I246" s="35"/>
-      <c r="J246" s="35"/>
-      <c r="K246" s="35"/>
-      <c r="L246" s="35"/>
-      <c r="M246" s="35"/>
-      <c r="N246" s="35"/>
-      <c r="O246" s="35"/>
-      <c r="P246" s="36"/>
-      <c r="Q246" s="45"/>
-      <c r="R246" s="45"/>
-      <c r="S246" s="45"/>
-      <c r="T246" s="45"/>
-      <c r="U246" s="45"/>
-      <c r="V246" s="45"/>
-      <c r="W246" s="45"/>
-      <c r="X246" s="45"/>
-      <c r="Y246" s="45"/>
-      <c r="Z246" s="45"/>
-      <c r="AA246" s="45"/>
-      <c r="AB246" s="45"/>
-      <c r="AC246" s="45"/>
-      <c r="AD246" s="45"/>
-      <c r="AE246" s="45"/>
-      <c r="AF246" s="45"/>
-      <c r="AG246" s="45"/>
-      <c r="AH246" s="45"/>
-      <c r="AI246" s="45"/>
-      <c r="AJ246" s="45"/>
-      <c r="AK246" s="45"/>
-      <c r="AL246" s="45"/>
-      <c r="AM246" s="45"/>
-      <c r="AN246" s="45"/>
-      <c r="AO246" s="45"/>
-      <c r="AP246" s="45"/>
-      <c r="AQ246" s="45"/>
-      <c r="AR246" s="45"/>
-      <c r="AS246" s="45"/>
-      <c r="AT246" s="45"/>
-      <c r="AU246" s="45"/>
-      <c r="AV246" s="45"/>
-      <c r="AW246" s="45"/>
-      <c r="AX246" s="45"/>
-      <c r="AY246" s="45"/>
-      <c r="AZ246" s="45"/>
-      <c r="BA246" s="45"/>
-    </row>
-    <row r="247" spans="1:53">
-      <c r="A247" s="43"/>
-      <c r="B247" s="43"/>
-      <c r="C247" s="43"/>
-      <c r="D247" s="43"/>
-      <c r="E247" s="43"/>
-      <c r="F247" s="43"/>
-      <c r="G247" s="43"/>
-      <c r="H247" s="43"/>
-      <c r="I247" s="43"/>
-      <c r="J247" s="43"/>
-      <c r="K247" s="43"/>
-      <c r="L247" s="43"/>
-      <c r="M247" s="43"/>
-      <c r="N247" s="43"/>
-      <c r="O247" s="43"/>
-      <c r="P247" s="44"/>
+      <c r="B247" s="35"/>
+      <c r="C247" s="35"/>
+      <c r="D247" s="35"/>
+      <c r="E247" s="35"/>
+      <c r="F247" s="35"/>
+      <c r="G247" s="35"/>
+      <c r="H247" s="35"/>
+      <c r="I247" s="35"/>
+      <c r="J247" s="35"/>
+      <c r="K247" s="35"/>
+      <c r="L247" s="35"/>
+      <c r="M247" s="35"/>
+      <c r="N247" s="35"/>
+      <c r="O247" s="35"/>
+      <c r="P247" s="36"/>
+      <c r="Q247" s="45"/>
       <c r="R247" s="45"/>
       <c r="S247" s="45"/>
       <c r="T247" s="45"/>
@@ -18563,7 +18574,6 @@
       <c r="N248" s="43"/>
       <c r="O248" s="43"/>
       <c r="P248" s="44"/>
-      <c r="Q248" s="45"/>
       <c r="R248" s="45"/>
       <c r="S248" s="45"/>
       <c r="T248" s="45"/>
@@ -18822,22 +18832,22 @@
       <c r="BA252" s="45"/>
     </row>
     <row r="253" spans="1:53">
-      <c r="A253" s="39"/>
-      <c r="B253" s="39"/>
-      <c r="C253" s="39"/>
-      <c r="D253" s="39"/>
-      <c r="E253" s="39"/>
-      <c r="F253" s="39"/>
-      <c r="G253" s="39"/>
-      <c r="H253" s="39"/>
-      <c r="I253" s="39"/>
-      <c r="J253" s="39"/>
-      <c r="K253" s="39"/>
-      <c r="L253" s="39"/>
-      <c r="M253" s="39"/>
-      <c r="N253" s="39"/>
-      <c r="O253" s="39"/>
-      <c r="P253" s="40"/>
+      <c r="A253" s="43"/>
+      <c r="B253" s="43"/>
+      <c r="C253" s="43"/>
+      <c r="D253" s="43"/>
+      <c r="E253" s="43"/>
+      <c r="F253" s="43"/>
+      <c r="G253" s="43"/>
+      <c r="H253" s="43"/>
+      <c r="I253" s="43"/>
+      <c r="J253" s="43"/>
+      <c r="K253" s="43"/>
+      <c r="L253" s="43"/>
+      <c r="M253" s="43"/>
+      <c r="N253" s="43"/>
+      <c r="O253" s="43"/>
+      <c r="P253" s="44"/>
       <c r="Q253" s="45"/>
       <c r="R253" s="45"/>
       <c r="S253" s="45"/>
@@ -18877,116 +18887,116 @@
       <c r="BA253" s="45"/>
     </row>
     <row r="254" spans="1:53">
-      <c r="A254" s="52" t="s">
+      <c r="A254" s="39"/>
+      <c r="B254" s="39"/>
+      <c r="C254" s="39"/>
+      <c r="D254" s="39"/>
+      <c r="E254" s="39"/>
+      <c r="F254" s="39"/>
+      <c r="G254" s="39"/>
+      <c r="H254" s="39"/>
+      <c r="I254" s="39"/>
+      <c r="J254" s="39"/>
+      <c r="K254" s="39"/>
+      <c r="L254" s="39"/>
+      <c r="M254" s="39"/>
+      <c r="N254" s="39"/>
+      <c r="O254" s="39"/>
+      <c r="P254" s="40"/>
+      <c r="Q254" s="45"/>
+      <c r="R254" s="45"/>
+      <c r="S254" s="45"/>
+      <c r="T254" s="45"/>
+      <c r="U254" s="45"/>
+      <c r="V254" s="45"/>
+      <c r="W254" s="45"/>
+      <c r="X254" s="45"/>
+      <c r="Y254" s="45"/>
+      <c r="Z254" s="45"/>
+      <c r="AA254" s="45"/>
+      <c r="AB254" s="45"/>
+      <c r="AC254" s="45"/>
+      <c r="AD254" s="45"/>
+      <c r="AE254" s="45"/>
+      <c r="AF254" s="45"/>
+      <c r="AG254" s="45"/>
+      <c r="AH254" s="45"/>
+      <c r="AI254" s="45"/>
+      <c r="AJ254" s="45"/>
+      <c r="AK254" s="45"/>
+      <c r="AL254" s="45"/>
+      <c r="AM254" s="45"/>
+      <c r="AN254" s="45"/>
+      <c r="AO254" s="45"/>
+      <c r="AP254" s="45"/>
+      <c r="AQ254" s="45"/>
+      <c r="AR254" s="45"/>
+      <c r="AS254" s="45"/>
+      <c r="AT254" s="45"/>
+      <c r="AU254" s="45"/>
+      <c r="AV254" s="45"/>
+      <c r="AW254" s="45"/>
+      <c r="AX254" s="45"/>
+      <c r="AY254" s="45"/>
+      <c r="AZ254" s="45"/>
+      <c r="BA254" s="45"/>
+    </row>
+    <row r="255" spans="1:53">
+      <c r="A255" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="B254" s="35"/>
-      <c r="C254" s="35"/>
-      <c r="D254" s="35"/>
-      <c r="E254" s="35"/>
-      <c r="F254" s="35"/>
-      <c r="G254" s="35"/>
-      <c r="H254" s="35"/>
-      <c r="I254" s="35"/>
-      <c r="J254" s="35"/>
-      <c r="K254" s="35"/>
-      <c r="L254" s="35"/>
-      <c r="M254" s="35"/>
-      <c r="N254" s="35"/>
-      <c r="O254" s="35"/>
-      <c r="P254" s="36"/>
-      <c r="Q254" s="37"/>
-      <c r="R254" s="38"/>
-      <c r="S254" s="38"/>
-      <c r="T254" s="38"/>
-      <c r="U254" s="38"/>
-      <c r="V254" s="38"/>
-      <c r="W254" s="38"/>
-      <c r="X254" s="38"/>
-      <c r="Y254" s="38"/>
-      <c r="Z254" s="38"/>
-      <c r="AA254" s="38"/>
-      <c r="AB254" s="38"/>
-      <c r="AC254" s="38"/>
-      <c r="AD254" s="38"/>
-      <c r="AE254" s="38"/>
-      <c r="AF254" s="38"/>
-      <c r="AG254" s="38"/>
-      <c r="AH254" s="38"/>
-      <c r="AI254" s="38"/>
-      <c r="AJ254" s="38"/>
-      <c r="AK254" s="38"/>
-      <c r="AL254" s="38"/>
-      <c r="AM254" s="38"/>
-      <c r="AN254" s="38"/>
-      <c r="AO254" s="38"/>
-      <c r="AP254" s="38"/>
-      <c r="AQ254" s="38"/>
-      <c r="AR254" s="38"/>
-      <c r="AS254" s="38"/>
-      <c r="AT254" s="38"/>
-      <c r="AU254" s="38"/>
-      <c r="AV254" s="38"/>
-      <c r="AW254" s="38"/>
-      <c r="AX254" s="38"/>
-      <c r="AY254" s="38"/>
-      <c r="AZ254" s="38"/>
-      <c r="BA254" s="38"/>
-    </row>
-    <row r="255" spans="1:53">
-      <c r="A255" s="43"/>
-      <c r="B255" s="43"/>
-      <c r="C255" s="43"/>
-      <c r="D255" s="43"/>
-      <c r="E255" s="43"/>
-      <c r="F255" s="43"/>
-      <c r="G255" s="43"/>
-      <c r="H255" s="43"/>
-      <c r="I255" s="43"/>
-      <c r="J255" s="43"/>
-      <c r="K255" s="43"/>
-      <c r="L255" s="43"/>
-      <c r="M255" s="43"/>
-      <c r="N255" s="43"/>
-      <c r="O255" s="43"/>
-      <c r="P255" s="44"/>
-      <c r="Q255" s="46"/>
-      <c r="R255" s="47"/>
-      <c r="S255" s="47"/>
-      <c r="T255" s="47"/>
-      <c r="U255" s="47"/>
-      <c r="V255" s="47"/>
-      <c r="W255" s="47"/>
-      <c r="X255" s="47"/>
-      <c r="Y255" s="47"/>
-      <c r="Z255" s="47"/>
-      <c r="AA255" s="47"/>
-      <c r="AB255" s="47"/>
-      <c r="AC255" s="47"/>
-      <c r="AD255" s="47"/>
-      <c r="AE255" s="47"/>
-      <c r="AF255" s="47"/>
-      <c r="AG255" s="47"/>
-      <c r="AH255" s="47"/>
-      <c r="AI255" s="47"/>
-      <c r="AJ255" s="47"/>
-      <c r="AK255" s="47"/>
-      <c r="AL255" s="47"/>
-      <c r="AM255" s="47"/>
-      <c r="AN255" s="47"/>
-      <c r="AO255" s="47"/>
-      <c r="AP255" s="47"/>
-      <c r="AQ255" s="47"/>
-      <c r="AR255" s="47"/>
-      <c r="AS255" s="47"/>
-      <c r="AT255" s="47"/>
-      <c r="AU255" s="47"/>
-      <c r="AV255" s="47"/>
-      <c r="AW255" s="47"/>
-      <c r="AX255" s="47"/>
-      <c r="AY255" s="47"/>
-      <c r="AZ255" s="47"/>
-      <c r="BA255" s="47"/>
+      <c r="B255" s="35"/>
+      <c r="C255" s="35"/>
+      <c r="D255" s="35"/>
+      <c r="E255" s="35"/>
+      <c r="F255" s="35"/>
+      <c r="G255" s="35"/>
+      <c r="H255" s="35"/>
+      <c r="I255" s="35"/>
+      <c r="J255" s="35"/>
+      <c r="K255" s="35"/>
+      <c r="L255" s="35"/>
+      <c r="M255" s="35"/>
+      <c r="N255" s="35"/>
+      <c r="O255" s="35"/>
+      <c r="P255" s="36"/>
+      <c r="Q255" s="37"/>
+      <c r="R255" s="38"/>
+      <c r="S255" s="38"/>
+      <c r="T255" s="38"/>
+      <c r="U255" s="38"/>
+      <c r="V255" s="38"/>
+      <c r="W255" s="38"/>
+      <c r="X255" s="38"/>
+      <c r="Y255" s="38"/>
+      <c r="Z255" s="38"/>
+      <c r="AA255" s="38"/>
+      <c r="AB255" s="38"/>
+      <c r="AC255" s="38"/>
+      <c r="AD255" s="38"/>
+      <c r="AE255" s="38"/>
+      <c r="AF255" s="38"/>
+      <c r="AG255" s="38"/>
+      <c r="AH255" s="38"/>
+      <c r="AI255" s="38"/>
+      <c r="AJ255" s="38"/>
+      <c r="AK255" s="38"/>
+      <c r="AL255" s="38"/>
+      <c r="AM255" s="38"/>
+      <c r="AN255" s="38"/>
+      <c r="AO255" s="38"/>
+      <c r="AP255" s="38"/>
+      <c r="AQ255" s="38"/>
+      <c r="AR255" s="38"/>
+      <c r="AS255" s="38"/>
+      <c r="AT255" s="38"/>
+      <c r="AU255" s="38"/>
+      <c r="AV255" s="38"/>
+      <c r="AW255" s="38"/>
+      <c r="AX255" s="38"/>
+      <c r="AY255" s="38"/>
+      <c r="AZ255" s="38"/>
+      <c r="BA255" s="38"/>
     </row>
     <row r="256" spans="1:53">
       <c r="A256" s="43"/>
@@ -19154,134 +19164,134 @@
       <c r="BA258" s="47"/>
     </row>
     <row r="259" spans="1:53">
-      <c r="A259" s="39"/>
-      <c r="B259" s="39"/>
-      <c r="C259" s="39"/>
-      <c r="D259" s="39"/>
-      <c r="E259" s="39"/>
-      <c r="F259" s="39"/>
-      <c r="G259" s="39"/>
-      <c r="H259" s="39"/>
-      <c r="I259" s="39"/>
-      <c r="J259" s="39"/>
-      <c r="K259" s="39"/>
-      <c r="L259" s="39"/>
-      <c r="M259" s="39"/>
-      <c r="N259" s="39"/>
-      <c r="O259" s="39"/>
-      <c r="P259" s="40"/>
-      <c r="Q259" s="41"/>
-      <c r="R259" s="42"/>
-      <c r="S259" s="42"/>
-      <c r="T259" s="42"/>
-      <c r="U259" s="42"/>
-      <c r="V259" s="42"/>
-      <c r="W259" s="42"/>
-      <c r="X259" s="42"/>
-      <c r="Y259" s="42"/>
-      <c r="Z259" s="42"/>
-      <c r="AA259" s="42"/>
-      <c r="AB259" s="42"/>
-      <c r="AC259" s="42"/>
-      <c r="AD259" s="42"/>
-      <c r="AE259" s="42"/>
-      <c r="AF259" s="42"/>
-      <c r="AG259" s="42"/>
-      <c r="AH259" s="42"/>
-      <c r="AI259" s="42"/>
-      <c r="AJ259" s="42"/>
-      <c r="AK259" s="42"/>
-      <c r="AL259" s="42"/>
-      <c r="AM259" s="42"/>
-      <c r="AN259" s="42"/>
-      <c r="AO259" s="42"/>
-      <c r="AP259" s="42"/>
-      <c r="AQ259" s="42"/>
-      <c r="AR259" s="42"/>
-      <c r="AS259" s="42"/>
-      <c r="AT259" s="42"/>
-      <c r="AU259" s="42"/>
-      <c r="AV259" s="42"/>
-      <c r="AW259" s="42"/>
-      <c r="AX259" s="42"/>
-      <c r="AY259" s="42"/>
-      <c r="AZ259" s="42"/>
-      <c r="BA259" s="42"/>
+      <c r="A259" s="43"/>
+      <c r="B259" s="43"/>
+      <c r="C259" s="43"/>
+      <c r="D259" s="43"/>
+      <c r="E259" s="43"/>
+      <c r="F259" s="43"/>
+      <c r="G259" s="43"/>
+      <c r="H259" s="43"/>
+      <c r="I259" s="43"/>
+      <c r="J259" s="43"/>
+      <c r="K259" s="43"/>
+      <c r="L259" s="43"/>
+      <c r="M259" s="43"/>
+      <c r="N259" s="43"/>
+      <c r="O259" s="43"/>
+      <c r="P259" s="44"/>
+      <c r="Q259" s="46"/>
+      <c r="R259" s="47"/>
+      <c r="S259" s="47"/>
+      <c r="T259" s="47"/>
+      <c r="U259" s="47"/>
+      <c r="V259" s="47"/>
+      <c r="W259" s="47"/>
+      <c r="X259" s="47"/>
+      <c r="Y259" s="47"/>
+      <c r="Z259" s="47"/>
+      <c r="AA259" s="47"/>
+      <c r="AB259" s="47"/>
+      <c r="AC259" s="47"/>
+      <c r="AD259" s="47"/>
+      <c r="AE259" s="47"/>
+      <c r="AF259" s="47"/>
+      <c r="AG259" s="47"/>
+      <c r="AH259" s="47"/>
+      <c r="AI259" s="47"/>
+      <c r="AJ259" s="47"/>
+      <c r="AK259" s="47"/>
+      <c r="AL259" s="47"/>
+      <c r="AM259" s="47"/>
+      <c r="AN259" s="47"/>
+      <c r="AO259" s="47"/>
+      <c r="AP259" s="47"/>
+      <c r="AQ259" s="47"/>
+      <c r="AR259" s="47"/>
+      <c r="AS259" s="47"/>
+      <c r="AT259" s="47"/>
+      <c r="AU259" s="47"/>
+      <c r="AV259" s="47"/>
+      <c r="AW259" s="47"/>
+      <c r="AX259" s="47"/>
+      <c r="AY259" s="47"/>
+      <c r="AZ259" s="47"/>
+      <c r="BA259" s="47"/>
     </row>
     <row r="260" spans="1:53">
-      <c r="A260" s="52" t="s">
+      <c r="A260" s="39"/>
+      <c r="B260" s="39"/>
+      <c r="C260" s="39"/>
+      <c r="D260" s="39"/>
+      <c r="E260" s="39"/>
+      <c r="F260" s="39"/>
+      <c r="G260" s="39"/>
+      <c r="H260" s="39"/>
+      <c r="I260" s="39"/>
+      <c r="J260" s="39"/>
+      <c r="K260" s="39"/>
+      <c r="L260" s="39"/>
+      <c r="M260" s="39"/>
+      <c r="N260" s="39"/>
+      <c r="O260" s="39"/>
+      <c r="P260" s="40"/>
+      <c r="Q260" s="41"/>
+      <c r="R260" s="42"/>
+      <c r="S260" s="42"/>
+      <c r="T260" s="42"/>
+      <c r="U260" s="42"/>
+      <c r="V260" s="42"/>
+      <c r="W260" s="42"/>
+      <c r="X260" s="42"/>
+      <c r="Y260" s="42"/>
+      <c r="Z260" s="42"/>
+      <c r="AA260" s="42"/>
+      <c r="AB260" s="42"/>
+      <c r="AC260" s="42"/>
+      <c r="AD260" s="42"/>
+      <c r="AE260" s="42"/>
+      <c r="AF260" s="42"/>
+      <c r="AG260" s="42"/>
+      <c r="AH260" s="42"/>
+      <c r="AI260" s="42"/>
+      <c r="AJ260" s="42"/>
+      <c r="AK260" s="42"/>
+      <c r="AL260" s="42"/>
+      <c r="AM260" s="42"/>
+      <c r="AN260" s="42"/>
+      <c r="AO260" s="42"/>
+      <c r="AP260" s="42"/>
+      <c r="AQ260" s="42"/>
+      <c r="AR260" s="42"/>
+      <c r="AS260" s="42"/>
+      <c r="AT260" s="42"/>
+      <c r="AU260" s="42"/>
+      <c r="AV260" s="42"/>
+      <c r="AW260" s="42"/>
+      <c r="AX260" s="42"/>
+      <c r="AY260" s="42"/>
+      <c r="AZ260" s="42"/>
+      <c r="BA260" s="42"/>
+    </row>
+    <row r="261" spans="1:53">
+      <c r="A261" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="B260" s="35"/>
-      <c r="C260" s="35"/>
-      <c r="D260" s="35"/>
-      <c r="E260" s="35"/>
-      <c r="F260" s="35"/>
-      <c r="G260" s="35"/>
-      <c r="H260" s="35"/>
-      <c r="I260" s="35"/>
-      <c r="J260" s="35"/>
-      <c r="K260" s="35"/>
-      <c r="L260" s="35"/>
-      <c r="M260" s="35"/>
-      <c r="N260" s="35"/>
-      <c r="O260" s="35"/>
-      <c r="P260" s="36"/>
-      <c r="Q260" s="45"/>
-      <c r="R260" s="45"/>
-      <c r="S260" s="45"/>
-      <c r="T260" s="45"/>
-      <c r="U260" s="45"/>
-      <c r="V260" s="45"/>
-      <c r="W260" s="45"/>
-      <c r="X260" s="45"/>
-      <c r="Y260" s="45"/>
-      <c r="Z260" s="45"/>
-      <c r="AA260" s="45"/>
-      <c r="AB260" s="45"/>
-      <c r="AC260" s="45"/>
-      <c r="AD260" s="45"/>
-      <c r="AE260" s="45"/>
-      <c r="AF260" s="45"/>
-      <c r="AG260" s="45"/>
-      <c r="AH260" s="45"/>
-      <c r="AI260" s="45"/>
-      <c r="AJ260" s="45"/>
-      <c r="AK260" s="45"/>
-      <c r="AL260" s="45"/>
-      <c r="AM260" s="45"/>
-      <c r="AN260" s="45"/>
-      <c r="AO260" s="45"/>
-      <c r="AP260" s="45"/>
-      <c r="AQ260" s="45"/>
-      <c r="AR260" s="45"/>
-      <c r="AS260" s="45"/>
-      <c r="AT260" s="45"/>
-      <c r="AU260" s="45"/>
-      <c r="AV260" s="45"/>
-      <c r="AW260" s="45"/>
-      <c r="AX260" s="45"/>
-      <c r="AY260" s="45"/>
-      <c r="AZ260" s="45"/>
-      <c r="BA260" s="45"/>
-    </row>
-    <row r="261" spans="1:53">
-      <c r="A261" s="43"/>
-      <c r="B261" s="43"/>
-      <c r="C261" s="43"/>
-      <c r="D261" s="43"/>
-      <c r="E261" s="43"/>
-      <c r="F261" s="43"/>
-      <c r="G261" s="43"/>
-      <c r="H261" s="43"/>
-      <c r="I261" s="43"/>
-      <c r="J261" s="43"/>
-      <c r="K261" s="43"/>
-      <c r="L261" s="43"/>
-      <c r="M261" s="43"/>
-      <c r="N261" s="43"/>
-      <c r="O261" s="43"/>
-      <c r="P261" s="44"/>
+      <c r="B261" s="35"/>
+      <c r="C261" s="35"/>
+      <c r="D261" s="35"/>
+      <c r="E261" s="35"/>
+      <c r="F261" s="35"/>
+      <c r="G261" s="35"/>
+      <c r="H261" s="35"/>
+      <c r="I261" s="35"/>
+      <c r="J261" s="35"/>
+      <c r="K261" s="35"/>
+      <c r="L261" s="35"/>
+      <c r="M261" s="35"/>
+      <c r="N261" s="35"/>
+      <c r="O261" s="35"/>
+      <c r="P261" s="36"/>
       <c r="Q261" s="45"/>
       <c r="R261" s="45"/>
       <c r="S261" s="45"/>
@@ -19321,22 +19331,22 @@
       <c r="BA261" s="45"/>
     </row>
     <row r="262" spans="1:53">
-      <c r="A262" s="39"/>
-      <c r="B262" s="39"/>
-      <c r="C262" s="39"/>
-      <c r="D262" s="39"/>
-      <c r="E262" s="39"/>
-      <c r="F262" s="39"/>
-      <c r="G262" s="39"/>
-      <c r="H262" s="39"/>
-      <c r="I262" s="39"/>
-      <c r="J262" s="39"/>
-      <c r="K262" s="39"/>
-      <c r="L262" s="39"/>
-      <c r="M262" s="39"/>
-      <c r="N262" s="39"/>
-      <c r="O262" s="39"/>
-      <c r="P262" s="40"/>
+      <c r="A262" s="43"/>
+      <c r="B262" s="43"/>
+      <c r="C262" s="43"/>
+      <c r="D262" s="43"/>
+      <c r="E262" s="43"/>
+      <c r="F262" s="43"/>
+      <c r="G262" s="43"/>
+      <c r="H262" s="43"/>
+      <c r="I262" s="43"/>
+      <c r="J262" s="43"/>
+      <c r="K262" s="43"/>
+      <c r="L262" s="43"/>
+      <c r="M262" s="43"/>
+      <c r="N262" s="43"/>
+      <c r="O262" s="43"/>
+      <c r="P262" s="44"/>
       <c r="Q262" s="45"/>
       <c r="R262" s="45"/>
       <c r="S262" s="45"/>
@@ -19376,228 +19386,228 @@
       <c r="BA262" s="45"/>
     </row>
     <row r="263" spans="1:53">
-      <c r="A263" s="52" t="s">
+      <c r="A263" s="39"/>
+      <c r="B263" s="39"/>
+      <c r="C263" s="39"/>
+      <c r="D263" s="39"/>
+      <c r="E263" s="39"/>
+      <c r="F263" s="39"/>
+      <c r="G263" s="39"/>
+      <c r="H263" s="39"/>
+      <c r="I263" s="39"/>
+      <c r="J263" s="39"/>
+      <c r="K263" s="39"/>
+      <c r="L263" s="39"/>
+      <c r="M263" s="39"/>
+      <c r="N263" s="39"/>
+      <c r="O263" s="39"/>
+      <c r="P263" s="40"/>
+      <c r="Q263" s="45"/>
+      <c r="R263" s="45"/>
+      <c r="S263" s="45"/>
+      <c r="T263" s="45"/>
+      <c r="U263" s="45"/>
+      <c r="V263" s="45"/>
+      <c r="W263" s="45"/>
+      <c r="X263" s="45"/>
+      <c r="Y263" s="45"/>
+      <c r="Z263" s="45"/>
+      <c r="AA263" s="45"/>
+      <c r="AB263" s="45"/>
+      <c r="AC263" s="45"/>
+      <c r="AD263" s="45"/>
+      <c r="AE263" s="45"/>
+      <c r="AF263" s="45"/>
+      <c r="AG263" s="45"/>
+      <c r="AH263" s="45"/>
+      <c r="AI263" s="45"/>
+      <c r="AJ263" s="45"/>
+      <c r="AK263" s="45"/>
+      <c r="AL263" s="45"/>
+      <c r="AM263" s="45"/>
+      <c r="AN263" s="45"/>
+      <c r="AO263" s="45"/>
+      <c r="AP263" s="45"/>
+      <c r="AQ263" s="45"/>
+      <c r="AR263" s="45"/>
+      <c r="AS263" s="45"/>
+      <c r="AT263" s="45"/>
+      <c r="AU263" s="45"/>
+      <c r="AV263" s="45"/>
+      <c r="AW263" s="45"/>
+      <c r="AX263" s="45"/>
+      <c r="AY263" s="45"/>
+      <c r="AZ263" s="45"/>
+      <c r="BA263" s="45"/>
+    </row>
+    <row r="264" spans="1:53">
+      <c r="A264" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="B263" s="35"/>
-      <c r="C263" s="35"/>
-      <c r="D263" s="35"/>
-      <c r="E263" s="35"/>
-      <c r="F263" s="35"/>
-      <c r="G263" s="35"/>
-      <c r="H263" s="35"/>
-      <c r="I263" s="35"/>
-      <c r="J263" s="35"/>
-      <c r="K263" s="35"/>
-      <c r="L263" s="35"/>
-      <c r="M263" s="35"/>
-      <c r="N263" s="35"/>
-      <c r="O263" s="35"/>
-      <c r="P263" s="36"/>
-      <c r="Q263" s="37"/>
-      <c r="R263" s="38"/>
-      <c r="S263" s="38"/>
-      <c r="T263" s="38"/>
-      <c r="U263" s="38"/>
-      <c r="V263" s="38"/>
-      <c r="W263" s="38"/>
-      <c r="X263" s="38"/>
-      <c r="Y263" s="38"/>
-      <c r="Z263" s="38"/>
-      <c r="AA263" s="38"/>
-      <c r="AB263" s="38"/>
-      <c r="AC263" s="38"/>
-      <c r="AD263" s="38"/>
-      <c r="AE263" s="38"/>
-      <c r="AF263" s="38"/>
-      <c r="AG263" s="38"/>
-      <c r="AH263" s="38"/>
-      <c r="AI263" s="38"/>
-      <c r="AJ263" s="38"/>
-      <c r="AK263" s="38"/>
-      <c r="AL263" s="38"/>
-      <c r="AM263" s="38"/>
-      <c r="AN263" s="38"/>
-      <c r="AO263" s="38"/>
-      <c r="AP263" s="38"/>
-      <c r="AQ263" s="38"/>
-      <c r="AR263" s="38"/>
-      <c r="AS263" s="38"/>
-      <c r="AT263" s="38"/>
-      <c r="AU263" s="38"/>
-      <c r="AV263" s="38"/>
-      <c r="AW263" s="38"/>
-      <c r="AX263" s="38"/>
-      <c r="AY263" s="38"/>
-      <c r="AZ263" s="38"/>
-      <c r="BA263" s="38"/>
-    </row>
-    <row r="264" spans="1:53">
-      <c r="A264" s="43"/>
-      <c r="B264" s="43"/>
-      <c r="C264" s="43"/>
-      <c r="D264" s="43"/>
-      <c r="E264" s="43"/>
-      <c r="F264" s="43"/>
-      <c r="G264" s="43"/>
-      <c r="H264" s="43"/>
-      <c r="I264" s="43"/>
-      <c r="J264" s="43"/>
-      <c r="K264" s="43"/>
-      <c r="L264" s="43"/>
-      <c r="M264" s="43"/>
-      <c r="N264" s="43"/>
-      <c r="O264" s="43"/>
-      <c r="P264" s="44"/>
-      <c r="Q264" s="46"/>
-      <c r="R264" s="47"/>
-      <c r="S264" s="47"/>
-      <c r="T264" s="47"/>
-      <c r="U264" s="47"/>
-      <c r="V264" s="47"/>
-      <c r="W264" s="47"/>
-      <c r="X264" s="47"/>
-      <c r="Y264" s="47"/>
-      <c r="Z264" s="47"/>
-      <c r="AA264" s="47"/>
-      <c r="AB264" s="47"/>
-      <c r="AC264" s="47"/>
-      <c r="AD264" s="47"/>
-      <c r="AE264" s="47"/>
-      <c r="AF264" s="47"/>
-      <c r="AG264" s="47"/>
-      <c r="AH264" s="47"/>
-      <c r="AI264" s="47"/>
-      <c r="AJ264" s="47"/>
-      <c r="AK264" s="47"/>
-      <c r="AL264" s="47"/>
-      <c r="AM264" s="47"/>
-      <c r="AN264" s="47"/>
-      <c r="AO264" s="47"/>
-      <c r="AP264" s="47"/>
-      <c r="AQ264" s="47"/>
-      <c r="AR264" s="47"/>
-      <c r="AS264" s="47"/>
-      <c r="AT264" s="47"/>
-      <c r="AU264" s="47"/>
-      <c r="AV264" s="47"/>
-      <c r="AW264" s="47"/>
-      <c r="AX264" s="47"/>
-      <c r="AY264" s="47"/>
-      <c r="AZ264" s="47"/>
-      <c r="BA264" s="47"/>
+      <c r="B264" s="35"/>
+      <c r="C264" s="35"/>
+      <c r="D264" s="35"/>
+      <c r="E264" s="35"/>
+      <c r="F264" s="35"/>
+      <c r="G264" s="35"/>
+      <c r="H264" s="35"/>
+      <c r="I264" s="35"/>
+      <c r="J264" s="35"/>
+      <c r="K264" s="35"/>
+      <c r="L264" s="35"/>
+      <c r="M264" s="35"/>
+      <c r="N264" s="35"/>
+      <c r="O264" s="35"/>
+      <c r="P264" s="36"/>
+      <c r="Q264" s="37"/>
+      <c r="R264" s="38"/>
+      <c r="S264" s="38"/>
+      <c r="T264" s="38"/>
+      <c r="U264" s="38"/>
+      <c r="V264" s="38"/>
+      <c r="W264" s="38"/>
+      <c r="X264" s="38"/>
+      <c r="Y264" s="38"/>
+      <c r="Z264" s="38"/>
+      <c r="AA264" s="38"/>
+      <c r="AB264" s="38"/>
+      <c r="AC264" s="38"/>
+      <c r="AD264" s="38"/>
+      <c r="AE264" s="38"/>
+      <c r="AF264" s="38"/>
+      <c r="AG264" s="38"/>
+      <c r="AH264" s="38"/>
+      <c r="AI264" s="38"/>
+      <c r="AJ264" s="38"/>
+      <c r="AK264" s="38"/>
+      <c r="AL264" s="38"/>
+      <c r="AM264" s="38"/>
+      <c r="AN264" s="38"/>
+      <c r="AO264" s="38"/>
+      <c r="AP264" s="38"/>
+      <c r="AQ264" s="38"/>
+      <c r="AR264" s="38"/>
+      <c r="AS264" s="38"/>
+      <c r="AT264" s="38"/>
+      <c r="AU264" s="38"/>
+      <c r="AV264" s="38"/>
+      <c r="AW264" s="38"/>
+      <c r="AX264" s="38"/>
+      <c r="AY264" s="38"/>
+      <c r="AZ264" s="38"/>
+      <c r="BA264" s="38"/>
     </row>
     <row r="265" spans="1:53">
-      <c r="A265" s="39"/>
-      <c r="B265" s="39"/>
-      <c r="C265" s="39"/>
-      <c r="D265" s="39"/>
-      <c r="E265" s="39"/>
-      <c r="F265" s="39"/>
-      <c r="G265" s="39"/>
-      <c r="H265" s="39"/>
-      <c r="I265" s="39"/>
-      <c r="J265" s="39"/>
-      <c r="K265" s="39"/>
-      <c r="L265" s="39"/>
-      <c r="M265" s="39"/>
-      <c r="N265" s="39"/>
-      <c r="O265" s="39"/>
-      <c r="P265" s="40"/>
-      <c r="Q265" s="41"/>
-      <c r="R265" s="42"/>
-      <c r="S265" s="42"/>
-      <c r="T265" s="42"/>
-      <c r="U265" s="42"/>
-      <c r="V265" s="42"/>
-      <c r="W265" s="42"/>
-      <c r="X265" s="42"/>
-      <c r="Y265" s="42"/>
-      <c r="Z265" s="42"/>
-      <c r="AA265" s="42"/>
-      <c r="AB265" s="42"/>
-      <c r="AC265" s="42"/>
-      <c r="AD265" s="42"/>
-      <c r="AE265" s="42"/>
-      <c r="AF265" s="42"/>
-      <c r="AG265" s="42"/>
-      <c r="AH265" s="42"/>
-      <c r="AI265" s="42"/>
-      <c r="AJ265" s="42"/>
-      <c r="AK265" s="42"/>
-      <c r="AL265" s="42"/>
-      <c r="AM265" s="42"/>
-      <c r="AN265" s="42"/>
-      <c r="AO265" s="42"/>
-      <c r="AP265" s="42"/>
-      <c r="AQ265" s="42"/>
-      <c r="AR265" s="42"/>
-      <c r="AS265" s="42"/>
-      <c r="AT265" s="42"/>
-      <c r="AU265" s="42"/>
-      <c r="AV265" s="42"/>
-      <c r="AW265" s="42"/>
-      <c r="AX265" s="42"/>
-      <c r="AY265" s="42"/>
-      <c r="AZ265" s="42"/>
-      <c r="BA265" s="42"/>
+      <c r="A265" s="43"/>
+      <c r="B265" s="43"/>
+      <c r="C265" s="43"/>
+      <c r="D265" s="43"/>
+      <c r="E265" s="43"/>
+      <c r="F265" s="43"/>
+      <c r="G265" s="43"/>
+      <c r="H265" s="43"/>
+      <c r="I265" s="43"/>
+      <c r="J265" s="43"/>
+      <c r="K265" s="43"/>
+      <c r="L265" s="43"/>
+      <c r="M265" s="43"/>
+      <c r="N265" s="43"/>
+      <c r="O265" s="43"/>
+      <c r="P265" s="44"/>
+      <c r="Q265" s="46"/>
+      <c r="R265" s="47"/>
+      <c r="S265" s="47"/>
+      <c r="T265" s="47"/>
+      <c r="U265" s="47"/>
+      <c r="V265" s="47"/>
+      <c r="W265" s="47"/>
+      <c r="X265" s="47"/>
+      <c r="Y265" s="47"/>
+      <c r="Z265" s="47"/>
+      <c r="AA265" s="47"/>
+      <c r="AB265" s="47"/>
+      <c r="AC265" s="47"/>
+      <c r="AD265" s="47"/>
+      <c r="AE265" s="47"/>
+      <c r="AF265" s="47"/>
+      <c r="AG265" s="47"/>
+      <c r="AH265" s="47"/>
+      <c r="AI265" s="47"/>
+      <c r="AJ265" s="47"/>
+      <c r="AK265" s="47"/>
+      <c r="AL265" s="47"/>
+      <c r="AM265" s="47"/>
+      <c r="AN265" s="47"/>
+      <c r="AO265" s="47"/>
+      <c r="AP265" s="47"/>
+      <c r="AQ265" s="47"/>
+      <c r="AR265" s="47"/>
+      <c r="AS265" s="47"/>
+      <c r="AT265" s="47"/>
+      <c r="AU265" s="47"/>
+      <c r="AV265" s="47"/>
+      <c r="AW265" s="47"/>
+      <c r="AX265" s="47"/>
+      <c r="AY265" s="47"/>
+      <c r="AZ265" s="47"/>
+      <c r="BA265" s="47"/>
     </row>
     <row r="266" spans="1:53">
-      <c r="A266" s="47"/>
-      <c r="B266" s="47"/>
-      <c r="C266" s="47"/>
-      <c r="D266" s="47"/>
-      <c r="E266" s="47"/>
-      <c r="F266" s="47"/>
-      <c r="G266" s="47"/>
-      <c r="H266" s="47"/>
-      <c r="I266" s="47"/>
-      <c r="J266" s="47"/>
-      <c r="K266" s="47"/>
-      <c r="L266" s="47"/>
-      <c r="M266" s="47"/>
-      <c r="N266" s="47"/>
-      <c r="O266" s="47"/>
-      <c r="P266" s="47"/>
-      <c r="Q266" s="47"/>
-      <c r="R266" s="47"/>
-      <c r="S266" s="47"/>
-      <c r="T266" s="47"/>
-      <c r="U266" s="47"/>
-      <c r="V266" s="47"/>
-      <c r="W266" s="47"/>
-      <c r="X266" s="47"/>
-      <c r="Y266" s="47"/>
-      <c r="Z266" s="47"/>
-      <c r="AA266" s="47"/>
-      <c r="AB266" s="47"/>
-      <c r="AC266" s="47"/>
-      <c r="AD266" s="47"/>
-      <c r="AE266" s="47"/>
-      <c r="AF266" s="47"/>
-      <c r="AG266" s="47"/>
-      <c r="AH266" s="47"/>
-      <c r="AI266" s="47"/>
-      <c r="AJ266" s="47"/>
-      <c r="AK266" s="47"/>
-      <c r="AL266" s="47"/>
-      <c r="AM266" s="47"/>
-      <c r="AN266" s="47"/>
-      <c r="AO266" s="47"/>
-      <c r="AP266" s="47"/>
-      <c r="AQ266" s="47"/>
-      <c r="AR266" s="47"/>
-      <c r="AS266" s="47"/>
-      <c r="AT266" s="47"/>
-      <c r="AU266" s="47"/>
-      <c r="AV266" s="47"/>
-      <c r="AW266" s="47"/>
-      <c r="AX266" s="47"/>
-      <c r="AY266" s="47"/>
-      <c r="AZ266" s="47"/>
-      <c r="BA266" s="47"/>
-    </row>
-    <row r="267" spans="1:53" s="53" customFormat="1">
+      <c r="A266" s="39"/>
+      <c r="B266" s="39"/>
+      <c r="C266" s="39"/>
+      <c r="D266" s="39"/>
+      <c r="E266" s="39"/>
+      <c r="F266" s="39"/>
+      <c r="G266" s="39"/>
+      <c r="H266" s="39"/>
+      <c r="I266" s="39"/>
+      <c r="J266" s="39"/>
+      <c r="K266" s="39"/>
+      <c r="L266" s="39"/>
+      <c r="M266" s="39"/>
+      <c r="N266" s="39"/>
+      <c r="O266" s="39"/>
+      <c r="P266" s="40"/>
+      <c r="Q266" s="41"/>
+      <c r="R266" s="42"/>
+      <c r="S266" s="42"/>
+      <c r="T266" s="42"/>
+      <c r="U266" s="42"/>
+      <c r="V266" s="42"/>
+      <c r="W266" s="42"/>
+      <c r="X266" s="42"/>
+      <c r="Y266" s="42"/>
+      <c r="Z266" s="42"/>
+      <c r="AA266" s="42"/>
+      <c r="AB266" s="42"/>
+      <c r="AC266" s="42"/>
+      <c r="AD266" s="42"/>
+      <c r="AE266" s="42"/>
+      <c r="AF266" s="42"/>
+      <c r="AG266" s="42"/>
+      <c r="AH266" s="42"/>
+      <c r="AI266" s="42"/>
+      <c r="AJ266" s="42"/>
+      <c r="AK266" s="42"/>
+      <c r="AL266" s="42"/>
+      <c r="AM266" s="42"/>
+      <c r="AN266" s="42"/>
+      <c r="AO266" s="42"/>
+      <c r="AP266" s="42"/>
+      <c r="AQ266" s="42"/>
+      <c r="AR266" s="42"/>
+      <c r="AS266" s="42"/>
+      <c r="AT266" s="42"/>
+      <c r="AU266" s="42"/>
+      <c r="AV266" s="42"/>
+      <c r="AW266" s="42"/>
+      <c r="AX266" s="42"/>
+      <c r="AY266" s="42"/>
+      <c r="AZ266" s="42"/>
+      <c r="BA266" s="42"/>
+    </row>
+    <row r="267" spans="1:53">
       <c r="A267" s="47"/>
       <c r="B267" s="47"/>
       <c r="C267" s="47"/>
@@ -19652,20 +19662,69 @@
       <c r="AZ267" s="47"/>
       <c r="BA267" s="47"/>
     </row>
+    <row r="268" spans="1:53" s="53" customFormat="1">
+      <c r="A268" s="47"/>
+      <c r="B268" s="47"/>
+      <c r="C268" s="47"/>
+      <c r="D268" s="47"/>
+      <c r="E268" s="47"/>
+      <c r="F268" s="47"/>
+      <c r="G268" s="47"/>
+      <c r="H268" s="47"/>
+      <c r="I268" s="47"/>
+      <c r="J268" s="47"/>
+      <c r="K268" s="47"/>
+      <c r="L268" s="47"/>
+      <c r="M268" s="47"/>
+      <c r="N268" s="47"/>
+      <c r="O268" s="47"/>
+      <c r="P268" s="47"/>
+      <c r="Q268" s="47"/>
+      <c r="R268" s="47"/>
+      <c r="S268" s="47"/>
+      <c r="T268" s="47"/>
+      <c r="U268" s="47"/>
+      <c r="V268" s="47"/>
+      <c r="W268" s="47"/>
+      <c r="X268" s="47"/>
+      <c r="Y268" s="47"/>
+      <c r="Z268" s="47"/>
+      <c r="AA268" s="47"/>
+      <c r="AB268" s="47"/>
+      <c r="AC268" s="47"/>
+      <c r="AD268" s="47"/>
+      <c r="AE268" s="47"/>
+      <c r="AF268" s="47"/>
+      <c r="AG268" s="47"/>
+      <c r="AH268" s="47"/>
+      <c r="AI268" s="47"/>
+      <c r="AJ268" s="47"/>
+      <c r="AK268" s="47"/>
+      <c r="AL268" s="47"/>
+      <c r="AM268" s="47"/>
+      <c r="AN268" s="47"/>
+      <c r="AO268" s="47"/>
+      <c r="AP268" s="47"/>
+      <c r="AQ268" s="47"/>
+      <c r="AR268" s="47"/>
+      <c r="AS268" s="47"/>
+      <c r="AT268" s="47"/>
+      <c r="AU268" s="47"/>
+      <c r="AV268" s="47"/>
+      <c r="AW268" s="47"/>
+      <c r="AX268" s="47"/>
+      <c r="AY268" s="47"/>
+      <c r="AZ268" s="47"/>
+      <c r="BA268" s="47"/>
+    </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C216:P216"/>
-    <mergeCell ref="Q216:BA216"/>
-    <mergeCell ref="C242:P242"/>
-    <mergeCell ref="Q242:BA242"/>
-    <mergeCell ref="C116:P116"/>
-    <mergeCell ref="Q116:BA116"/>
-    <mergeCell ref="C141:P141"/>
-    <mergeCell ref="Q141:BA141"/>
-    <mergeCell ref="C166:P166"/>
-    <mergeCell ref="Q166:BA166"/>
-    <mergeCell ref="C191:P191"/>
-    <mergeCell ref="Q191:BA191"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="P1:AH1"/>
+    <mergeCell ref="AI1:AM1"/>
+    <mergeCell ref="AN1:BA1"/>
+    <mergeCell ref="AI2:AM2"/>
+    <mergeCell ref="AN2:BA2"/>
     <mergeCell ref="C91:P91"/>
     <mergeCell ref="Q91:BA91"/>
     <mergeCell ref="A3:H3"/>
@@ -19677,12 +19736,18 @@
     <mergeCell ref="Q40:BA40"/>
     <mergeCell ref="C65:P65"/>
     <mergeCell ref="Q65:BA65"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="P1:AH1"/>
-    <mergeCell ref="AI1:AM1"/>
-    <mergeCell ref="AN1:BA1"/>
-    <mergeCell ref="AI2:AM2"/>
-    <mergeCell ref="AN2:BA2"/>
+    <mergeCell ref="C217:P217"/>
+    <mergeCell ref="Q217:BA217"/>
+    <mergeCell ref="C243:P243"/>
+    <mergeCell ref="Q243:BA243"/>
+    <mergeCell ref="C116:P116"/>
+    <mergeCell ref="Q116:BA116"/>
+    <mergeCell ref="C141:P141"/>
+    <mergeCell ref="Q141:BA141"/>
+    <mergeCell ref="C166:P166"/>
+    <mergeCell ref="Q166:BA166"/>
+    <mergeCell ref="C192:P192"/>
+    <mergeCell ref="Q192:BA192"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
